--- a/config_3.16/permission_server_config.xlsx
+++ b/config_3.16/permission_server_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5004" uniqueCount="2154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4988" uniqueCount="2150">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9913,22 +9913,6 @@
   </si>
   <si>
     <t>小游戏托管限制</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_gehk_v3_normal</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_gehk_v4v12_normal</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_gehk_v3_cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_gehk_v4v12_cjj</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -15614,13 +15598,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O378"/>
+  <dimension ref="A1:O374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D356" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D350" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C382" sqref="C382"/>
+      <selection pane="bottomRight" activeCell="C380" sqref="C380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -27968,33 +27952,33 @@
       <c r="A366" s="16">
         <v>365</v>
       </c>
-      <c r="B366" s="17">
-        <v>0</v>
-      </c>
-      <c r="C366" s="16" t="s">
+      <c r="B366" s="65">
+        <v>1</v>
+      </c>
+      <c r="C366" s="66" t="s">
         <v>2121</v>
       </c>
-      <c r="D366" s="16" t="s">
+      <c r="D366" s="66" t="s">
         <v>2136</v>
       </c>
-      <c r="E366" s="17"/>
-      <c r="F366" s="17"/>
-      <c r="G366" s="17">
+      <c r="E366" s="65"/>
+      <c r="F366" s="65"/>
+      <c r="G366" s="65">
         <v>399</v>
       </c>
-      <c r="H366" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I366" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J366" s="17" t="s">
+      <c r="H366" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I366" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J366" s="65" t="s">
         <v>455</v>
       </c>
-      <c r="K366" s="17">
+      <c r="K366" s="65">
         <v>1615248000</v>
       </c>
-      <c r="L366" s="16" t="s">
+      <c r="L366" s="66" t="s">
         <v>2118</v>
       </c>
     </row>
@@ -28002,166 +27986,166 @@
       <c r="A367" s="16">
         <v>366</v>
       </c>
-      <c r="B367" s="17">
-        <v>0</v>
-      </c>
-      <c r="C367" s="16" t="s">
+      <c r="B367" s="65">
+        <v>1</v>
+      </c>
+      <c r="C367" s="66" t="s">
         <v>2122</v>
       </c>
-      <c r="D367" s="16" t="s">
+      <c r="D367" s="66" t="s">
         <v>2123</v>
       </c>
-      <c r="E367" s="17"/>
-      <c r="F367" s="17"/>
-      <c r="G367" s="17">
+      <c r="E367" s="65"/>
+      <c r="F367" s="65"/>
+      <c r="G367" s="65">
         <v>400</v>
       </c>
-      <c r="H367" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I367" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J367" s="16" t="s">
+      <c r="H367" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I367" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J367" s="66" t="s">
         <v>1134</v>
       </c>
-      <c r="K367" s="17">
+      <c r="K367" s="65">
         <v>1615248000</v>
       </c>
-      <c r="L367" s="16" t="s">
+      <c r="L367" s="66" t="s">
         <v>2125</v>
       </c>
     </row>
-    <row r="368" spans="1:12" s="22" customFormat="1">
+    <row r="368" spans="1:12">
       <c r="A368" s="16">
         <v>367</v>
       </c>
-      <c r="B368" s="17">
-        <v>0</v>
-      </c>
-      <c r="C368" s="16" t="s">
+      <c r="B368" s="65">
+        <v>1</v>
+      </c>
+      <c r="C368" s="66" t="s">
         <v>2138</v>
       </c>
-      <c r="D368" s="16" t="s">
+      <c r="D368" s="66" t="s">
         <v>2126</v>
       </c>
-      <c r="E368" s="17"/>
-      <c r="F368" s="17"/>
-      <c r="G368" s="17">
+      <c r="E368" s="65"/>
+      <c r="F368" s="65"/>
+      <c r="G368" s="65">
         <v>401</v>
       </c>
-      <c r="H368" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I368" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J368" s="16" t="s">
+      <c r="H368" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I368" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J368" s="66" t="s">
         <v>1116</v>
       </c>
-      <c r="K368" s="17">
+      <c r="K368" s="65">
         <v>1615248000</v>
       </c>
-      <c r="L368" s="16" t="s">
+      <c r="L368" s="66" t="s">
         <v>2118</v>
       </c>
     </row>
-    <row r="369" spans="1:12" s="22" customFormat="1">
+    <row r="369" spans="1:12">
       <c r="A369" s="16">
         <v>368</v>
       </c>
-      <c r="B369" s="17">
-        <v>0</v>
-      </c>
-      <c r="C369" s="16" t="s">
+      <c r="B369" s="65">
+        <v>1</v>
+      </c>
+      <c r="C369" s="66" t="s">
         <v>2137</v>
       </c>
-      <c r="D369" s="16" t="s">
+      <c r="D369" s="66" t="s">
         <v>2127</v>
       </c>
-      <c r="E369" s="17"/>
-      <c r="F369" s="17"/>
-      <c r="G369" s="17">
+      <c r="E369" s="65"/>
+      <c r="F369" s="65"/>
+      <c r="G369" s="65">
         <v>402</v>
       </c>
-      <c r="H369" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I369" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J369" s="16" t="s">
+      <c r="H369" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I369" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J369" s="66" t="s">
         <v>1116</v>
       </c>
-      <c r="K369" s="17">
+      <c r="K369" s="65">
         <v>1615248000</v>
       </c>
-      <c r="L369" s="16" t="s">
+      <c r="L369" s="66" t="s">
         <v>2118</v>
       </c>
     </row>
-    <row r="370" spans="1:12" s="22" customFormat="1">
+    <row r="370" spans="1:12">
       <c r="A370" s="16">
-        <v>368</v>
-      </c>
-      <c r="B370" s="17">
-        <v>1</v>
-      </c>
-      <c r="C370" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="B370" s="65">
+        <v>1</v>
+      </c>
+      <c r="C370" s="66" t="s">
         <v>2129</v>
       </c>
       <c r="D370" s="16" t="s">
         <v>2131</v>
       </c>
-      <c r="E370" s="17"/>
-      <c r="F370" s="17"/>
+      <c r="E370" s="65"/>
+      <c r="F370" s="65"/>
       <c r="G370" s="16">
         <v>370</v>
       </c>
-      <c r="H370" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I370" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J370" s="16" t="s">
+      <c r="H370" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I370" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J370" s="66" t="s">
         <v>1116</v>
       </c>
-      <c r="K370" s="17">
+      <c r="K370" s="65">
         <v>1615248000</v>
       </c>
       <c r="L370" s="16" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="371" spans="1:12" s="22" customFormat="1">
+    <row r="371" spans="1:12">
       <c r="A371" s="16">
-        <v>368</v>
-      </c>
-      <c r="B371" s="17">
-        <v>1</v>
-      </c>
-      <c r="C371" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="B371" s="65">
+        <v>1</v>
+      </c>
+      <c r="C371" s="66" t="s">
         <v>2130</v>
       </c>
       <c r="D371" s="16" t="s">
         <v>2132</v>
       </c>
-      <c r="E371" s="17"/>
-      <c r="F371" s="17"/>
+      <c r="E371" s="65"/>
+      <c r="F371" s="65"/>
       <c r="G371" s="16">
         <v>371</v>
       </c>
-      <c r="H371" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I371" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J371" s="16" t="s">
+      <c r="H371" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I371" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J371" s="66" t="s">
         <v>1116</v>
       </c>
-      <c r="K371" s="17">
+      <c r="K371" s="65">
         <v>1615248000</v>
       </c>
       <c r="L371" s="16" t="s">
@@ -28170,75 +28154,75 @@
     </row>
     <row r="372" spans="1:12" s="22" customFormat="1">
       <c r="A372" s="16">
-        <v>368</v>
-      </c>
-      <c r="B372" s="17">
-        <v>0</v>
-      </c>
-      <c r="C372" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="B372" s="65">
+        <v>1</v>
+      </c>
+      <c r="C372" s="58" t="s">
         <v>2134</v>
       </c>
-      <c r="D372" s="16" t="s">
+      <c r="D372" s="66" t="s">
         <v>2133</v>
       </c>
-      <c r="E372" s="17"/>
-      <c r="F372" s="17"/>
-      <c r="G372" s="17">
+      <c r="E372" s="65"/>
+      <c r="F372" s="65"/>
+      <c r="G372" s="65">
         <v>393</v>
       </c>
-      <c r="H372" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="I372" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J372" s="16" t="s">
+      <c r="H372" s="109" t="b">
+        <v>1</v>
+      </c>
+      <c r="I372" s="109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J372" s="66" t="s">
         <v>455</v>
       </c>
-      <c r="K372" s="17">
+      <c r="K372" s="65">
         <v>1615248000</v>
       </c>
-      <c r="L372" s="16" t="s">
+      <c r="L372" s="66" t="s">
         <v>2118</v>
       </c>
     </row>
     <row r="373" spans="1:12" s="22" customFormat="1">
       <c r="A373" s="16">
-        <v>368</v>
-      </c>
-      <c r="B373" s="17">
-        <v>0</v>
-      </c>
-      <c r="C373" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="B373" s="65">
+        <v>1</v>
+      </c>
+      <c r="C373" s="58" t="s">
         <v>2135</v>
       </c>
-      <c r="D373" s="16" t="s">
+      <c r="D373" s="66" t="s">
         <v>2086</v>
       </c>
-      <c r="E373" s="17"/>
-      <c r="F373" s="17"/>
-      <c r="G373" s="17">
+      <c r="E373" s="65"/>
+      <c r="F373" s="65"/>
+      <c r="G373" s="65">
         <v>394</v>
       </c>
-      <c r="H373" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="I373" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J373" s="16" t="s">
+      <c r="H373" s="109" t="b">
+        <v>1</v>
+      </c>
+      <c r="I373" s="109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J373" s="66" t="s">
         <v>2145</v>
       </c>
-      <c r="K373" s="17">
+      <c r="K373" s="65">
         <v>1615248000</v>
       </c>
-      <c r="L373" s="16" t="s">
+      <c r="L373" s="66" t="s">
         <v>2118</v>
       </c>
     </row>
     <row r="374" spans="1:12">
-      <c r="A374" s="16">
-        <v>368</v>
+      <c r="A374" s="26">
+        <v>373</v>
       </c>
       <c r="B374" s="26">
         <v>1</v>
@@ -28263,142 +28247,6 @@
       </c>
       <c r="K374" s="26">
         <v>1615248000</v>
-      </c>
-    </row>
-    <row r="375" spans="1:12" s="67" customFormat="1">
-      <c r="A375" s="16">
-        <v>368</v>
-      </c>
-      <c r="B375" s="65">
-        <v>1</v>
-      </c>
-      <c r="C375" s="66" t="s">
-        <v>2150</v>
-      </c>
-      <c r="D375" s="66" t="s">
-        <v>2126</v>
-      </c>
-      <c r="E375" s="65"/>
-      <c r="F375" s="65"/>
-      <c r="G375" s="65">
-        <v>401</v>
-      </c>
-      <c r="H375" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I375" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J375" s="66" t="s">
-        <v>1116</v>
-      </c>
-      <c r="K375" s="65">
-        <v>1615248000</v>
-      </c>
-      <c r="L375" s="66" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="376" spans="1:12" s="67" customFormat="1">
-      <c r="A376" s="16">
-        <v>368</v>
-      </c>
-      <c r="B376" s="65">
-        <v>1</v>
-      </c>
-      <c r="C376" s="66" t="s">
-        <v>2151</v>
-      </c>
-      <c r="D376" s="66" t="s">
-        <v>2127</v>
-      </c>
-      <c r="E376" s="65"/>
-      <c r="F376" s="65"/>
-      <c r="G376" s="65">
-        <v>402</v>
-      </c>
-      <c r="H376" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I376" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J376" s="66" t="s">
-        <v>1116</v>
-      </c>
-      <c r="K376" s="65">
-        <v>1615248000</v>
-      </c>
-      <c r="L376" s="66" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="377" spans="1:12" s="67" customFormat="1">
-      <c r="A377" s="16">
-        <v>368</v>
-      </c>
-      <c r="B377" s="65">
-        <v>1</v>
-      </c>
-      <c r="C377" s="66" t="s">
-        <v>2152</v>
-      </c>
-      <c r="D377" s="66" t="s">
-        <v>2126</v>
-      </c>
-      <c r="E377" s="65"/>
-      <c r="F377" s="65"/>
-      <c r="G377" s="65">
-        <v>401</v>
-      </c>
-      <c r="H377" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I377" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J377" s="66" t="s">
-        <v>1116</v>
-      </c>
-      <c r="K377" s="65">
-        <v>1615248000</v>
-      </c>
-      <c r="L377" s="66" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="378" spans="1:12" s="67" customFormat="1">
-      <c r="A378" s="16">
-        <v>368</v>
-      </c>
-      <c r="B378" s="65">
-        <v>1</v>
-      </c>
-      <c r="C378" s="66" t="s">
-        <v>2153</v>
-      </c>
-      <c r="D378" s="66" t="s">
-        <v>2127</v>
-      </c>
-      <c r="E378" s="65"/>
-      <c r="F378" s="65"/>
-      <c r="G378" s="65">
-        <v>402</v>
-      </c>
-      <c r="H378" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I378" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J378" s="66" t="s">
-        <v>1116</v>
-      </c>
-      <c r="K378" s="65">
-        <v>1615248000</v>
-      </c>
-      <c r="L378" s="66" t="s">
-        <v>2118</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.16/permission_server_config.xlsx
+++ b/config_3.16/permission_server_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4988" uniqueCount="2150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5024" uniqueCount="2159">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9816,10 +9816,6 @@
     <t>2021年3月15日23:59:59结束</t>
   </si>
   <si>
-    <t>2021年3月15日23:59:59结束</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>小于等于V3</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9913,6 +9909,40 @@
   </si>
   <si>
     <t>小游戏托管限制</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年3月22日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_xsfl_v3_normal</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_xsfl_v4v12_normal</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_xsfl_v3_cjj</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_xsfl_v4v12_cjj</t>
+  </si>
+  <si>
+    <t>限时福利v3及以下--捕鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时福利v4及以上--捕鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时福利v3及以下--冲金鸡</t>
+  </si>
+  <si>
+    <t>限时福利v4及以上--冲金鸡</t>
+  </si>
+  <si>
+    <t>大于等于V4</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10759,7 +10789,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B472" sqref="B472"/>
+      <selection pane="bottomLeft" activeCell="A472" sqref="A472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -15579,10 +15609,10 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B471" s="3" t="s">
         <v>2148</v>
-      </c>
-      <c r="B471" s="3" t="s">
-        <v>2149</v>
       </c>
       <c r="C471" s="3">
         <v>22</v>
@@ -15598,13 +15628,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O374"/>
+  <dimension ref="A1:O378"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D350" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D353" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C380" sqref="C380"/>
+      <selection pane="bottomRight" activeCell="D381" sqref="D381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -27820,7 +27850,7 @@
         <v>0</v>
       </c>
       <c r="C362" s="106" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="D362" s="16" t="s">
         <v>2063</v>
@@ -27959,7 +27989,7 @@
         <v>2121</v>
       </c>
       <c r="D366" s="66" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="E366" s="65"/>
       <c r="F366" s="65"/>
@@ -27976,10 +28006,10 @@
         <v>455</v>
       </c>
       <c r="K366" s="65">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="L366" s="66" t="s">
-        <v>2118</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="367" spans="1:12" s="22" customFormat="1">
@@ -28010,142 +28040,142 @@
         <v>1134</v>
       </c>
       <c r="K367" s="65">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="L367" s="66" t="s">
-        <v>2125</v>
-      </c>
-    </row>
-    <row r="368" spans="1:12">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" s="22" customFormat="1">
       <c r="A368" s="16">
         <v>367</v>
       </c>
-      <c r="B368" s="65">
-        <v>1</v>
-      </c>
-      <c r="C368" s="66" t="s">
-        <v>2138</v>
-      </c>
-      <c r="D368" s="66" t="s">
-        <v>2126</v>
-      </c>
-      <c r="E368" s="65"/>
-      <c r="F368" s="65"/>
-      <c r="G368" s="65">
+      <c r="B368" s="17">
+        <v>0</v>
+      </c>
+      <c r="C368" s="16" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D368" s="16" t="s">
+        <v>2125</v>
+      </c>
+      <c r="E368" s="17"/>
+      <c r="F368" s="17"/>
+      <c r="G368" s="17">
         <v>401</v>
       </c>
-      <c r="H368" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I368" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J368" s="66" t="s">
+      <c r="H368" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I368" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J368" s="16" t="s">
         <v>1116</v>
       </c>
-      <c r="K368" s="65">
+      <c r="K368" s="17">
         <v>1615248000</v>
       </c>
-      <c r="L368" s="66" t="s">
+      <c r="L368" s="16" t="s">
         <v>2118</v>
       </c>
     </row>
-    <row r="369" spans="1:12">
+    <row r="369" spans="1:12" s="22" customFormat="1">
       <c r="A369" s="16">
         <v>368</v>
       </c>
-      <c r="B369" s="65">
-        <v>1</v>
-      </c>
-      <c r="C369" s="66" t="s">
-        <v>2137</v>
-      </c>
-      <c r="D369" s="66" t="s">
-        <v>2127</v>
-      </c>
-      <c r="E369" s="65"/>
-      <c r="F369" s="65"/>
-      <c r="G369" s="65">
+      <c r="B369" s="17">
+        <v>0</v>
+      </c>
+      <c r="C369" s="16" t="s">
+        <v>2136</v>
+      </c>
+      <c r="D369" s="16" t="s">
+        <v>2126</v>
+      </c>
+      <c r="E369" s="17"/>
+      <c r="F369" s="17"/>
+      <c r="G369" s="17">
         <v>402</v>
       </c>
-      <c r="H369" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I369" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J369" s="66" t="s">
+      <c r="H369" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I369" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J369" s="16" t="s">
         <v>1116</v>
       </c>
-      <c r="K369" s="65">
+      <c r="K369" s="17">
         <v>1615248000</v>
       </c>
-      <c r="L369" s="66" t="s">
+      <c r="L369" s="16" t="s">
         <v>2118</v>
       </c>
     </row>
-    <row r="370" spans="1:12">
+    <row r="370" spans="1:12" s="22" customFormat="1">
       <c r="A370" s="16">
         <v>369</v>
       </c>
-      <c r="B370" s="65">
-        <v>1</v>
-      </c>
-      <c r="C370" s="66" t="s">
-        <v>2129</v>
+      <c r="B370" s="17">
+        <v>1</v>
+      </c>
+      <c r="C370" s="16" t="s">
+        <v>2128</v>
       </c>
       <c r="D370" s="16" t="s">
-        <v>2131</v>
-      </c>
-      <c r="E370" s="65"/>
-      <c r="F370" s="65"/>
+        <v>2130</v>
+      </c>
+      <c r="E370" s="17"/>
+      <c r="F370" s="17"/>
       <c r="G370" s="16">
         <v>370</v>
       </c>
-      <c r="H370" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I370" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J370" s="66" t="s">
+      <c r="H370" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I370" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J370" s="16" t="s">
         <v>1116</v>
       </c>
-      <c r="K370" s="65">
+      <c r="K370" s="17">
         <v>1615248000</v>
       </c>
       <c r="L370" s="16" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="371" spans="1:12">
+    <row r="371" spans="1:12" s="22" customFormat="1">
       <c r="A371" s="16">
         <v>370</v>
       </c>
-      <c r="B371" s="65">
-        <v>1</v>
-      </c>
-      <c r="C371" s="66" t="s">
-        <v>2130</v>
+      <c r="B371" s="17">
+        <v>1</v>
+      </c>
+      <c r="C371" s="16" t="s">
+        <v>2129</v>
       </c>
       <c r="D371" s="16" t="s">
-        <v>2132</v>
-      </c>
-      <c r="E371" s="65"/>
-      <c r="F371" s="65"/>
+        <v>2131</v>
+      </c>
+      <c r="E371" s="17"/>
+      <c r="F371" s="17"/>
       <c r="G371" s="16">
         <v>371</v>
       </c>
-      <c r="H371" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I371" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J371" s="66" t="s">
+      <c r="H371" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I371" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J371" s="16" t="s">
         <v>1116</v>
       </c>
-      <c r="K371" s="65">
+      <c r="K371" s="17">
         <v>1615248000</v>
       </c>
       <c r="L371" s="16" t="s">
@@ -28156,33 +28186,33 @@
       <c r="A372" s="16">
         <v>371</v>
       </c>
-      <c r="B372" s="65">
-        <v>1</v>
-      </c>
-      <c r="C372" s="58" t="s">
-        <v>2134</v>
-      </c>
-      <c r="D372" s="66" t="s">
+      <c r="B372" s="17">
+        <v>0</v>
+      </c>
+      <c r="C372" s="31" t="s">
         <v>2133</v>
       </c>
-      <c r="E372" s="65"/>
-      <c r="F372" s="65"/>
-      <c r="G372" s="65">
+      <c r="D372" s="16" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E372" s="17"/>
+      <c r="F372" s="17"/>
+      <c r="G372" s="17">
         <v>393</v>
       </c>
-      <c r="H372" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="I372" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="J372" s="66" t="s">
+      <c r="H372" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I372" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J372" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="K372" s="65">
+      <c r="K372" s="17">
         <v>1615248000</v>
       </c>
-      <c r="L372" s="66" t="s">
+      <c r="L372" s="16" t="s">
         <v>2118</v>
       </c>
     </row>
@@ -28190,33 +28220,33 @@
       <c r="A373" s="16">
         <v>372</v>
       </c>
-      <c r="B373" s="65">
-        <v>1</v>
-      </c>
-      <c r="C373" s="58" t="s">
-        <v>2135</v>
-      </c>
-      <c r="D373" s="66" t="s">
+      <c r="B373" s="17">
+        <v>0</v>
+      </c>
+      <c r="C373" s="31" t="s">
+        <v>2134</v>
+      </c>
+      <c r="D373" s="16" t="s">
         <v>2086</v>
       </c>
-      <c r="E373" s="65"/>
-      <c r="F373" s="65"/>
-      <c r="G373" s="65">
+      <c r="E373" s="17"/>
+      <c r="F373" s="17"/>
+      <c r="G373" s="17">
         <v>394</v>
       </c>
-      <c r="H373" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="I373" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="J373" s="66" t="s">
-        <v>2145</v>
-      </c>
-      <c r="K373" s="65">
+      <c r="H373" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I373" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J373" s="16" t="s">
+        <v>2144</v>
+      </c>
+      <c r="K373" s="17">
         <v>1615248000</v>
       </c>
-      <c r="L373" s="66" t="s">
+      <c r="L373" s="16" t="s">
         <v>2118</v>
       </c>
     </row>
@@ -28228,10 +28258,10 @@
         <v>1</v>
       </c>
       <c r="C374" s="26" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D374" s="26" t="s">
         <v>2143</v>
-      </c>
-      <c r="D374" s="26" t="s">
-        <v>2144</v>
       </c>
       <c r="G374" s="26">
         <v>405</v>
@@ -28243,10 +28273,146 @@
         <v>1</v>
       </c>
       <c r="J374" s="26" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="K374" s="26">
         <v>1615248000</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12">
+      <c r="A375" s="16">
+        <v>374</v>
+      </c>
+      <c r="B375" s="26">
+        <v>1</v>
+      </c>
+      <c r="C375" s="66" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D375" s="66" t="s">
+        <v>2154</v>
+      </c>
+      <c r="E375" s="65"/>
+      <c r="F375" s="65"/>
+      <c r="G375" s="65">
+        <v>406</v>
+      </c>
+      <c r="H375" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I375" s="109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J375" s="66" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K375" s="65">
+        <v>1615852800</v>
+      </c>
+      <c r="L375" s="66" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12">
+      <c r="A376" s="16">
+        <v>375</v>
+      </c>
+      <c r="B376" s="26">
+        <v>1</v>
+      </c>
+      <c r="C376" s="66" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D376" s="66" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E376" s="65"/>
+      <c r="F376" s="65"/>
+      <c r="G376" s="65">
+        <v>407</v>
+      </c>
+      <c r="H376" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I376" s="109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J376" s="66" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K376" s="65">
+        <v>1615852800</v>
+      </c>
+      <c r="L376" s="66" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12">
+      <c r="A377" s="26">
+        <v>376</v>
+      </c>
+      <c r="B377" s="26">
+        <v>1</v>
+      </c>
+      <c r="C377" s="66" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D377" s="66" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E377" s="65"/>
+      <c r="F377" s="65"/>
+      <c r="G377" s="65">
+        <v>408</v>
+      </c>
+      <c r="H377" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I377" s="109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J377" s="66" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K377" s="65">
+        <v>1615852800</v>
+      </c>
+      <c r="L377" s="66" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12">
+      <c r="A378" s="16">
+        <v>377</v>
+      </c>
+      <c r="B378" s="26">
+        <v>1</v>
+      </c>
+      <c r="C378" s="66" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D378" s="66" t="s">
+        <v>2157</v>
+      </c>
+      <c r="E378" s="65"/>
+      <c r="F378" s="65"/>
+      <c r="G378" s="65">
+        <v>409</v>
+      </c>
+      <c r="H378" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I378" s="109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J378" s="66" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K378" s="65">
+        <v>1615852800</v>
+      </c>
+      <c r="L378" s="66" t="s">
+        <v>2149</v>
       </c>
     </row>
   </sheetData>
@@ -28260,13 +28426,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I979"/>
+  <dimension ref="A1:I987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C948" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C957" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C962" sqref="C962"/>
+      <selection pane="bottomRight" activeCell="D990" sqref="D990"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -51588,7 +51754,7 @@
         <v>1</v>
       </c>
       <c r="G974" s="21" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="975" spans="1:9" s="8" customFormat="1">
@@ -51611,7 +51777,7 @@
         <v>1</v>
       </c>
       <c r="G975" s="8" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="976" spans="1:9" s="8" customFormat="1">
@@ -51634,7 +51800,7 @@
         <v>1</v>
       </c>
       <c r="G976" s="10" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="977" spans="1:7" s="8" customFormat="1">
@@ -51657,7 +51823,7 @@
         <v>1</v>
       </c>
       <c r="G977" s="8" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="978" spans="1:7" s="8" customFormat="1">
@@ -51671,7 +51837,7 @@
         <v>1142</v>
       </c>
       <c r="D978" s="95" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="E978" s="8">
         <v>2</v>
@@ -51680,7 +51846,7 @@
         <v>1</v>
       </c>
       <c r="G978" s="10" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="979" spans="1:7">
@@ -51703,7 +51869,191 @@
         <v>1</v>
       </c>
       <c r="G979" s="49" t="s">
-        <v>2147</v>
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="980" spans="1:7">
+      <c r="A980" s="8">
+        <v>979</v>
+      </c>
+      <c r="B980" s="9">
+        <v>406</v>
+      </c>
+      <c r="C980" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D980" s="20">
+        <v>3</v>
+      </c>
+      <c r="E980" s="20">
+        <v>4</v>
+      </c>
+      <c r="F980" s="20">
+        <v>1</v>
+      </c>
+      <c r="G980" s="21" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="981" spans="1:7">
+      <c r="A981" s="8">
+        <v>980</v>
+      </c>
+      <c r="B981" s="9">
+        <v>406</v>
+      </c>
+      <c r="C981" s="21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D981" s="21" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E981" s="20">
+        <v>5</v>
+      </c>
+      <c r="F981" s="20">
+        <v>1</v>
+      </c>
+      <c r="G981" s="21" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="982" spans="1:7">
+      <c r="A982" s="8">
+        <v>981</v>
+      </c>
+      <c r="B982" s="9">
+        <v>407</v>
+      </c>
+      <c r="C982" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D982" s="20">
+        <v>4</v>
+      </c>
+      <c r="E982" s="20">
+        <v>3</v>
+      </c>
+      <c r="F982" s="20">
+        <v>1</v>
+      </c>
+      <c r="G982" s="21" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="983" spans="1:7">
+      <c r="A983" s="9">
+        <v>982</v>
+      </c>
+      <c r="B983" s="9">
+        <v>407</v>
+      </c>
+      <c r="C983" s="21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D983" s="21" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E983" s="20">
+        <v>5</v>
+      </c>
+      <c r="F983" s="20">
+        <v>1</v>
+      </c>
+      <c r="G983" s="21" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="984" spans="1:7">
+      <c r="A984" s="8">
+        <v>983</v>
+      </c>
+      <c r="B984" s="9">
+        <v>408</v>
+      </c>
+      <c r="C984" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D984" s="20">
+        <v>3</v>
+      </c>
+      <c r="E984" s="20">
+        <v>4</v>
+      </c>
+      <c r="F984" s="20">
+        <v>1</v>
+      </c>
+      <c r="G984" s="21" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="985" spans="1:7">
+      <c r="A985" s="8">
+        <v>984</v>
+      </c>
+      <c r="B985" s="9">
+        <v>408</v>
+      </c>
+      <c r="C985" s="21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D985" s="21" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E985" s="20">
+        <v>2</v>
+      </c>
+      <c r="F985" s="20">
+        <v>1</v>
+      </c>
+      <c r="G985" s="21" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="986" spans="1:7">
+      <c r="A986" s="8">
+        <v>985</v>
+      </c>
+      <c r="B986" s="9">
+        <v>409</v>
+      </c>
+      <c r="C986" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D986" s="20">
+        <v>4</v>
+      </c>
+      <c r="E986" s="20">
+        <v>3</v>
+      </c>
+      <c r="F986" s="20">
+        <v>1</v>
+      </c>
+      <c r="G986" s="21" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="987" spans="1:7">
+      <c r="A987" s="9">
+        <v>986</v>
+      </c>
+      <c r="B987" s="9">
+        <v>409</v>
+      </c>
+      <c r="C987" s="21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D987" s="21" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E987" s="20">
+        <v>2</v>
+      </c>
+      <c r="F987" s="20">
+        <v>1</v>
+      </c>
+      <c r="G987" s="21" t="s">
+        <v>1879</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.16/permission_server_config.xlsx
+++ b/config_3.16/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5024" uniqueCount="2159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5024" uniqueCount="2160">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9943,6 +9943,10 @@
   </si>
   <si>
     <t>大于等于V4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非cjj</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -15630,11 +15634,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O378"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D353" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E353" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D381" sqref="D381"/>
+      <selection pane="bottomRight" activeCell="K378" sqref="K378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -28306,8 +28310,8 @@
       <c r="J375" s="66" t="s">
         <v>1116</v>
       </c>
-      <c r="K375" s="65">
-        <v>1615852800</v>
+      <c r="K375" s="20">
+        <v>1615824000</v>
       </c>
       <c r="L375" s="66" t="s">
         <v>2149</v>
@@ -28340,8 +28344,8 @@
       <c r="J376" s="66" t="s">
         <v>1116</v>
       </c>
-      <c r="K376" s="65">
-        <v>1615852800</v>
+      <c r="K376" s="20">
+        <v>1615824000</v>
       </c>
       <c r="L376" s="66" t="s">
         <v>2149</v>
@@ -28374,8 +28378,8 @@
       <c r="J377" s="66" t="s">
         <v>1116</v>
       </c>
-      <c r="K377" s="65">
-        <v>1615852800</v>
+      <c r="K377" s="20">
+        <v>1615824000</v>
       </c>
       <c r="L377" s="66" t="s">
         <v>2149</v>
@@ -28408,8 +28412,8 @@
       <c r="J378" s="66" t="s">
         <v>1116</v>
       </c>
-      <c r="K378" s="65">
-        <v>1615852800</v>
+      <c r="K378" s="20">
+        <v>1615824000</v>
       </c>
       <c r="L378" s="66" t="s">
         <v>2149</v>
@@ -28428,11 +28432,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I987"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C957" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C954" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D990" sqref="D990"/>
+      <selection pane="bottomRight" activeCell="G977" sqref="G977"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -51915,7 +51919,7 @@
         <v>1</v>
       </c>
       <c r="G981" s="21" t="s">
-        <v>1879</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="982" spans="1:7">
@@ -51961,7 +51965,7 @@
         <v>1</v>
       </c>
       <c r="G983" s="21" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="984" spans="1:7">

--- a/config_3.16/permission_server_config.xlsx
+++ b/config_3.16/permission_server_config.xlsx
@@ -9848,14 +9848,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>actp_rank_kh315_008_lhphb_rank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_rank_xxlzb_005_rank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>非cjj且大于V5</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9947,6 +9939,14 @@
   </si>
   <si>
     <t>非cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_cnhk_009_thphb_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_xxlzb_006_rank</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -15613,10 +15613,10 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="3" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="C471" s="3">
         <v>22</v>
@@ -15635,10 +15635,10 @@
   <dimension ref="A1:O378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E353" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G356" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K378" sqref="K378"/>
+      <selection pane="bottomRight" activeCell="G372" sqref="G372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -27854,7 +27854,7 @@
         <v>0</v>
       </c>
       <c r="C362" s="106" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="D362" s="16" t="s">
         <v>2063</v>
@@ -27993,7 +27993,7 @@
         <v>2121</v>
       </c>
       <c r="D366" s="66" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="E366" s="65"/>
       <c r="F366" s="65"/>
@@ -28013,7 +28013,7 @@
         <v>1615852800</v>
       </c>
       <c r="L366" s="66" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="367" spans="1:12" s="22" customFormat="1">
@@ -28047,7 +28047,7 @@
         <v>1615852800</v>
       </c>
       <c r="L367" s="66" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="368" spans="1:12" s="22" customFormat="1">
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="D368" s="16" t="s">
         <v>2125</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C369" s="16" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="D369" s="16" t="s">
         <v>2126</v>
@@ -28186,72 +28186,72 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="372" spans="1:12" s="22" customFormat="1">
-      <c r="A372" s="16">
+    <row r="372" spans="1:12" s="67" customFormat="1">
+      <c r="A372" s="66">
         <v>371</v>
       </c>
-      <c r="B372" s="17">
-        <v>0</v>
-      </c>
-      <c r="C372" s="31" t="s">
-        <v>2133</v>
-      </c>
-      <c r="D372" s="16" t="s">
+      <c r="B372" s="65">
+        <v>1</v>
+      </c>
+      <c r="C372" s="58" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D372" s="66" t="s">
         <v>2132</v>
       </c>
-      <c r="E372" s="17"/>
-      <c r="F372" s="17"/>
-      <c r="G372" s="17">
+      <c r="E372" s="65"/>
+      <c r="F372" s="65"/>
+      <c r="G372" s="65">
         <v>393</v>
       </c>
-      <c r="H372" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="I372" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J372" s="16" t="s">
+      <c r="H372" s="109" t="b">
+        <v>1</v>
+      </c>
+      <c r="I372" s="109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J372" s="66" t="s">
         <v>455</v>
       </c>
-      <c r="K372" s="17">
-        <v>1615248000</v>
-      </c>
-      <c r="L372" s="16" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="373" spans="1:12" s="22" customFormat="1">
-      <c r="A373" s="16">
+      <c r="K372" s="20">
+        <v>1615824000</v>
+      </c>
+      <c r="L372" s="66" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" s="67" customFormat="1">
+      <c r="A373" s="66">
         <v>372</v>
       </c>
-      <c r="B373" s="17">
-        <v>0</v>
-      </c>
-      <c r="C373" s="31" t="s">
-        <v>2134</v>
-      </c>
-      <c r="D373" s="16" t="s">
+      <c r="B373" s="65">
+        <v>1</v>
+      </c>
+      <c r="C373" s="58" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D373" s="66" t="s">
         <v>2086</v>
       </c>
-      <c r="E373" s="17"/>
-      <c r="F373" s="17"/>
-      <c r="G373" s="17">
+      <c r="E373" s="65"/>
+      <c r="F373" s="65"/>
+      <c r="G373" s="65">
         <v>394</v>
       </c>
-      <c r="H373" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="I373" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J373" s="16" t="s">
-        <v>2144</v>
-      </c>
-      <c r="K373" s="17">
-        <v>1615248000</v>
-      </c>
-      <c r="L373" s="16" t="s">
-        <v>2118</v>
+      <c r="H373" s="109" t="b">
+        <v>1</v>
+      </c>
+      <c r="I373" s="109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J373" s="66" t="s">
+        <v>2142</v>
+      </c>
+      <c r="K373" s="20">
+        <v>1615824000</v>
+      </c>
+      <c r="L373" s="66" t="s">
+        <v>2147</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -28262,10 +28262,10 @@
         <v>1</v>
       </c>
       <c r="C374" s="26" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="D374" s="26" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="G374" s="26">
         <v>405</v>
@@ -28277,7 +28277,7 @@
         <v>1</v>
       </c>
       <c r="J374" s="26" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="K374" s="26">
         <v>1615248000</v>
@@ -28291,10 +28291,10 @@
         <v>1</v>
       </c>
       <c r="C375" s="66" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="D375" s="66" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="E375" s="65"/>
       <c r="F375" s="65"/>
@@ -28314,7 +28314,7 @@
         <v>1615824000</v>
       </c>
       <c r="L375" s="66" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -28325,10 +28325,10 @@
         <v>1</v>
       </c>
       <c r="C376" s="66" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="D376" s="66" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="E376" s="65"/>
       <c r="F376" s="65"/>
@@ -28348,7 +28348,7 @@
         <v>1615824000</v>
       </c>
       <c r="L376" s="66" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -28359,10 +28359,10 @@
         <v>1</v>
       </c>
       <c r="C377" s="66" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="D377" s="66" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="E377" s="65"/>
       <c r="F377" s="65"/>
@@ -28382,7 +28382,7 @@
         <v>1615824000</v>
       </c>
       <c r="L377" s="66" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -28393,10 +28393,10 @@
         <v>1</v>
       </c>
       <c r="C378" s="66" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="D378" s="66" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="E378" s="65"/>
       <c r="F378" s="65"/>
@@ -28416,7 +28416,7 @@
         <v>1615824000</v>
       </c>
       <c r="L378" s="66" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
     </row>
   </sheetData>
@@ -28433,10 +28433,10 @@
   <dimension ref="A1:I987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C954" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C942" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G977" sqref="G977"/>
+      <selection pane="bottomRight" activeCell="E960" sqref="E960"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -51781,7 +51781,7 @@
         <v>1</v>
       </c>
       <c r="G975" s="8" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="976" spans="1:9" s="8" customFormat="1">
@@ -51804,7 +51804,7 @@
         <v>1</v>
       </c>
       <c r="G976" s="10" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="977" spans="1:7" s="8" customFormat="1">
@@ -51827,7 +51827,7 @@
         <v>1</v>
       </c>
       <c r="G977" s="8" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="978" spans="1:7" s="8" customFormat="1">
@@ -51841,7 +51841,7 @@
         <v>1142</v>
       </c>
       <c r="D978" s="95" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="E978" s="8">
         <v>2</v>
@@ -51850,7 +51850,7 @@
         <v>1</v>
       </c>
       <c r="G978" s="10" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="979" spans="1:7">
@@ -51873,7 +51873,7 @@
         <v>1</v>
       </c>
       <c r="G979" s="49" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="980" spans="1:7">
@@ -51919,7 +51919,7 @@
         <v>1</v>
       </c>
       <c r="G981" s="21" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="982" spans="1:7">
@@ -51942,7 +51942,7 @@
         <v>1</v>
       </c>
       <c r="G982" s="21" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="983" spans="1:7">
@@ -52034,7 +52034,7 @@
         <v>1</v>
       </c>
       <c r="G986" s="21" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="987" spans="1:7">

--- a/config_3.16/permission_server_config.xlsx
+++ b/config_3.16/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5024" uniqueCount="2160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5043" uniqueCount="2173">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -7216,10 +7216,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>"normal",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>3D捕鱼官方渠道</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -8066,10 +8062,6 @@
   </si>
   <si>
     <t>cpl_cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -8409,10 +8401,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>"pceggs","xianwan","pdd","duoliang","zhuanke91","doudouqu","paopaozhuan","mtzd","juxiang","xiaozhuo","aibianxian","juju","qwxq",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>非冲金鸡的全渠道</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9243,10 +9231,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>"vivo","xiaomi","yyb_hlttby",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>vip_week_task_2</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9947,6 +9931,74 @@
   </si>
   <si>
     <t>now</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"byam",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥秘官方</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_cps</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥秘CPS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥秘ALL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"byam_xianwan",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是捕鱼奥秘</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"normal","byam",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"xiaomi_byam","yyb_byam",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"vivo","xiaomi","yyb_hlttby","xiaomi_byam","yyb_byam",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"byam","xiaomi_byam","yyb_byam","byam_xianwan",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pceggs","xianwan","pdd","duoliang","zhuanke91","doudouqu","paopaozhuan","mtzd","juxiang","xiaozhuo","aibianxian","juju","qwxq","byam_xianwan",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10792,8 +10844,8 @@
   <dimension ref="A1:Q471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A472" sqref="A472"/>
+      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A383" sqref="A383:XFD383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -11812,7 +11864,7 @@
         <v>111</v>
       </c>
       <c r="B59" s="49" t="s">
-        <v>2109</v>
+        <v>2105</v>
       </c>
       <c r="C59" s="9">
         <v>22</v>
@@ -11827,7 +11879,7 @@
         <v>112</v>
       </c>
       <c r="B60" s="49" t="s">
-        <v>2110</v>
+        <v>2106</v>
       </c>
       <c r="C60" s="9">
         <v>22</v>
@@ -11842,7 +11894,7 @@
         <v>113</v>
       </c>
       <c r="B61" s="49" t="s">
-        <v>2111</v>
+        <v>2107</v>
       </c>
       <c r="C61" s="9">
         <v>22</v>
@@ -11857,7 +11909,7 @@
         <v>114</v>
       </c>
       <c r="B62" s="49" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="C62" s="9">
         <v>24</v>
@@ -11871,7 +11923,7 @@
         <v>115</v>
       </c>
       <c r="B63" s="49" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
       <c r="C63" s="9">
         <v>22</v>
@@ -11885,7 +11937,7 @@
         <v>116</v>
       </c>
       <c r="B64" s="49" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
       <c r="C64" s="9">
         <v>22</v>
@@ -11900,7 +11952,7 @@
         <v>117</v>
       </c>
       <c r="B65" s="49" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
       <c r="C65" s="53">
         <v>22</v>
@@ -11915,7 +11967,7 @@
         <v>118</v>
       </c>
       <c r="B66" s="49" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
       <c r="C66" s="53">
         <v>23</v>
@@ -11929,7 +11981,7 @@
         <v>119</v>
       </c>
       <c r="B67" s="49" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
       <c r="C67" s="9">
         <v>24</v>
@@ -11947,7 +11999,7 @@
         <v>120</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
       <c r="C68" s="9">
         <v>25</v>
@@ -11980,7 +12032,7 @@
         <v>123</v>
       </c>
       <c r="B70" s="49" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -11998,7 +12050,7 @@
         <v>124</v>
       </c>
       <c r="B71" s="49" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -12016,7 +12068,7 @@
         <v>125</v>
       </c>
       <c r="B72" s="49" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -12034,7 +12086,7 @@
         <v>126</v>
       </c>
       <c r="B73" s="49" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="C73" s="53">
         <v>22</v>
@@ -12054,7 +12106,7 @@
         <v>127</v>
       </c>
       <c r="B74" s="49" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C74" s="53">
         <v>22</v>
@@ -12068,7 +12120,7 @@
         <v>128</v>
       </c>
       <c r="B75" s="49" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C75" s="53">
         <v>22</v>
@@ -12083,7 +12135,7 @@
         <v>129</v>
       </c>
       <c r="B76" s="49" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C76" s="53">
         <v>23</v>
@@ -12098,7 +12150,7 @@
         <v>130</v>
       </c>
       <c r="B77" s="49" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="C77" s="53">
         <v>23</v>
@@ -12113,7 +12165,7 @@
         <v>131</v>
       </c>
       <c r="B78" s="49" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="C78" s="9">
         <v>24</v>
@@ -12128,7 +12180,7 @@
         <v>132</v>
       </c>
       <c r="B79" s="49" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C79" s="9">
         <v>25</v>
@@ -12143,7 +12195,7 @@
         <v>133</v>
       </c>
       <c r="B80" s="49" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C80" s="9">
         <v>26</v>
@@ -12158,7 +12210,7 @@
         <v>134</v>
       </c>
       <c r="B81" s="49" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="C81" s="9">
         <v>26</v>
@@ -12173,7 +12225,7 @@
         <v>135</v>
       </c>
       <c r="B82" s="49" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -13155,7 +13207,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="31" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>283</v>
@@ -13359,7 +13411,7 @@
     </row>
     <row r="200" spans="1:10" s="61" customFormat="1">
       <c r="A200" s="60" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
       <c r="B200" s="60" t="s">
         <v>320</v>
@@ -14697,7 +14749,7 @@
         <v>1363</v>
       </c>
       <c r="B349" s="27" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
       <c r="C349" s="3">
         <v>226</v>
@@ -14760,10 +14812,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="27" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="B355" s="27" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="C355" s="3">
         <v>8</v>
@@ -14771,10 +14823,10 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="27" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="B356" s="27" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="C356" s="3">
         <v>343</v>
@@ -14793,10 +14845,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="27" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="B360" s="31" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="C360" s="3">
         <v>332</v>
@@ -14807,7 +14859,7 @@
         <v>1445</v>
       </c>
       <c r="B361" s="31" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="C361" s="3">
         <v>242</v>
@@ -14829,7 +14881,7 @@
         <v>1441</v>
       </c>
       <c r="B363" s="27" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="C363" s="3">
         <v>244</v>
@@ -14840,7 +14892,7 @@
         <v>1479</v>
       </c>
       <c r="B366" s="27" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C366" s="3">
         <v>248</v>
@@ -14848,7 +14900,7 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="27" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B368" s="27" t="s">
         <v>1503</v>
@@ -14895,7 +14947,7 @@
         <v>1592</v>
       </c>
       <c r="B375" s="27" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="C375" s="3">
         <v>287</v>
@@ -14903,10 +14955,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="27" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B377" s="27" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="C377" s="3">
         <v>292</v>
@@ -14914,10 +14966,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="27" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B379" s="27" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C379" s="3">
         <v>319</v>
@@ -14925,10 +14977,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="27" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B381" s="27" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="C381" s="3">
         <v>326</v>
@@ -14936,10 +14988,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="27" t="s">
-        <v>1735</v>
+        <v>2164</v>
       </c>
       <c r="B383" s="27" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="C383" s="3">
         <v>327</v>
@@ -14947,10 +14999,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="27" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C385" s="3">
         <v>328</v>
@@ -14958,10 +15010,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="27" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="B387" s="27" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="C387" s="3">
         <v>319</v>
@@ -14969,10 +15021,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="31" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="B389" s="31" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="C389" s="8">
         <v>127</v>
@@ -14980,10 +15032,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="31" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="B390" s="31" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="C390" s="8">
         <v>128</v>
@@ -14991,10 +15043,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="31" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="B391" s="31" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="C391" s="8">
         <v>129</v>
@@ -15002,10 +15054,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="31" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="B392" s="31" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="C392" s="8">
         <v>130</v>
@@ -15013,10 +15065,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="31" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="B393" s="31" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="C393" s="8">
         <v>131</v>
@@ -15024,10 +15076,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="31" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="B394" s="31" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="C394" s="8">
         <v>132</v>
@@ -15035,10 +15087,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="31" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B395" s="31" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="C395" s="8">
         <v>133</v>
@@ -15046,10 +15098,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="31" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="B396" s="31" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C396" s="8">
         <v>134</v>
@@ -15057,10 +15109,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="31" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="B397" s="31" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="C397" s="8">
         <v>135</v>
@@ -15068,10 +15120,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="27" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="B399" s="27" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="C399" s="3">
         <v>333</v>
@@ -15079,10 +15131,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="27" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="B400" s="27" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C400" s="3">
         <v>333</v>
@@ -15090,10 +15142,10 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="27" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="B401" s="27" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="C401" s="3">
         <v>333</v>
@@ -15101,10 +15153,10 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="27" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="B402" s="27" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="C402" s="3">
         <v>333</v>
@@ -15112,10 +15164,10 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="27" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="B403" s="27" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="C403" s="3">
         <v>333</v>
@@ -15123,10 +15175,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="27" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B405" s="27" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="C405" s="3">
         <v>91</v>
@@ -15134,10 +15186,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="27" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="B407" s="27" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="C407" s="3">
         <v>339</v>
@@ -15145,10 +15197,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="3" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
       <c r="C409" s="3">
         <v>326</v>
@@ -15156,37 +15208,37 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="31" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="B411" s="10" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
       <c r="C411" s="9"/>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="18" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
       <c r="B412" s="10" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
       <c r="C412" s="9"/>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="18" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
       <c r="B413" s="10" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
       <c r="C413" s="9"/>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="18" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="B414" s="10" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="C414" s="53">
         <v>22</v>
@@ -15194,10 +15246,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="18" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="B415" s="10" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
       <c r="C415" s="53">
         <v>22</v>
@@ -15205,10 +15257,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="18" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
       <c r="B416" s="10" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="C416" s="53">
         <v>22</v>
@@ -15216,10 +15268,10 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="18" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="B417" s="10" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="C417" s="53">
         <v>23</v>
@@ -15227,10 +15279,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="18" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="B418" s="10" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="C418" s="53">
         <v>23</v>
@@ -15238,10 +15290,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="18" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="C419" s="9">
         <v>24</v>
@@ -15249,10 +15301,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="18" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="C420" s="9">
         <v>25</v>
@@ -15260,10 +15312,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="18" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="C421" s="9">
         <v>26</v>
@@ -15271,10 +15323,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="18" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
       <c r="C422" s="9">
         <v>26</v>
@@ -15282,10 +15334,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="18" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="B423" s="10" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
       <c r="C423" s="9">
         <v>26</v>
@@ -15293,10 +15345,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="27" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="B425" s="27" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="C425" s="3">
         <v>342</v>
@@ -15304,10 +15356,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="27" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="B427" s="27" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
       <c r="C427" s="3">
         <v>344</v>
@@ -15315,10 +15367,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="27" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="B428" s="27" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
       <c r="C428" s="3">
         <v>345</v>
@@ -15326,10 +15378,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="27" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="B430" s="27" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="C430" s="3">
         <v>346</v>
@@ -15337,10 +15389,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="27" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
       <c r="B432" s="27" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
       <c r="C432" s="3">
         <v>347</v>
@@ -15348,10 +15400,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="27" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="B433" s="27" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="C433" s="3">
         <v>348</v>
@@ -15359,10 +15411,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="27" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="B435" s="27" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="C435" s="3">
         <v>351</v>
@@ -15370,10 +15422,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="27" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="B436" s="27" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="C436" s="3">
         <v>352</v>
@@ -15381,10 +15433,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="27" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="B438" s="27" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="C438" s="3">
         <v>353</v>
@@ -15392,10 +15444,10 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="3" t="s">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C440" s="3">
         <v>354</v>
@@ -15403,10 +15455,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="27" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="B442" s="27" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="C442" s="3">
         <v>355</v>
@@ -15418,10 +15470,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="27" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="B444" s="27" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="C444" s="3">
         <v>368</v>
@@ -15429,10 +15481,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="72" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="B446" s="27" t="s">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="C446" s="3">
         <v>356</v>
@@ -15440,10 +15492,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="72" t="s">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="B447" s="27" t="s">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="C447" s="3">
         <v>360</v>
@@ -15451,10 +15503,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="3" t="s">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="C449" s="3">
         <v>369</v>
@@ -15462,10 +15514,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="27" t="s">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="B451" s="27" t="s">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C451" s="3">
         <v>374</v>
@@ -15473,10 +15525,10 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="27" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="B453" s="27" t="s">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C453" s="3">
         <v>375</v>
@@ -15484,10 +15536,10 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="27" t="s">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="B454" s="27" t="s">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C454" s="3">
         <v>376</v>
@@ -15495,10 +15547,10 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="27" t="s">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="B455" s="27" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C455" s="3">
         <v>377</v>
@@ -15506,10 +15558,10 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="27" t="s">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="B456" s="27" t="s">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C456" s="3">
         <v>378</v>
@@ -15517,10 +15569,10 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="27" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="B458" s="27" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="C458" s="3">
         <v>379</v>
@@ -15528,10 +15580,10 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="3" t="s">
-        <v>2040</v>
+        <v>2036</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>2041</v>
+        <v>2037</v>
       </c>
       <c r="C460" s="3">
         <v>381</v>
@@ -15539,10 +15591,10 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="27" t="s">
-        <v>2052</v>
+        <v>2048</v>
       </c>
       <c r="B462" s="27" t="s">
-        <v>2053</v>
+        <v>2049</v>
       </c>
       <c r="C462" s="3">
         <v>385</v>
@@ -15550,10 +15602,10 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="27" t="s">
-        <v>2054</v>
+        <v>2050</v>
       </c>
       <c r="B463" s="27" t="s">
-        <v>2055</v>
+        <v>2051</v>
       </c>
       <c r="C463" s="3">
         <v>386</v>
@@ -15561,18 +15613,18 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="3" t="s">
-        <v>2091</v>
+        <v>2087</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>2096</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="3" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
       <c r="B466" s="27" t="s">
-        <v>2100</v>
+        <v>2096</v>
       </c>
       <c r="C466" s="3">
         <v>22</v>
@@ -15580,10 +15632,10 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="3" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B467" s="27" t="s">
         <v>2093</v>
-      </c>
-      <c r="B467" s="27" t="s">
-        <v>2097</v>
       </c>
       <c r="C467" s="3">
         <v>23</v>
@@ -15591,10 +15643,10 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="3" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B468" s="27" t="s">
         <v>2094</v>
-      </c>
-      <c r="B468" s="27" t="s">
-        <v>2098</v>
       </c>
       <c r="C468" s="3">
         <v>24</v>
@@ -15602,10 +15654,10 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="3" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B469" s="27" t="s">
         <v>2095</v>
-      </c>
-      <c r="B469" s="27" t="s">
-        <v>2099</v>
       </c>
       <c r="C469" s="3">
         <v>26</v>
@@ -15613,10 +15665,10 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="3" t="s">
-        <v>2144</v>
+        <v>2140</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>2145</v>
+        <v>2141</v>
       </c>
       <c r="C471" s="3">
         <v>22</v>
@@ -15634,11 +15686,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O378"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G350" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D278" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J373" sqref="J373"/>
+      <selection pane="bottomRight" activeCell="C301" sqref="C301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15680,7 +15732,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2115</v>
+        <v>2111</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>450</v>
@@ -15820,7 +15872,7 @@
         <v>1485</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="O4" s="17"/>
     </row>
@@ -15980,7 +16032,7 @@
         <v>456</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="N8" s="31" t="s">
         <v>1152</v>
@@ -21692,7 +21744,7 @@
         <v>0</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="D176" s="16" t="s">
         <v>761</v>
@@ -22239,7 +22291,7 @@
         <v>0</v>
       </c>
       <c r="C192" s="40" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="D192" s="40" t="s">
         <v>790</v>
@@ -25094,7 +25146,7 @@
         <v>0</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="D278" s="16" t="s">
         <v>1571</v>
@@ -25131,7 +25183,7 @@
         <v>1586</v>
       </c>
       <c r="D279" s="82" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E279" s="81"/>
       <c r="F279" s="81"/>
@@ -25298,10 +25350,10 @@
         <v>0</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="E284" s="17"/>
       <c r="F284" s="17"/>
@@ -25315,13 +25367,13 @@
         <v>1</v>
       </c>
       <c r="J284" s="16" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="K284" s="17">
         <v>1599521400</v>
       </c>
       <c r="L284" s="17" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="285" spans="1:12" s="22" customFormat="1">
@@ -25332,10 +25384,10 @@
         <v>0</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D285" s="16" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="E285" s="17"/>
       <c r="F285" s="17"/>
@@ -25355,7 +25407,7 @@
         <v>1599494400</v>
       </c>
       <c r="L285" s="17" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="286" spans="1:12" s="22" customFormat="1">
@@ -25366,10 +25418,10 @@
         <v>0</v>
       </c>
       <c r="C286" s="17" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="E286" s="17"/>
       <c r="F286" s="17"/>
@@ -25389,7 +25441,7 @@
         <v>1599523200</v>
       </c>
       <c r="L286" s="17" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="287" spans="1:12" s="22" customFormat="1">
@@ -25400,10 +25452,10 @@
         <v>0</v>
       </c>
       <c r="C287" s="17" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="E287" s="17"/>
       <c r="F287" s="17"/>
@@ -25423,7 +25475,7 @@
         <v>1599523200</v>
       </c>
       <c r="L287" s="17" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="288" spans="1:12" s="22" customFormat="1">
@@ -25434,10 +25486,10 @@
         <v>0</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="D288" s="16" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="E288" s="17"/>
       <c r="F288" s="17"/>
@@ -25457,7 +25509,7 @@
         <v>1599494400</v>
       </c>
       <c r="L288" s="17" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="289" spans="1:12" s="73" customFormat="1">
@@ -25468,10 +25520,10 @@
         <v>1</v>
       </c>
       <c r="C289" s="102" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D289" s="102" t="s">
         <v>1630</v>
-      </c>
-      <c r="D289" s="102" t="s">
-        <v>1631</v>
       </c>
       <c r="E289" s="71"/>
       <c r="F289" s="71"/>
@@ -25485,13 +25537,13 @@
         <v>1</v>
       </c>
       <c r="J289" s="71" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="K289" s="71">
         <v>1615248000</v>
       </c>
       <c r="L289" s="72" t="s">
-        <v>2124</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="73" customFormat="1">
@@ -25502,10 +25554,10 @@
         <v>1</v>
       </c>
       <c r="C290" s="102" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D290" s="102" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="E290" s="71"/>
       <c r="F290" s="71"/>
@@ -25519,13 +25571,13 @@
         <v>1</v>
       </c>
       <c r="J290" s="71" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="K290" s="71">
         <v>1615248000</v>
       </c>
       <c r="L290" s="71" t="s">
-        <v>2124</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="73" customFormat="1">
@@ -25536,10 +25588,10 @@
         <v>1</v>
       </c>
       <c r="C291" s="101" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="D291" s="102" t="s">
-        <v>2062</v>
+        <v>2058</v>
       </c>
       <c r="E291" s="71"/>
       <c r="F291" s="71"/>
@@ -25553,13 +25605,13 @@
         <v>1</v>
       </c>
       <c r="J291" s="71" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="K291" s="71">
         <v>1615248000</v>
       </c>
       <c r="L291" s="71" t="s">
-        <v>2124</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="73" customFormat="1">
@@ -25570,10 +25622,10 @@
         <v>1</v>
       </c>
       <c r="C292" s="101" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="D292" s="101" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="E292" s="71"/>
       <c r="F292" s="71"/>
@@ -25587,13 +25639,13 @@
         <v>1</v>
       </c>
       <c r="J292" s="71" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="K292" s="71">
         <v>1615248000</v>
       </c>
       <c r="L292" s="71" t="s">
-        <v>2124</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -25604,10 +25656,10 @@
         <v>1</v>
       </c>
       <c r="C293" s="30" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="D293" s="16" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="G293" s="17">
         <v>298</v>
@@ -25636,7 +25688,7 @@
         <v>1</v>
       </c>
       <c r="C294" s="30" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D294" s="16" t="s">
         <v>1573</v>
@@ -25668,7 +25720,7 @@
         <v>1</v>
       </c>
       <c r="C295" s="30" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D295" s="16" t="s">
         <v>1574</v>
@@ -25700,7 +25752,7 @@
         <v>1</v>
       </c>
       <c r="C296" s="30" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D296" s="16" t="s">
         <v>1575</v>
@@ -25732,7 +25784,7 @@
         <v>1</v>
       </c>
       <c r="C297" s="30" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D297" s="16" t="s">
         <v>1576</v>
@@ -25764,10 +25816,10 @@
         <v>1</v>
       </c>
       <c r="C298" s="30" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D298" s="16" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="G298" s="17">
         <v>303</v>
@@ -25796,10 +25848,10 @@
         <v>1</v>
       </c>
       <c r="C299" s="30" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D299" s="16" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="G299" s="17">
         <v>304</v>
@@ -25828,10 +25880,10 @@
         <v>1</v>
       </c>
       <c r="C300" s="30" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="D300" s="16" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="G300" s="17">
         <v>305</v>
@@ -25860,10 +25912,10 @@
         <v>1</v>
       </c>
       <c r="C301" s="30" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D301" s="16" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="G301" s="17">
         <v>306</v>
@@ -25892,10 +25944,10 @@
         <v>1</v>
       </c>
       <c r="C302" s="26" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="D302" s="16" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="G302" s="17">
         <v>307</v>
@@ -25924,10 +25976,10 @@
         <v>1</v>
       </c>
       <c r="C303" s="30" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D303" s="16" t="s">
         <v>1659</v>
-      </c>
-      <c r="D303" s="16" t="s">
-        <v>1660</v>
       </c>
       <c r="G303" s="17">
         <v>308</v>
@@ -25956,10 +26008,10 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
       <c r="D304" s="30" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="G304" s="26">
         <v>309</v>
@@ -25988,10 +26040,10 @@
         <v>1</v>
       </c>
       <c r="C305" s="30" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="D305" s="30" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="G305" s="26">
         <v>310</v>
@@ -26020,10 +26072,10 @@
         <v>1</v>
       </c>
       <c r="C306" s="30" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D306" s="16" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="G306" s="26">
         <v>311</v>
@@ -26052,7 +26104,7 @@
         <v>1</v>
       </c>
       <c r="C307" s="30" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D307" s="16" t="s">
         <v>1574</v>
@@ -26084,7 +26136,7 @@
         <v>1</v>
       </c>
       <c r="C308" s="30" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="D308" s="16" t="s">
         <v>1575</v>
@@ -26116,7 +26168,7 @@
         <v>1</v>
       </c>
       <c r="C309" s="30" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="D309" s="16" t="s">
         <v>1576</v>
@@ -26148,10 +26200,10 @@
         <v>1</v>
       </c>
       <c r="C310" s="30" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D310" s="30" t="s">
         <v>1673</v>
-      </c>
-      <c r="D310" s="30" t="s">
-        <v>1674</v>
       </c>
       <c r="G310" s="26">
         <v>315</v>
@@ -26180,10 +26232,10 @@
         <v>1</v>
       </c>
       <c r="C311" s="30" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="D311" s="30" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="G311" s="26">
         <v>316</v>
@@ -26212,10 +26264,10 @@
         <v>1</v>
       </c>
       <c r="C312" s="30" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D312" s="30" t="s">
         <v>1677</v>
-      </c>
-      <c r="D312" s="30" t="s">
-        <v>1678</v>
       </c>
       <c r="G312" s="26">
         <v>317</v>
@@ -26244,10 +26296,10 @@
         <v>1</v>
       </c>
       <c r="C313" s="30" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="D313" s="30" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="G313" s="26">
         <v>318</v>
@@ -26276,10 +26328,10 @@
         <v>1</v>
       </c>
       <c r="C314" s="30" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D314" s="30" t="s">
         <v>1683</v>
-      </c>
-      <c r="D314" s="30" t="s">
-        <v>1684</v>
       </c>
       <c r="G314" s="26">
         <v>319</v>
@@ -26308,10 +26360,10 @@
         <v>1</v>
       </c>
       <c r="C315" s="30" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="D315" s="30" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="G315" s="26">
         <v>320</v>
@@ -26340,10 +26392,10 @@
         <v>0</v>
       </c>
       <c r="C316" s="16" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D316" s="16" t="s">
         <v>1701</v>
-      </c>
-      <c r="D316" s="16" t="s">
-        <v>1702</v>
       </c>
       <c r="E316" s="17"/>
       <c r="F316" s="17"/>
@@ -26363,7 +26415,7 @@
         <v>1600731000</v>
       </c>
       <c r="L316" s="16" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -26374,10 +26426,10 @@
         <v>0</v>
       </c>
       <c r="C317" s="30" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D317" s="30" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="G317" s="26">
         <v>322</v>
@@ -26395,7 +26447,7 @@
         <v>1601335800</v>
       </c>
       <c r="L317" s="30" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -26406,10 +26458,10 @@
         <v>0</v>
       </c>
       <c r="C318" s="30" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D318" s="30" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="G318" s="26">
         <v>323</v>
@@ -26427,7 +26479,7 @@
         <v>1601335800</v>
       </c>
       <c r="L318" s="30" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -26438,10 +26490,10 @@
         <v>0</v>
       </c>
       <c r="C319" s="26" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D319" s="26" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="G319" s="26">
         <v>323</v>
@@ -26459,7 +26511,7 @@
         <v>1601335800</v>
       </c>
       <c r="L319" s="30" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -26470,10 +26522,10 @@
         <v>1</v>
       </c>
       <c r="C320" s="30" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="D320" s="16" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="G320" s="26">
         <v>324</v>
@@ -26502,10 +26554,10 @@
         <v>1</v>
       </c>
       <c r="C321" s="101" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="D321" s="101" t="s">
-        <v>2060</v>
+        <v>2056</v>
       </c>
       <c r="E321" s="102"/>
       <c r="F321" s="102"/>
@@ -26525,7 +26577,7 @@
         <v>1601335800</v>
       </c>
       <c r="L321" s="101" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -26536,10 +26588,10 @@
         <v>0</v>
       </c>
       <c r="C322" s="30" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="D322" s="30" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="G322" s="26">
         <v>328</v>
@@ -26557,7 +26609,7 @@
         <v>1603152000</v>
       </c>
       <c r="L322" s="30" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -26568,10 +26620,10 @@
         <v>0</v>
       </c>
       <c r="C323" s="30" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="D323" s="30" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="G323" s="26">
         <v>329</v>
@@ -26589,7 +26641,7 @@
         <v>1603152000</v>
       </c>
       <c r="L323" s="30" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -26600,10 +26652,10 @@
         <v>1</v>
       </c>
       <c r="C324" s="30" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="D324" s="30" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="G324" s="26">
         <v>326</v>
@@ -26615,7 +26667,7 @@
         <v>1</v>
       </c>
       <c r="J324" s="16" t="s">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="K324" s="26">
         <v>1598916600</v>
@@ -26632,10 +26684,10 @@
         <v>1</v>
       </c>
       <c r="C325" s="30" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="D325" s="30" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="G325" s="26">
         <v>327</v>
@@ -26664,10 +26716,10 @@
         <v>0</v>
       </c>
       <c r="C326" s="101" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="D326" s="101" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="G326" s="26">
         <v>330</v>
@@ -26685,7 +26737,7 @@
         <v>1603756800</v>
       </c>
       <c r="L326" s="30" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -26696,10 +26748,10 @@
         <v>0</v>
       </c>
       <c r="C327" s="101" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="D327" s="101" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="G327" s="26">
         <v>331</v>
@@ -26717,7 +26769,7 @@
         <v>1603756800</v>
       </c>
       <c r="L327" s="30" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -26728,10 +26780,10 @@
         <v>1</v>
       </c>
       <c r="C328" s="26" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="D328" s="26" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="G328" s="26">
         <v>334</v>
@@ -26760,10 +26812,10 @@
         <v>1</v>
       </c>
       <c r="C329" s="26" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="D329" s="26" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="G329" s="26">
         <v>334</v>
@@ -26792,10 +26844,10 @@
         <v>1</v>
       </c>
       <c r="C330" s="26" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="D330" s="26" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="G330" s="26">
         <v>334</v>
@@ -26807,7 +26859,7 @@
         <v>1</v>
       </c>
       <c r="J330" s="30" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
       <c r="K330" s="26">
         <v>0</v>
@@ -26824,10 +26876,10 @@
         <v>1</v>
       </c>
       <c r="C331" s="26" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="D331" s="26" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="G331" s="26">
         <v>335</v>
@@ -26856,10 +26908,10 @@
         <v>0</v>
       </c>
       <c r="C332" s="87" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="D332" s="87" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="E332" s="86"/>
       <c r="F332" s="86"/>
@@ -26879,7 +26931,7 @@
         <v>1604332800</v>
       </c>
       <c r="L332" s="87" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -26890,10 +26942,10 @@
         <v>1</v>
       </c>
       <c r="C333" s="30" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="D333" s="26" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="G333" s="26">
         <v>337</v>
@@ -26905,7 +26957,7 @@
         <v>1</v>
       </c>
       <c r="J333" s="26" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="K333" s="26">
         <v>0</v>
@@ -26922,10 +26974,10 @@
         <v>1</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="E334" s="17"/>
       <c r="F334" s="17"/>
@@ -26956,10 +27008,10 @@
         <v>1</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="D335" s="16" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="E335" s="17"/>
       <c r="F335" s="17"/>
@@ -26990,10 +27042,10 @@
         <v>1</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="D336" s="16" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="E336" s="17"/>
       <c r="F336" s="17"/>
@@ -27007,7 +27059,7 @@
         <v>1</v>
       </c>
       <c r="J336" s="16" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="K336" s="17">
         <v>1606176000</v>
@@ -27024,10 +27076,10 @@
         <v>1</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="D337" s="30" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
       <c r="G337" s="17">
         <v>349</v>
@@ -27056,10 +27108,10 @@
         <v>1</v>
       </c>
       <c r="C338" s="30" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="D338" s="30" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
       <c r="E338" s="17"/>
       <c r="F338" s="17"/>
@@ -27090,10 +27142,10 @@
         <v>1</v>
       </c>
       <c r="C339" s="72" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="D339" s="30" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="G339" s="26">
         <v>357</v>
@@ -27122,10 +27174,10 @@
         <v>1</v>
       </c>
       <c r="C340" s="72" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="D340" s="30" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="G340" s="26">
         <v>358</v>
@@ -27154,10 +27206,10 @@
         <v>1</v>
       </c>
       <c r="C341" s="72" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="D341" s="30" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="G341" s="26">
         <v>359</v>
@@ -27186,10 +27238,10 @@
         <v>1</v>
       </c>
       <c r="C342" s="72" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="D342" s="30" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="G342" s="26">
         <v>361</v>
@@ -27218,10 +27270,10 @@
         <v>1</v>
       </c>
       <c r="C343" s="72" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="D343" s="30" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="G343" s="26">
         <v>362</v>
@@ -27250,10 +27302,10 @@
         <v>1</v>
       </c>
       <c r="C344" s="72" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="D344" s="30" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="G344" s="26">
         <v>363</v>
@@ -27282,10 +27334,10 @@
         <v>1</v>
       </c>
       <c r="C345" s="72" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="D345" s="30" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="G345" s="26">
         <v>364</v>
@@ -27297,7 +27349,7 @@
         <v>1</v>
       </c>
       <c r="J345" s="16" t="s">
-        <v>2159</v>
+        <v>2155</v>
       </c>
       <c r="K345" s="17">
         <v>1598889600</v>
@@ -27314,10 +27366,10 @@
         <v>1</v>
       </c>
       <c r="C346" s="30" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="D346" s="78" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="G346" s="26">
         <v>365</v>
@@ -27346,10 +27398,10 @@
         <v>1</v>
       </c>
       <c r="C347" s="30" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="D347" s="78" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="G347" s="26">
         <v>366</v>
@@ -27378,10 +27430,10 @@
         <v>1</v>
       </c>
       <c r="C348" s="101" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="D348" s="101" t="s">
-        <v>2059</v>
+        <v>2055</v>
       </c>
       <c r="E348" s="17"/>
       <c r="F348" s="17"/>
@@ -27412,10 +27464,10 @@
         <v>0</v>
       </c>
       <c r="C349" s="16" t="s">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D349" s="16" t="s">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="E349" s="16"/>
       <c r="F349" s="16"/>
@@ -27429,13 +27481,13 @@
         <v>1</v>
       </c>
       <c r="J349" s="16" t="s">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="K349" s="16">
         <v>1610409600</v>
       </c>
       <c r="L349" s="16" t="s">
-        <v>2079</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="350" spans="1:12" s="45" customFormat="1">
@@ -27446,10 +27498,10 @@
         <v>0</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="D350" s="16" t="s">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="E350" s="16"/>
       <c r="F350" s="16"/>
@@ -27463,13 +27515,13 @@
         <v>1</v>
       </c>
       <c r="J350" s="16" t="s">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="K350" s="16">
         <v>1610409600</v>
       </c>
       <c r="L350" s="16" t="s">
-        <v>2080</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="351" spans="1:12" s="45" customFormat="1">
@@ -27480,10 +27532,10 @@
         <v>1</v>
       </c>
       <c r="C351" s="66" t="s">
-        <v>2081</v>
+        <v>2077</v>
       </c>
       <c r="D351" s="66" t="s">
-        <v>2114</v>
+        <v>2110</v>
       </c>
       <c r="E351" s="66"/>
       <c r="F351" s="66"/>
@@ -27497,13 +27549,13 @@
         <v>1</v>
       </c>
       <c r="J351" s="66" t="s">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="K351" s="66">
         <v>1610380800</v>
       </c>
       <c r="L351" s="66" t="s">
-        <v>2082</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="352" spans="1:12" s="45" customFormat="1">
@@ -27514,10 +27566,10 @@
         <v>1</v>
       </c>
       <c r="C352" s="66" t="s">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="D352" s="66" t="s">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="E352" s="66"/>
       <c r="F352" s="66"/>
@@ -27531,13 +27583,13 @@
         <v>1</v>
       </c>
       <c r="J352" s="66" t="s">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="K352" s="66">
         <v>1610380800</v>
       </c>
       <c r="L352" s="66" t="s">
-        <v>2080</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="353" spans="1:12" s="45" customFormat="1">
@@ -27548,10 +27600,10 @@
         <v>1</v>
       </c>
       <c r="C353" s="106" t="s">
-        <v>2039</v>
+        <v>2035</v>
       </c>
       <c r="D353" s="16" t="s">
-        <v>2031</v>
+        <v>2027</v>
       </c>
       <c r="E353" s="16"/>
       <c r="F353" s="16"/>
@@ -27582,10 +27634,10 @@
         <v>0</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>2106</v>
+        <v>2102</v>
       </c>
       <c r="D354" s="16" t="s">
-        <v>2042</v>
+        <v>2038</v>
       </c>
       <c r="E354" s="16"/>
       <c r="F354" s="16"/>
@@ -27605,7 +27657,7 @@
         <v>1611014400</v>
       </c>
       <c r="L354" s="16" t="s">
-        <v>2043</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="355" spans="1:12" s="45" customFormat="1">
@@ -27616,10 +27668,10 @@
         <v>0</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>2107</v>
+        <v>2103</v>
       </c>
       <c r="D355" s="16" t="s">
-        <v>2044</v>
+        <v>2040</v>
       </c>
       <c r="E355" s="16"/>
       <c r="F355" s="16"/>
@@ -27639,7 +27691,7 @@
         <v>1611014400</v>
       </c>
       <c r="L355" s="16" t="s">
-        <v>2045</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="356" spans="1:12" s="45" customFormat="1">
@@ -27650,10 +27702,10 @@
         <v>0</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>2108</v>
+        <v>2104</v>
       </c>
       <c r="D356" s="16" t="s">
-        <v>2046</v>
+        <v>2042</v>
       </c>
       <c r="E356" s="16"/>
       <c r="F356" s="16"/>
@@ -27673,7 +27725,7 @@
         <v>1611014400</v>
       </c>
       <c r="L356" s="16" t="s">
-        <v>2043</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="357" spans="1:12" s="45" customFormat="1">
@@ -27684,10 +27736,10 @@
         <v>0</v>
       </c>
       <c r="C357" s="106" t="s">
-        <v>2065</v>
+        <v>2061</v>
       </c>
       <c r="D357" s="16" t="s">
-        <v>2063</v>
+        <v>2059</v>
       </c>
       <c r="E357" s="16"/>
       <c r="F357" s="16"/>
@@ -27718,10 +27770,10 @@
         <v>0</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>2066</v>
+        <v>2062</v>
       </c>
       <c r="D358" s="16" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
       <c r="E358" s="16"/>
       <c r="F358" s="16"/>
@@ -27741,7 +27793,7 @@
         <v>1611590400</v>
       </c>
       <c r="L358" s="16" t="s">
-        <v>2068</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="359" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -27752,10 +27804,10 @@
         <v>0</v>
       </c>
       <c r="C359" s="108" t="s">
-        <v>2070</v>
+        <v>2066</v>
       </c>
       <c r="D359" s="16" t="s">
-        <v>2073</v>
+        <v>2069</v>
       </c>
       <c r="E359" s="16"/>
       <c r="F359" s="16"/>
@@ -27775,7 +27827,7 @@
         <v>1611590400</v>
       </c>
       <c r="L359" s="16" t="s">
-        <v>2068</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="360" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -27786,10 +27838,10 @@
         <v>0</v>
       </c>
       <c r="C360" s="108" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="D360" s="16" t="s">
-        <v>2074</v>
+        <v>2070</v>
       </c>
       <c r="E360" s="16"/>
       <c r="F360" s="16"/>
@@ -27809,7 +27861,7 @@
         <v>1611590400</v>
       </c>
       <c r="L360" s="16" t="s">
-        <v>2068</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="361" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -27820,10 +27872,10 @@
         <v>0</v>
       </c>
       <c r="C361" s="108" t="s">
-        <v>2072</v>
+        <v>2068</v>
       </c>
       <c r="D361" s="16" t="s">
-        <v>2075</v>
+        <v>2071</v>
       </c>
       <c r="E361" s="16"/>
       <c r="F361" s="16"/>
@@ -27843,7 +27895,7 @@
         <v>1611590400</v>
       </c>
       <c r="L361" s="16" t="s">
-        <v>2068</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="362" spans="1:12" s="45" customFormat="1">
@@ -27854,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="C362" s="106" t="s">
-        <v>2139</v>
+        <v>2135</v>
       </c>
       <c r="D362" s="16" t="s">
-        <v>2063</v>
+        <v>2059</v>
       </c>
       <c r="E362" s="16"/>
       <c r="F362" s="16"/>
@@ -27888,10 +27940,10 @@
         <v>0</v>
       </c>
       <c r="C363" s="31" t="s">
-        <v>2083</v>
+        <v>2079</v>
       </c>
       <c r="D363" s="16" t="s">
-        <v>2085</v>
+        <v>2081</v>
       </c>
       <c r="E363" s="17"/>
       <c r="F363" s="17"/>
@@ -27911,7 +27963,7 @@
         <v>1612828800</v>
       </c>
       <c r="L363" s="16" t="s">
-        <v>2087</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="364" spans="1:12" s="22" customFormat="1">
@@ -27922,10 +27974,10 @@
         <v>0</v>
       </c>
       <c r="C364" s="31" t="s">
-        <v>2084</v>
+        <v>2080</v>
       </c>
       <c r="D364" s="16" t="s">
-        <v>2086</v>
+        <v>2082</v>
       </c>
       <c r="E364" s="17"/>
       <c r="F364" s="17"/>
@@ -27945,7 +27997,7 @@
         <v>1612828800</v>
       </c>
       <c r="L364" s="16" t="s">
-        <v>2088</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="365" spans="1:12" s="22" customFormat="1">
@@ -27956,10 +28008,10 @@
         <v>0</v>
       </c>
       <c r="C365" s="31" t="s">
-        <v>2101</v>
+        <v>2097</v>
       </c>
       <c r="D365" s="16" t="s">
-        <v>2102</v>
+        <v>2098</v>
       </c>
       <c r="E365" s="17"/>
       <c r="F365" s="17"/>
@@ -27979,7 +28031,7 @@
         <v>1612828800</v>
       </c>
       <c r="L365" s="16" t="s">
-        <v>2103</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="366" spans="1:12" s="22" customFormat="1">
@@ -27990,10 +28042,10 @@
         <v>1</v>
       </c>
       <c r="C366" s="66" t="s">
-        <v>2121</v>
+        <v>2117</v>
       </c>
       <c r="D366" s="66" t="s">
-        <v>2133</v>
+        <v>2129</v>
       </c>
       <c r="E366" s="65"/>
       <c r="F366" s="65"/>
@@ -28013,7 +28065,7 @@
         <v>1615852800</v>
       </c>
       <c r="L366" s="66" t="s">
-        <v>2146</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="367" spans="1:12" s="22" customFormat="1">
@@ -28024,10 +28076,10 @@
         <v>1</v>
       </c>
       <c r="C367" s="66" t="s">
-        <v>2122</v>
+        <v>2118</v>
       </c>
       <c r="D367" s="66" t="s">
-        <v>2123</v>
+        <v>2119</v>
       </c>
       <c r="E367" s="65"/>
       <c r="F367" s="65"/>
@@ -28047,7 +28099,7 @@
         <v>1615852800</v>
       </c>
       <c r="L367" s="66" t="s">
-        <v>2146</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="368" spans="1:12" s="22" customFormat="1">
@@ -28058,10 +28110,10 @@
         <v>0</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>2135</v>
+        <v>2131</v>
       </c>
       <c r="D368" s="16" t="s">
-        <v>2125</v>
+        <v>2121</v>
       </c>
       <c r="E368" s="17"/>
       <c r="F368" s="17"/>
@@ -28081,7 +28133,7 @@
         <v>1615248000</v>
       </c>
       <c r="L368" s="16" t="s">
-        <v>2118</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="369" spans="1:12" s="22" customFormat="1">
@@ -28092,10 +28144,10 @@
         <v>0</v>
       </c>
       <c r="C369" s="16" t="s">
-        <v>2134</v>
+        <v>2130</v>
       </c>
       <c r="D369" s="16" t="s">
-        <v>2126</v>
+        <v>2122</v>
       </c>
       <c r="E369" s="17"/>
       <c r="F369" s="17"/>
@@ -28115,7 +28167,7 @@
         <v>1615248000</v>
       </c>
       <c r="L369" s="16" t="s">
-        <v>2118</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="370" spans="1:12" s="22" customFormat="1">
@@ -28126,10 +28178,10 @@
         <v>1</v>
       </c>
       <c r="C370" s="16" t="s">
-        <v>2128</v>
+        <v>2124</v>
       </c>
       <c r="D370" s="16" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
       <c r="E370" s="17"/>
       <c r="F370" s="17"/>
@@ -28160,10 +28212,10 @@
         <v>1</v>
       </c>
       <c r="C371" s="16" t="s">
-        <v>2129</v>
+        <v>2125</v>
       </c>
       <c r="D371" s="16" t="s">
-        <v>2131</v>
+        <v>2127</v>
       </c>
       <c r="E371" s="17"/>
       <c r="F371" s="17"/>
@@ -28194,10 +28246,10 @@
         <v>1</v>
       </c>
       <c r="C372" s="58" t="s">
-        <v>2157</v>
+        <v>2153</v>
       </c>
       <c r="D372" s="66" t="s">
-        <v>2132</v>
+        <v>2128</v>
       </c>
       <c r="E372" s="65"/>
       <c r="F372" s="65"/>
@@ -28217,7 +28269,7 @@
         <v>1615824000</v>
       </c>
       <c r="L372" s="66" t="s">
-        <v>2146</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="373" spans="1:12" s="67" customFormat="1">
@@ -28228,10 +28280,10 @@
         <v>1</v>
       </c>
       <c r="C373" s="58" t="s">
-        <v>2158</v>
+        <v>2154</v>
       </c>
       <c r="D373" s="66" t="s">
-        <v>2086</v>
+        <v>2082</v>
       </c>
       <c r="E373" s="65"/>
       <c r="F373" s="65"/>
@@ -28251,7 +28303,7 @@
         <v>1615824000</v>
       </c>
       <c r="L373" s="66" t="s">
-        <v>2146</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -28262,10 +28314,10 @@
         <v>1</v>
       </c>
       <c r="C374" s="26" t="s">
-        <v>2140</v>
+        <v>2136</v>
       </c>
       <c r="D374" s="26" t="s">
-        <v>2141</v>
+        <v>2137</v>
       </c>
       <c r="G374" s="26">
         <v>405</v>
@@ -28277,7 +28329,7 @@
         <v>1</v>
       </c>
       <c r="J374" s="26" t="s">
-        <v>2142</v>
+        <v>2138</v>
       </c>
       <c r="K374" s="26">
         <v>1615248000</v>
@@ -28291,10 +28343,10 @@
         <v>1</v>
       </c>
       <c r="C375" s="66" t="s">
+        <v>2143</v>
+      </c>
+      <c r="D375" s="66" t="s">
         <v>2147</v>
-      </c>
-      <c r="D375" s="66" t="s">
-        <v>2151</v>
       </c>
       <c r="E375" s="65"/>
       <c r="F375" s="65"/>
@@ -28314,7 +28366,7 @@
         <v>1615824000</v>
       </c>
       <c r="L375" s="66" t="s">
-        <v>2146</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -28325,10 +28377,10 @@
         <v>1</v>
       </c>
       <c r="C376" s="66" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D376" s="66" t="s">
         <v>2148</v>
-      </c>
-      <c r="D376" s="66" t="s">
-        <v>2152</v>
       </c>
       <c r="E376" s="65"/>
       <c r="F376" s="65"/>
@@ -28348,7 +28400,7 @@
         <v>1615824000</v>
       </c>
       <c r="L376" s="66" t="s">
-        <v>2146</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -28359,10 +28411,10 @@
         <v>1</v>
       </c>
       <c r="C377" s="66" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D377" s="66" t="s">
         <v>2149</v>
-      </c>
-      <c r="D377" s="66" t="s">
-        <v>2153</v>
       </c>
       <c r="E377" s="65"/>
       <c r="F377" s="65"/>
@@ -28382,7 +28434,7 @@
         <v>1615824000</v>
       </c>
       <c r="L377" s="66" t="s">
-        <v>2146</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -28393,10 +28445,10 @@
         <v>1</v>
       </c>
       <c r="C378" s="66" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D378" s="66" t="s">
         <v>2150</v>
-      </c>
-      <c r="D378" s="66" t="s">
-        <v>2154</v>
       </c>
       <c r="E378" s="65"/>
       <c r="F378" s="65"/>
@@ -28416,7 +28468,7 @@
         <v>1615824000</v>
       </c>
       <c r="L378" s="66" t="s">
-        <v>2146</v>
+        <v>2142</v>
       </c>
     </row>
   </sheetData>
@@ -28430,13 +28482,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I987"/>
+  <dimension ref="A1:I988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C942" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C804" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E960" sqref="E960"/>
+      <selection pane="bottomRight" activeCell="F826" sqref="F826"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -29020,7 +29072,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>1039</v>
@@ -30147,7 +30199,7 @@
         <v>48</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>1037</v>
@@ -30633,7 +30685,7 @@
         <v>852</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="E94" s="8">
         <v>2</v>
@@ -31856,7 +31908,7 @@
         <v>1032</v>
       </c>
       <c r="D147" s="97" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E147" s="96">
         <v>2</v>
@@ -31931,7 +31983,7 @@
         <v>1032</v>
       </c>
       <c r="D150" s="97" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
       <c r="E150" s="96">
         <v>2</v>
@@ -31940,7 +31992,7 @@
         <v>4</v>
       </c>
       <c r="G150" s="97" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
       <c r="H150" s="8"/>
       <c r="I150" s="8"/>
@@ -32600,7 +32652,7 @@
         <v>1032</v>
       </c>
       <c r="D179" s="80" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E179" s="14">
         <v>2</v>
@@ -32623,7 +32675,7 @@
         <v>1032</v>
       </c>
       <c r="D180" s="80" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="E180" s="14">
         <v>2</v>
@@ -32632,7 +32684,7 @@
         <v>5</v>
       </c>
       <c r="G180" s="15" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="8" customFormat="1">
@@ -33030,7 +33082,7 @@
         <v>1032</v>
       </c>
       <c r="D197" s="91" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E197" s="89">
         <v>2</v>
@@ -33055,7 +33107,7 @@
         <v>1032</v>
       </c>
       <c r="D198" s="91" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="E198" s="89">
         <v>2</v>
@@ -33064,7 +33116,7 @@
         <v>5</v>
       </c>
       <c r="G198" s="90" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
       <c r="H198" s="8"/>
       <c r="I198" s="8"/>
@@ -37236,7 +37288,7 @@
         <v>1142</v>
       </c>
       <c r="D378" s="10" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="E378" s="8">
         <v>5</v>
@@ -42460,7 +42512,7 @@
         <v>1142</v>
       </c>
       <c r="D596" s="10" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
       <c r="E596" s="8">
         <v>5</v>
@@ -42510,7 +42562,7 @@
         <v>1142</v>
       </c>
       <c r="D598" s="10" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
       <c r="E598" s="8">
         <v>5</v>
@@ -42535,7 +42587,7 @@
         <v>1142</v>
       </c>
       <c r="D599" s="10" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
       <c r="E599" s="14">
         <v>2</v>
@@ -42560,7 +42612,7 @@
         <v>1142</v>
       </c>
       <c r="D600" s="15" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="E600" s="14">
         <v>2</v>
@@ -42610,7 +42662,7 @@
         <v>1142</v>
       </c>
       <c r="D602" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E602" s="14">
         <v>5</v>
@@ -42660,7 +42712,7 @@
         <v>1142</v>
       </c>
       <c r="D604" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E604" s="14">
         <v>5</v>
@@ -42685,7 +42737,7 @@
         <v>1142</v>
       </c>
       <c r="D605" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E605" s="14">
         <v>2</v>
@@ -42710,7 +42762,7 @@
         <v>1142</v>
       </c>
       <c r="D606" s="15" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="E606" s="14">
         <v>2</v>
@@ -42760,7 +42812,7 @@
         <v>1142</v>
       </c>
       <c r="D608" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E608" s="8">
         <v>5</v>
@@ -42810,7 +42862,7 @@
         <v>1142</v>
       </c>
       <c r="D610" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E610" s="8">
         <v>5</v>
@@ -42835,7 +42887,7 @@
         <v>1142</v>
       </c>
       <c r="D611" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E611" s="14">
         <v>2</v>
@@ -42860,7 +42912,7 @@
         <v>1142</v>
       </c>
       <c r="D612" s="15" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="E612" s="14">
         <v>2</v>
@@ -42910,7 +42962,7 @@
         <v>1142</v>
       </c>
       <c r="D614" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E614" s="8">
         <v>5</v>
@@ -42960,7 +43012,7 @@
         <v>1142</v>
       </c>
       <c r="D616" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E616" s="8">
         <v>5</v>
@@ -42985,7 +43037,7 @@
         <v>1142</v>
       </c>
       <c r="D617" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E617" s="14">
         <v>2</v>
@@ -43010,7 +43062,7 @@
         <v>1142</v>
       </c>
       <c r="D618" s="15" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="E618" s="14">
         <v>2</v>
@@ -43060,7 +43112,7 @@
         <v>1142</v>
       </c>
       <c r="D620" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E620" s="8">
         <v>5</v>
@@ -43110,7 +43162,7 @@
         <v>1142</v>
       </c>
       <c r="D622" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E622" s="8">
         <v>5</v>
@@ -43135,7 +43187,7 @@
         <v>1142</v>
       </c>
       <c r="D623" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E623" s="14">
         <v>2</v>
@@ -43160,7 +43212,7 @@
         <v>1142</v>
       </c>
       <c r="D624" s="15" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="E624" s="14">
         <v>2</v>
@@ -43210,7 +43262,7 @@
         <v>1142</v>
       </c>
       <c r="D626" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E626" s="8">
         <v>5</v>
@@ -43260,7 +43312,7 @@
         <v>1142</v>
       </c>
       <c r="D628" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E628" s="8">
         <v>5</v>
@@ -43285,7 +43337,7 @@
         <v>1142</v>
       </c>
       <c r="D629" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E629" s="14">
         <v>2</v>
@@ -43310,7 +43362,7 @@
         <v>1142</v>
       </c>
       <c r="D630" s="15" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="E630" s="14">
         <v>2</v>
@@ -43867,7 +43919,7 @@
         <v>1032</v>
       </c>
       <c r="D653" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E653" s="8">
         <v>2</v>
@@ -43876,7 +43928,7 @@
         <v>1</v>
       </c>
       <c r="G653" s="49" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="H653" s="8"/>
       <c r="I653" s="8"/>
@@ -44367,7 +44419,7 @@
         <v>1142</v>
       </c>
       <c r="D673" s="10" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="E673" s="8">
         <v>2</v>
@@ -45072,7 +45124,7 @@
         <v>1</v>
       </c>
       <c r="G701" s="10" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H701" s="8"/>
       <c r="I701" s="8"/>
@@ -45085,7 +45137,7 @@
         <v>282</v>
       </c>
       <c r="C702" s="10" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D702" s="10" t="s">
         <v>1577</v>
@@ -45310,11 +45362,11 @@
         <v>287</v>
       </c>
       <c r="C711" s="10" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D711" s="10" t="s">
         <v>1599</v>
       </c>
-      <c r="D711" s="10" t="s">
-        <v>1600</v>
-      </c>
       <c r="E711" s="8">
         <v>2</v>
       </c>
@@ -45322,7 +45374,7 @@
         <v>1</v>
       </c>
       <c r="G711" s="10" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="712" spans="1:9" s="8" customFormat="1">
@@ -45336,7 +45388,7 @@
         <v>1143</v>
       </c>
       <c r="D712" s="10" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="E712" s="8">
         <v>5</v>
@@ -45345,7 +45397,7 @@
         <v>2</v>
       </c>
       <c r="G712" s="10" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="713" spans="1:9">
@@ -45381,10 +45433,10 @@
         <v>288</v>
       </c>
       <c r="C714" s="10" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D714" s="10" t="s">
         <v>1625</v>
-      </c>
-      <c r="D714" s="10" t="s">
-        <v>1626</v>
       </c>
       <c r="E714" s="8">
         <v>5</v>
@@ -45393,7 +45445,7 @@
         <v>1</v>
       </c>
       <c r="G714" s="10" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H714" s="8"/>
       <c r="I714" s="8"/>
@@ -45431,10 +45483,10 @@
         <v>288</v>
       </c>
       <c r="C716" s="10" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D716" s="10" t="s">
         <v>1625</v>
-      </c>
-      <c r="D716" s="10" t="s">
-        <v>1626</v>
       </c>
       <c r="E716" s="8">
         <v>5</v>
@@ -45443,7 +45495,7 @@
         <v>2</v>
       </c>
       <c r="G716" s="10" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H716" s="8"/>
       <c r="I716" s="8"/>
@@ -45468,7 +45520,7 @@
         <v>1</v>
       </c>
       <c r="G717" s="10" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H717" s="8"/>
       <c r="I717" s="8"/>
@@ -45506,7 +45558,7 @@
         <v>289</v>
       </c>
       <c r="C719" s="8" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D719" s="10" t="s">
         <v>1577</v>
@@ -45518,7 +45570,7 @@
         <v>1</v>
       </c>
       <c r="G719" s="10" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H719" s="8"/>
       <c r="I719" s="8"/>
@@ -45531,10 +45583,10 @@
         <v>289</v>
       </c>
       <c r="C720" s="10" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D720" s="10" t="s">
         <v>1625</v>
-      </c>
-      <c r="D720" s="10" t="s">
-        <v>1626</v>
       </c>
       <c r="E720" s="8">
         <v>5</v>
@@ -45543,7 +45595,7 @@
         <v>1</v>
       </c>
       <c r="G720" s="10" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H720" s="8"/>
       <c r="I720" s="8"/>
@@ -45556,7 +45608,7 @@
         <v>290</v>
       </c>
       <c r="C721" s="8" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D721" s="10" t="s">
         <v>1577</v>
@@ -45568,7 +45620,7 @@
         <v>1</v>
       </c>
       <c r="G721" s="10" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H721" s="8"/>
       <c r="I721" s="8"/>
@@ -45593,7 +45645,7 @@
         <v>1</v>
       </c>
       <c r="G722" s="8" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H722" s="8"/>
       <c r="I722" s="8"/>
@@ -45618,7 +45670,7 @@
         <v>1</v>
       </c>
       <c r="G723" s="8" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H723" s="8"/>
       <c r="I723" s="8"/>
@@ -45631,10 +45683,10 @@
         <v>290</v>
       </c>
       <c r="C724" s="10" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D724" s="10" t="s">
         <v>1625</v>
-      </c>
-      <c r="D724" s="10" t="s">
-        <v>1626</v>
       </c>
       <c r="E724" s="8">
         <v>5</v>
@@ -45643,7 +45695,7 @@
         <v>1</v>
       </c>
       <c r="G724" s="10" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H724" s="8"/>
       <c r="I724" s="8"/>
@@ -45706,7 +45758,7 @@
         <v>291</v>
       </c>
       <c r="C727" s="8" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D727" s="10" t="s">
         <v>1577</v>
@@ -45718,7 +45770,7 @@
         <v>1</v>
       </c>
       <c r="G727" s="10" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H727" s="8"/>
       <c r="I727" s="8"/>
@@ -45731,10 +45783,10 @@
         <v>291</v>
       </c>
       <c r="C728" s="10" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D728" s="10" t="s">
         <v>1625</v>
-      </c>
-      <c r="D728" s="10" t="s">
-        <v>1626</v>
       </c>
       <c r="E728" s="8">
         <v>5</v>
@@ -45743,7 +45795,7 @@
         <v>1</v>
       </c>
       <c r="G728" s="10" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H728" s="8"/>
       <c r="I728" s="8"/>
@@ -45759,7 +45811,7 @@
         <v>1142</v>
       </c>
       <c r="D729" s="10" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="E729" s="8">
         <v>2</v>
@@ -45768,7 +45820,7 @@
         <v>1</v>
       </c>
       <c r="G729" s="10" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="730" spans="1:9">
@@ -45791,7 +45843,7 @@
         <v>1</v>
       </c>
       <c r="G730" s="10" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H730" s="8"/>
       <c r="I730" s="8"/>
@@ -45841,7 +45893,7 @@
         <v>1</v>
       </c>
       <c r="G732" s="10" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H732" s="8"/>
       <c r="I732" s="8"/>
@@ -45854,10 +45906,10 @@
         <v>293</v>
       </c>
       <c r="C733" s="10" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D733" s="10" t="s">
         <v>1625</v>
-      </c>
-      <c r="D733" s="10" t="s">
-        <v>1626</v>
       </c>
       <c r="E733" s="8">
         <v>5</v>
@@ -45866,7 +45918,7 @@
         <v>1</v>
       </c>
       <c r="G733" s="10" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H733" s="8"/>
       <c r="I733" s="8"/>
@@ -45916,7 +45968,7 @@
         <v>2</v>
       </c>
       <c r="G735" s="19" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="H735" s="8"/>
       <c r="I735" s="8"/>
@@ -45941,7 +45993,7 @@
         <v>1</v>
       </c>
       <c r="G736" s="19" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H736" s="8"/>
       <c r="I736" s="8"/>
@@ -45966,7 +46018,7 @@
         <v>1</v>
       </c>
       <c r="G737" s="19" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H737" s="8"/>
       <c r="I737" s="8"/>
@@ -45991,7 +46043,7 @@
         <v>1</v>
       </c>
       <c r="G738" s="19" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="H738" s="8"/>
       <c r="I738" s="8"/>
@@ -46016,7 +46068,7 @@
         <v>1</v>
       </c>
       <c r="G739" s="19" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H739" s="8"/>
       <c r="I739" s="8"/>
@@ -46041,7 +46093,7 @@
         <v>1</v>
       </c>
       <c r="G740" s="19" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="H740" s="8"/>
       <c r="I740" s="8"/>
@@ -46066,7 +46118,7 @@
         <v>1</v>
       </c>
       <c r="G741" s="19" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H741" s="8"/>
       <c r="I741" s="8"/>
@@ -46091,7 +46143,7 @@
         <v>1</v>
       </c>
       <c r="G742" s="19" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H742" s="8"/>
       <c r="I742" s="8"/>
@@ -46116,7 +46168,7 @@
         <v>2</v>
       </c>
       <c r="G743" s="19" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
       <c r="H743" s="8"/>
       <c r="I743" s="8"/>
@@ -46266,7 +46318,7 @@
         <v>1</v>
       </c>
       <c r="G749" s="15" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H749" s="8"/>
       <c r="I749" s="8"/>
@@ -46341,7 +46393,7 @@
         <v>1</v>
       </c>
       <c r="G752" s="15" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H752" s="8"/>
       <c r="I752" s="8"/>
@@ -46416,7 +46468,7 @@
         <v>1</v>
       </c>
       <c r="G755" s="15" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H755" s="8"/>
       <c r="I755" s="8"/>
@@ -46432,7 +46484,7 @@
         <v>1052</v>
       </c>
       <c r="D756" s="10" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="E756" s="8">
         <v>2</v>
@@ -46566,7 +46618,7 @@
         <v>1</v>
       </c>
       <c r="G761" s="15" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H761" s="8"/>
       <c r="I761" s="8"/>
@@ -46607,7 +46659,7 @@
         <v>1032</v>
       </c>
       <c r="D763" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E763" s="8">
         <v>2</v>
@@ -46616,7 +46668,7 @@
         <v>1</v>
       </c>
       <c r="G763" s="10" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H763" s="8"/>
       <c r="I763" s="8"/>
@@ -46657,7 +46709,7 @@
         <v>1032</v>
       </c>
       <c r="D765" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E765" s="8">
         <v>2</v>
@@ -46666,7 +46718,7 @@
         <v>2</v>
       </c>
       <c r="G765" s="10" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H765" s="8"/>
       <c r="I765" s="8"/>
@@ -46707,7 +46759,7 @@
         <v>1032</v>
       </c>
       <c r="D767" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E767" s="8">
         <v>2</v>
@@ -46716,7 +46768,7 @@
         <v>3</v>
       </c>
       <c r="G767" s="10" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H767" s="8"/>
       <c r="I767" s="8"/>
@@ -46782,7 +46834,7 @@
         <v>1032</v>
       </c>
       <c r="D770" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E770" s="8">
         <v>2</v>
@@ -46791,7 +46843,7 @@
         <v>1</v>
       </c>
       <c r="G770" s="10" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H770" s="8"/>
       <c r="I770" s="8"/>
@@ -46816,7 +46868,7 @@
         <v>1</v>
       </c>
       <c r="G771" s="15" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H771" s="8"/>
       <c r="I771" s="8"/>
@@ -46882,7 +46934,7 @@
         <v>1032</v>
       </c>
       <c r="D774" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E774" s="8">
         <v>2</v>
@@ -46891,7 +46943,7 @@
         <v>1</v>
       </c>
       <c r="G774" s="10" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H774" s="8"/>
       <c r="I774" s="8"/>
@@ -46916,7 +46968,7 @@
         <v>1</v>
       </c>
       <c r="G775" s="15" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H775" s="8"/>
       <c r="I775" s="8"/>
@@ -46991,7 +47043,7 @@
         <v>1</v>
       </c>
       <c r="G778" s="15" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H778" s="8"/>
       <c r="I778" s="8"/>
@@ -47007,7 +47059,7 @@
         <v>1032</v>
       </c>
       <c r="D779" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E779" s="8">
         <v>2</v>
@@ -47016,7 +47068,7 @@
         <v>1</v>
       </c>
       <c r="G779" s="10" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H779" s="8"/>
       <c r="I779" s="8"/>
@@ -47032,7 +47084,7 @@
         <v>1032</v>
       </c>
       <c r="D780" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E780" s="8">
         <v>2</v>
@@ -47041,7 +47093,7 @@
         <v>1</v>
       </c>
       <c r="G780" s="10" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H780" s="8"/>
       <c r="I780" s="8"/>
@@ -47057,7 +47109,7 @@
         <v>1032</v>
       </c>
       <c r="D781" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E781" s="8">
         <v>5</v>
@@ -47066,7 +47118,7 @@
         <v>1</v>
       </c>
       <c r="G781" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H781" s="8"/>
       <c r="I781" s="8"/>
@@ -47082,7 +47134,7 @@
         <v>1052</v>
       </c>
       <c r="D782" s="10" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E782" s="8">
         <v>2</v>
@@ -47107,7 +47159,7 @@
         <v>1032</v>
       </c>
       <c r="D783" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E783" s="8">
         <v>5</v>
@@ -47116,7 +47168,7 @@
         <v>1</v>
       </c>
       <c r="G783" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H783" s="8"/>
       <c r="I783" s="8"/>
@@ -47157,7 +47209,7 @@
         <v>1032</v>
       </c>
       <c r="D785" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E785" s="8">
         <v>5</v>
@@ -47166,7 +47218,7 @@
         <v>2</v>
       </c>
       <c r="G785" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H785" s="8"/>
       <c r="I785" s="8"/>
@@ -47207,7 +47259,7 @@
         <v>1032</v>
       </c>
       <c r="D787" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E787" s="8">
         <v>5</v>
@@ -47216,7 +47268,7 @@
         <v>3</v>
       </c>
       <c r="G787" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H787" s="8"/>
       <c r="I787" s="8"/>
@@ -47282,7 +47334,7 @@
         <v>1032</v>
       </c>
       <c r="D790" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E790" s="8">
         <v>5</v>
@@ -47291,7 +47343,7 @@
         <v>1</v>
       </c>
       <c r="G790" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H790" s="8"/>
       <c r="I790" s="8"/>
@@ -47316,7 +47368,7 @@
         <v>1</v>
       </c>
       <c r="G791" s="15" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H791" s="8"/>
       <c r="I791" s="8"/>
@@ -47382,7 +47434,7 @@
         <v>1032</v>
       </c>
       <c r="D794" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E794" s="8">
         <v>5</v>
@@ -47391,7 +47443,7 @@
         <v>1</v>
       </c>
       <c r="G794" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H794" s="8"/>
       <c r="I794" s="8"/>
@@ -47416,7 +47468,7 @@
         <v>1</v>
       </c>
       <c r="G795" s="15" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H795" s="8"/>
       <c r="I795" s="8"/>
@@ -47491,7 +47543,7 @@
         <v>1</v>
       </c>
       <c r="G798" s="15" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H798" s="8"/>
       <c r="I798" s="8"/>
@@ -47507,7 +47559,7 @@
         <v>1032</v>
       </c>
       <c r="D799" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E799" s="8">
         <v>5</v>
@@ -47516,7 +47568,7 @@
         <v>1</v>
       </c>
       <c r="G799" s="10" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H799" s="8"/>
       <c r="I799" s="8"/>
@@ -47532,7 +47584,7 @@
         <v>1032</v>
       </c>
       <c r="D800" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E800" s="8">
         <v>5</v>
@@ -47541,7 +47593,7 @@
         <v>1</v>
       </c>
       <c r="G800" s="10" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H800" s="8"/>
       <c r="I800" s="8"/>
@@ -47557,7 +47609,7 @@
         <v>1032</v>
       </c>
       <c r="D801" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E801" s="9">
         <v>2</v>
@@ -47566,7 +47618,7 @@
         <v>1</v>
       </c>
       <c r="G801" s="49" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H801" s="8"/>
       <c r="I801" s="8"/>
@@ -47582,7 +47634,7 @@
         <v>1032</v>
       </c>
       <c r="D802" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E802" s="8">
         <v>5</v>
@@ -47591,7 +47643,7 @@
         <v>1</v>
       </c>
       <c r="G802" s="10" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H802" s="8"/>
       <c r="I802" s="8"/>
@@ -47607,7 +47659,7 @@
         <v>1032</v>
       </c>
       <c r="D803" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E803" s="9">
         <v>2</v>
@@ -47616,7 +47668,7 @@
         <v>1</v>
       </c>
       <c r="G803" s="49" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H803" s="8"/>
       <c r="I803" s="8"/>
@@ -47632,7 +47684,7 @@
         <v>1032</v>
       </c>
       <c r="D804" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E804" s="8">
         <v>5</v>
@@ -47641,7 +47693,7 @@
         <v>1</v>
       </c>
       <c r="G804" s="10" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H804" s="8"/>
       <c r="I804" s="8"/>
@@ -47657,7 +47709,7 @@
         <v>1032</v>
       </c>
       <c r="D805" s="9" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="E805" s="9">
         <v>5</v>
@@ -47666,7 +47718,7 @@
         <v>1</v>
       </c>
       <c r="G805" s="9" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="H805" s="8"/>
       <c r="I805" s="8"/>
@@ -47682,7 +47734,7 @@
         <v>1032</v>
       </c>
       <c r="D806" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E806" s="9">
         <v>2</v>
@@ -47691,7 +47743,7 @@
         <v>1</v>
       </c>
       <c r="G806" s="49" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H806" s="8"/>
       <c r="I806" s="8"/>
@@ -47707,7 +47759,7 @@
         <v>1032</v>
       </c>
       <c r="D807" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E807" s="9">
         <v>5</v>
@@ -47716,7 +47768,7 @@
         <v>1</v>
       </c>
       <c r="G807" s="9" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H807" s="8"/>
       <c r="I807" s="8"/>
@@ -47732,7 +47784,7 @@
         <v>1032</v>
       </c>
       <c r="D808" s="10" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="E808" s="9">
         <v>5</v>
@@ -47741,7 +47793,7 @@
         <v>1</v>
       </c>
       <c r="G808" s="49" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="H808" s="8"/>
       <c r="I808" s="8"/>
@@ -47782,7 +47834,7 @@
         <v>1032</v>
       </c>
       <c r="D810" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E810" s="9">
         <v>5</v>
@@ -47791,7 +47843,7 @@
         <v>1</v>
       </c>
       <c r="G810" s="9" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H810" s="8"/>
       <c r="I810" s="8"/>
@@ -47816,7 +47868,7 @@
         <v>1</v>
       </c>
       <c r="G811" s="10" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H811" s="8"/>
       <c r="I811" s="8"/>
@@ -47882,7 +47934,7 @@
         <v>1032</v>
       </c>
       <c r="D814" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E814" s="9">
         <v>5</v>
@@ -47891,7 +47943,7 @@
         <v>1</v>
       </c>
       <c r="G814" s="9" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H814" s="8"/>
       <c r="I814" s="8"/>
@@ -47904,19 +47956,19 @@
         <v>324</v>
       </c>
       <c r="C815" s="10" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D815" s="10" t="s">
         <v>1710</v>
       </c>
-      <c r="D815" s="10" t="s">
+      <c r="E815" s="8">
+        <v>2</v>
+      </c>
+      <c r="F815" s="8">
+        <v>1</v>
+      </c>
+      <c r="G815" s="10" t="s">
         <v>1711</v>
-      </c>
-      <c r="E815" s="8">
-        <v>2</v>
-      </c>
-      <c r="F815" s="8">
-        <v>1</v>
-      </c>
-      <c r="G815" s="10" t="s">
-        <v>1712</v>
       </c>
       <c r="H815" s="8"/>
       <c r="I815" s="8"/>
@@ -47932,7 +47984,7 @@
         <v>1032</v>
       </c>
       <c r="D816" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E816" s="8">
         <v>5</v>
@@ -47941,7 +47993,7 @@
         <v>1</v>
       </c>
       <c r="G816" s="10" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="H816" s="8"/>
       <c r="I816" s="8"/>
@@ -47957,7 +48009,7 @@
         <v>852</v>
       </c>
       <c r="D817" s="10" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="E817" s="8">
         <v>2</v>
@@ -47982,7 +48034,7 @@
         <v>1032</v>
       </c>
       <c r="D818" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E818" s="8">
         <v>5</v>
@@ -47991,7 +48043,7 @@
         <v>2</v>
       </c>
       <c r="G818" s="10" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="H818" s="8"/>
       <c r="I818" s="8"/>
@@ -48032,7 +48084,7 @@
         <v>1032</v>
       </c>
       <c r="D820" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E820" s="8">
         <v>5</v>
@@ -48041,7 +48093,7 @@
         <v>3</v>
       </c>
       <c r="G820" s="10" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="H820" s="8"/>
       <c r="I820" s="8"/>
@@ -48057,7 +48109,7 @@
         <v>1032</v>
       </c>
       <c r="D821" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E821" s="9">
         <v>5</v>
@@ -48066,7 +48118,7 @@
         <v>1</v>
       </c>
       <c r="G821" s="9" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H821" s="8"/>
       <c r="I821" s="8"/>
@@ -48082,7 +48134,7 @@
         <v>1032</v>
       </c>
       <c r="D822" s="9" t="s">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="E822" s="9">
         <v>2</v>
@@ -48091,7 +48143,7 @@
         <v>1</v>
       </c>
       <c r="G822" s="9" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="H822" s="8"/>
       <c r="I822" s="8"/>
@@ -48107,7 +48159,7 @@
         <v>1032</v>
       </c>
       <c r="D823" s="15" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E823" s="14">
         <v>2</v>
@@ -48116,7 +48168,7 @@
         <v>1</v>
       </c>
       <c r="G823" s="15" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="H823" s="8"/>
       <c r="I823" s="8"/>
@@ -48132,7 +48184,7 @@
         <v>1032</v>
       </c>
       <c r="D824" s="10" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="E824" s="8">
         <v>2</v>
@@ -48141,7 +48193,7 @@
         <v>2</v>
       </c>
       <c r="G824" s="10" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="H824" s="8"/>
       <c r="I824" s="8"/>
@@ -48157,7 +48209,7 @@
         <v>1032</v>
       </c>
       <c r="D825" s="10" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="E825" s="8">
         <v>2</v>
@@ -48166,32 +48218,32 @@
         <v>3</v>
       </c>
       <c r="G825" s="10" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H825" s="8"/>
       <c r="I825" s="8"/>
     </row>
-    <row r="826" spans="1:9">
+    <row r="826" spans="1:9" s="14" customFormat="1">
       <c r="A826" s="8">
         <v>825</v>
       </c>
-      <c r="B826" s="9">
-        <v>328</v>
-      </c>
-      <c r="C826" s="49" t="s">
-        <v>1799</v>
-      </c>
-      <c r="D826" s="9" t="s">
-        <v>1732</v>
-      </c>
-      <c r="E826" s="9">
-        <v>5</v>
-      </c>
-      <c r="F826" s="9">
-        <v>1</v>
-      </c>
-      <c r="G826" s="9" t="s">
-        <v>1726</v>
+      <c r="B826" s="8">
+        <v>327</v>
+      </c>
+      <c r="C826" s="10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D826" s="10" t="s">
+        <v>2166</v>
+      </c>
+      <c r="E826" s="8">
+        <v>2</v>
+      </c>
+      <c r="F826" s="8">
+        <v>4</v>
+      </c>
+      <c r="G826" s="10" t="s">
+        <v>2167</v>
       </c>
       <c r="H826" s="8"/>
       <c r="I826" s="8"/>
@@ -48203,11 +48255,11 @@
       <c r="B827" s="9">
         <v>328</v>
       </c>
-      <c r="C827" s="10" t="s">
-        <v>1032</v>
+      <c r="C827" s="49" t="s">
+        <v>1796</v>
       </c>
       <c r="D827" s="9" t="s">
-        <v>1903</v>
+        <v>1731</v>
       </c>
       <c r="E827" s="9">
         <v>5</v>
@@ -48215,8 +48267,8 @@
       <c r="F827" s="9">
         <v>1</v>
       </c>
-      <c r="G827" s="49" t="s">
-        <v>1797</v>
+      <c r="G827" s="9" t="s">
+        <v>1725</v>
       </c>
       <c r="H827" s="8"/>
       <c r="I827" s="8"/>
@@ -48226,13 +48278,13 @@
         <v>827</v>
       </c>
       <c r="B828" s="9">
-        <v>329</v>
-      </c>
-      <c r="C828" s="9" t="s">
-        <v>884</v>
+        <v>328</v>
+      </c>
+      <c r="C828" s="10" t="s">
+        <v>1032</v>
       </c>
       <c r="D828" s="9" t="s">
-        <v>1732</v>
+        <v>1900</v>
       </c>
       <c r="E828" s="9">
         <v>5</v>
@@ -48240,8 +48292,8 @@
       <c r="F828" s="9">
         <v>1</v>
       </c>
-      <c r="G828" s="9" t="s">
-        <v>1726</v>
+      <c r="G828" s="49" t="s">
+        <v>1794</v>
       </c>
       <c r="H828" s="8"/>
       <c r="I828" s="8"/>
@@ -48253,11 +48305,11 @@
       <c r="B829" s="9">
         <v>329</v>
       </c>
-      <c r="C829" s="10" t="s">
-        <v>1032</v>
+      <c r="C829" s="9" t="s">
+        <v>884</v>
       </c>
       <c r="D829" s="9" t="s">
-        <v>1903</v>
+        <v>1731</v>
       </c>
       <c r="E829" s="9">
         <v>5</v>
@@ -48265,8 +48317,8 @@
       <c r="F829" s="9">
         <v>1</v>
       </c>
-      <c r="G829" s="49" t="s">
-        <v>1795</v>
+      <c r="G829" s="9" t="s">
+        <v>1725</v>
       </c>
       <c r="H829" s="8"/>
       <c r="I829" s="8"/>
@@ -48275,23 +48327,23 @@
       <c r="A830" s="8">
         <v>829</v>
       </c>
-      <c r="B830" s="98">
-        <v>330</v>
-      </c>
-      <c r="C830" s="19" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D830" s="70">
-        <v>3</v>
-      </c>
-      <c r="E830" s="70">
-        <v>4</v>
-      </c>
-      <c r="F830" s="70">
-        <v>1</v>
-      </c>
-      <c r="G830" s="70" t="s">
-        <v>1464</v>
+      <c r="B830" s="9">
+        <v>329</v>
+      </c>
+      <c r="C830" s="10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D830" s="9" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E830" s="9">
+        <v>5</v>
+      </c>
+      <c r="F830" s="9">
+        <v>1</v>
+      </c>
+      <c r="G830" s="49" t="s">
+        <v>1793</v>
       </c>
       <c r="H830" s="8"/>
       <c r="I830" s="8"/>
@@ -48300,23 +48352,23 @@
       <c r="A831" s="8">
         <v>830</v>
       </c>
-      <c r="B831" s="99">
-        <v>331</v>
-      </c>
-      <c r="C831" s="99" t="s">
-        <v>865</v>
-      </c>
-      <c r="D831" s="99">
+      <c r="B831" s="98">
+        <v>330</v>
+      </c>
+      <c r="C831" s="19" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D831" s="70">
+        <v>3</v>
+      </c>
+      <c r="E831" s="70">
         <v>4</v>
       </c>
-      <c r="E831" s="99">
-        <v>3</v>
-      </c>
-      <c r="F831" s="99">
-        <v>1</v>
-      </c>
-      <c r="G831" s="100" t="s">
-        <v>1765</v>
+      <c r="F831" s="70">
+        <v>1</v>
+      </c>
+      <c r="G831" s="70" t="s">
+        <v>1464</v>
       </c>
       <c r="H831" s="8"/>
       <c r="I831" s="8"/>
@@ -48332,16 +48384,16 @@
         <v>865</v>
       </c>
       <c r="D832" s="99">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E832" s="99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F832" s="99">
         <v>1</v>
       </c>
       <c r="G832" s="100" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="H832" s="8"/>
       <c r="I832" s="8"/>
@@ -48350,23 +48402,23 @@
       <c r="A833" s="8">
         <v>832</v>
       </c>
-      <c r="B833" s="8">
-        <v>332</v>
-      </c>
-      <c r="C833" s="8" t="s">
+      <c r="B833" s="99">
+        <v>331</v>
+      </c>
+      <c r="C833" s="99" t="s">
         <v>865</v>
       </c>
-      <c r="D833" s="8">
-        <v>0</v>
-      </c>
-      <c r="E833" s="8">
-        <v>2</v>
-      </c>
-      <c r="F833" s="8">
-        <v>1</v>
-      </c>
-      <c r="G833" s="10" t="s">
-        <v>1779</v>
+      <c r="D833" s="99">
+        <v>10</v>
+      </c>
+      <c r="E833" s="99">
+        <v>4</v>
+      </c>
+      <c r="F833" s="99">
+        <v>1</v>
+      </c>
+      <c r="G833" s="100" t="s">
+        <v>1762</v>
       </c>
       <c r="H833" s="8"/>
       <c r="I833" s="8"/>
@@ -48375,23 +48427,23 @@
       <c r="A834" s="8">
         <v>833</v>
       </c>
-      <c r="B834" s="9">
-        <v>333</v>
-      </c>
-      <c r="C834" s="10" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D834" s="9" t="s">
-        <v>1903</v>
-      </c>
-      <c r="E834" s="9">
-        <v>5</v>
-      </c>
-      <c r="F834" s="9">
-        <v>1</v>
-      </c>
-      <c r="G834" s="49" t="s">
-        <v>1795</v>
+      <c r="B834" s="8">
+        <v>332</v>
+      </c>
+      <c r="C834" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="D834" s="8">
+        <v>0</v>
+      </c>
+      <c r="E834" s="8">
+        <v>2</v>
+      </c>
+      <c r="F834" s="8">
+        <v>1</v>
+      </c>
+      <c r="G834" s="10" t="s">
+        <v>1777</v>
       </c>
       <c r="H834" s="8"/>
       <c r="I834" s="8"/>
@@ -48401,22 +48453,22 @@
         <v>834</v>
       </c>
       <c r="B835" s="9">
-        <v>334</v>
-      </c>
-      <c r="C835" s="9" t="s">
-        <v>852</v>
+        <v>333</v>
+      </c>
+      <c r="C835" s="10" t="s">
+        <v>1032</v>
       </c>
       <c r="D835" s="9" t="s">
-        <v>857</v>
+        <v>1900</v>
       </c>
       <c r="E835" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F835" s="9">
         <v>1</v>
       </c>
-      <c r="G835" s="9" t="s">
-        <v>858</v>
+      <c r="G835" s="49" t="s">
+        <v>1793</v>
       </c>
       <c r="H835" s="8"/>
       <c r="I835" s="8"/>
@@ -48428,11 +48480,11 @@
       <c r="B836" s="9">
         <v>334</v>
       </c>
-      <c r="C836" s="10" t="s">
-        <v>1032</v>
+      <c r="C836" s="9" t="s">
+        <v>852</v>
       </c>
       <c r="D836" s="9" t="s">
-        <v>1903</v>
+        <v>857</v>
       </c>
       <c r="E836" s="9">
         <v>2</v>
@@ -48441,7 +48493,7 @@
         <v>1</v>
       </c>
       <c r="G836" s="9" t="s">
-        <v>1808</v>
+        <v>858</v>
       </c>
       <c r="H836" s="8"/>
       <c r="I836" s="8"/>
@@ -48451,13 +48503,13 @@
         <v>836</v>
       </c>
       <c r="B837" s="9">
-        <v>335</v>
-      </c>
-      <c r="C837" s="9" t="s">
-        <v>852</v>
+        <v>334</v>
+      </c>
+      <c r="C837" s="10" t="s">
+        <v>1032</v>
       </c>
       <c r="D837" s="9" t="s">
-        <v>861</v>
+        <v>1900</v>
       </c>
       <c r="E837" s="9">
         <v>2</v>
@@ -48465,8 +48517,8 @@
       <c r="F837" s="9">
         <v>1</v>
       </c>
-      <c r="G837" s="49" t="s">
-        <v>862</v>
+      <c r="G837" s="9" t="s">
+        <v>1805</v>
       </c>
       <c r="H837" s="8"/>
       <c r="I837" s="8"/>
@@ -48478,11 +48530,11 @@
       <c r="B838" s="9">
         <v>335</v>
       </c>
-      <c r="C838" s="10" t="s">
-        <v>1032</v>
+      <c r="C838" s="9" t="s">
+        <v>852</v>
       </c>
       <c r="D838" s="9" t="s">
-        <v>1903</v>
+        <v>861</v>
       </c>
       <c r="E838" s="9">
         <v>2</v>
@@ -48490,8 +48542,8 @@
       <c r="F838" s="9">
         <v>1</v>
       </c>
-      <c r="G838" s="9" t="s">
-        <v>1808</v>
+      <c r="G838" s="49" t="s">
+        <v>862</v>
       </c>
       <c r="H838" s="8"/>
       <c r="I838" s="8"/>
@@ -48500,23 +48552,23 @@
       <c r="A839" s="8">
         <v>838</v>
       </c>
-      <c r="B839" s="84">
-        <v>336</v>
-      </c>
-      <c r="C839" s="84" t="s">
-        <v>1813</v>
-      </c>
-      <c r="D839" s="85" t="s">
-        <v>1814</v>
-      </c>
-      <c r="E839" s="84">
-        <v>5</v>
-      </c>
-      <c r="F839" s="84">
-        <v>1</v>
-      </c>
-      <c r="G839" s="85" t="s">
-        <v>1809</v>
+      <c r="B839" s="9">
+        <v>335</v>
+      </c>
+      <c r="C839" s="10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D839" s="9" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E839" s="9">
+        <v>2</v>
+      </c>
+      <c r="F839" s="9">
+        <v>1</v>
+      </c>
+      <c r="G839" s="9" t="s">
+        <v>1805</v>
       </c>
       <c r="H839" s="8"/>
       <c r="I839" s="8"/>
@@ -48525,23 +48577,23 @@
       <c r="A840" s="8">
         <v>839</v>
       </c>
-      <c r="B840" s="9">
+      <c r="B840" s="84">
         <v>336</v>
       </c>
-      <c r="C840" s="10" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D840" s="9" t="s">
-        <v>1903</v>
-      </c>
-      <c r="E840" s="9">
+      <c r="C840" s="84" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D840" s="85" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E840" s="84">
         <v>5</v>
       </c>
-      <c r="F840" s="9">
-        <v>1</v>
-      </c>
-      <c r="G840" s="9" t="s">
-        <v>1808</v>
+      <c r="F840" s="84">
+        <v>1</v>
+      </c>
+      <c r="G840" s="85" t="s">
+        <v>1806</v>
       </c>
       <c r="H840" s="8"/>
       <c r="I840" s="8"/>
@@ -48550,23 +48602,23 @@
       <c r="A841" s="8">
         <v>840</v>
       </c>
-      <c r="B841" s="92">
-        <v>337</v>
-      </c>
-      <c r="C841" s="93" t="s">
+      <c r="B841" s="9">
+        <v>336</v>
+      </c>
+      <c r="C841" s="10" t="s">
         <v>1032</v>
       </c>
-      <c r="D841" s="93" t="s">
-        <v>1824</v>
-      </c>
-      <c r="E841" s="92">
-        <v>2</v>
-      </c>
-      <c r="F841" s="92">
-        <v>1</v>
-      </c>
-      <c r="G841" s="93" t="s">
-        <v>1825</v>
+      <c r="D841" s="9" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E841" s="9">
+        <v>5</v>
+      </c>
+      <c r="F841" s="9">
+        <v>1</v>
+      </c>
+      <c r="G841" s="9" t="s">
+        <v>1805</v>
       </c>
       <c r="H841" s="8"/>
       <c r="I841" s="8"/>
@@ -48578,20 +48630,20 @@
       <c r="B842" s="92">
         <v>337</v>
       </c>
-      <c r="C842" s="92" t="s">
-        <v>880</v>
-      </c>
-      <c r="D842" s="92">
-        <v>1604968200</v>
+      <c r="C842" s="93" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D842" s="93" t="s">
+        <v>1821</v>
       </c>
       <c r="E842" s="92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F842" s="92">
         <v>1</v>
       </c>
       <c r="G842" s="93" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
       <c r="H842" s="8"/>
       <c r="I842" s="8"/>
@@ -48604,19 +48656,19 @@
         <v>337</v>
       </c>
       <c r="C843" s="92" t="s">
-        <v>852</v>
-      </c>
-      <c r="D843" s="92" t="s">
-        <v>853</v>
+        <v>880</v>
+      </c>
+      <c r="D843" s="92">
+        <v>1604968200</v>
       </c>
       <c r="E843" s="92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F843" s="92">
         <v>1</v>
       </c>
-      <c r="G843" s="92" t="s">
-        <v>1828</v>
+      <c r="G843" s="93" t="s">
+        <v>1823</v>
       </c>
       <c r="H843" s="8"/>
       <c r="I843" s="8"/>
@@ -48625,23 +48677,23 @@
       <c r="A844" s="8">
         <v>843</v>
       </c>
-      <c r="B844" s="14">
-        <v>338</v>
-      </c>
-      <c r="C844" s="14" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D844" s="14" t="s">
-        <v>1903</v>
-      </c>
-      <c r="E844" s="14">
-        <v>5</v>
-      </c>
-      <c r="F844" s="14">
-        <v>1</v>
-      </c>
-      <c r="G844" s="14" t="s">
-        <v>1833</v>
+      <c r="B844" s="92">
+        <v>337</v>
+      </c>
+      <c r="C844" s="92" t="s">
+        <v>852</v>
+      </c>
+      <c r="D844" s="92" t="s">
+        <v>853</v>
+      </c>
+      <c r="E844" s="92">
+        <v>2</v>
+      </c>
+      <c r="F844" s="92">
+        <v>1</v>
+      </c>
+      <c r="G844" s="92" t="s">
+        <v>1825</v>
       </c>
       <c r="H844" s="8"/>
       <c r="I844" s="8"/>
@@ -48650,181 +48702,181 @@
       <c r="A845" s="8">
         <v>844</v>
       </c>
-      <c r="B845" s="8">
-        <v>339</v>
-      </c>
-      <c r="C845" s="10" t="s">
-        <v>1841</v>
-      </c>
-      <c r="D845" s="10" t="s">
-        <v>1840</v>
-      </c>
-      <c r="E845" s="8">
-        <v>2</v>
-      </c>
-      <c r="F845" s="8">
-        <v>1</v>
-      </c>
-      <c r="G845" s="10" t="s">
-        <v>1842</v>
-      </c>
-      <c r="H845" s="8" t="s">
-        <v>859</v>
-      </c>
-      <c r="I845" s="8" t="s">
-        <v>860</v>
-      </c>
+      <c r="B845" s="14">
+        <v>338</v>
+      </c>
+      <c r="C845" s="14" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D845" s="14" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E845" s="14">
+        <v>5</v>
+      </c>
+      <c r="F845" s="14">
+        <v>1</v>
+      </c>
+      <c r="G845" s="14" t="s">
+        <v>1830</v>
+      </c>
+      <c r="H845" s="8"/>
+      <c r="I845" s="8"/>
     </row>
     <row r="846" spans="1:9">
       <c r="A846" s="8">
         <v>845</v>
       </c>
       <c r="B846" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C846" s="10" t="s">
-        <v>1146</v>
+        <v>1838</v>
       </c>
       <c r="D846" s="10" t="s">
-        <v>1903</v>
+        <v>1837</v>
       </c>
       <c r="E846" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F846" s="8">
         <v>1</v>
       </c>
       <c r="G846" s="10" t="s">
-        <v>1881</v>
-      </c>
-      <c r="H846" s="8"/>
-      <c r="I846" s="8"/>
+        <v>1839</v>
+      </c>
+      <c r="H846" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="I846" s="8" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="847" spans="1:9">
       <c r="A847" s="8">
         <v>846</v>
       </c>
       <c r="B847" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C847" s="10" t="s">
         <v>1146</v>
       </c>
       <c r="D847" s="10" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="E847" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F847" s="8">
         <v>1</v>
       </c>
       <c r="G847" s="10" t="s">
-        <v>1892</v>
-      </c>
-      <c r="H847" s="8" t="s">
-        <v>863</v>
-      </c>
-      <c r="I847" s="8" t="s">
-        <v>864</v>
-      </c>
+        <v>1878</v>
+      </c>
+      <c r="H847" s="8"/>
+      <c r="I847" s="8"/>
     </row>
     <row r="848" spans="1:9">
       <c r="A848" s="8">
         <v>847</v>
       </c>
-      <c r="B848" s="94">
-        <v>342</v>
-      </c>
-      <c r="C848" s="95" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D848" s="95" t="s">
-        <v>1893</v>
-      </c>
-      <c r="E848" s="94">
-        <v>2</v>
-      </c>
-      <c r="F848" s="94">
-        <v>1</v>
-      </c>
-      <c r="G848" s="95" t="s">
-        <v>1894</v>
-      </c>
-      <c r="H848" s="8"/>
-      <c r="I848" s="8"/>
-    </row>
-    <row r="849" spans="1:9" s="84" customFormat="1">
+      <c r="B848" s="8">
+        <v>341</v>
+      </c>
+      <c r="C848" s="10" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D848" s="10" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E848" s="8">
+        <v>2</v>
+      </c>
+      <c r="F848" s="8">
+        <v>1</v>
+      </c>
+      <c r="G848" s="10" t="s">
+        <v>1889</v>
+      </c>
+      <c r="H848" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="I848" s="8" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="849" spans="1:9">
       <c r="A849" s="8">
         <v>848</v>
       </c>
       <c r="B849" s="94">
         <v>342</v>
       </c>
-      <c r="C849" s="94" t="s">
-        <v>865</v>
-      </c>
-      <c r="D849" s="94">
-        <v>1</v>
+      <c r="C849" s="95" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D849" s="95" t="s">
+        <v>1890</v>
       </c>
       <c r="E849" s="94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F849" s="94">
         <v>1</v>
       </c>
       <c r="G849" s="95" t="s">
-        <v>1884</v>
+        <v>1891</v>
       </c>
       <c r="H849" s="8"/>
       <c r="I849" s="8"/>
     </row>
-    <row r="850" spans="1:9">
+    <row r="850" spans="1:9" s="84" customFormat="1">
       <c r="A850" s="8">
         <v>849</v>
       </c>
       <c r="B850" s="94">
         <v>342</v>
       </c>
-      <c r="C850" s="95" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D850" s="95" t="s">
-        <v>1890</v>
+      <c r="C850" s="94" t="s">
+        <v>865</v>
+      </c>
+      <c r="D850" s="94">
+        <v>1</v>
       </c>
       <c r="E850" s="94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F850" s="94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G850" s="95" t="s">
-        <v>1664</v>
+        <v>1881</v>
       </c>
       <c r="H850" s="8"/>
       <c r="I850" s="8"/>
     </row>
-    <row r="851" spans="1:9" s="92" customFormat="1">
+    <row r="851" spans="1:9">
       <c r="A851" s="8">
         <v>850</v>
       </c>
       <c r="B851" s="94">
         <v>342</v>
       </c>
-      <c r="C851" s="94" t="s">
-        <v>865</v>
-      </c>
-      <c r="D851" s="94">
-        <v>1</v>
+      <c r="C851" s="95" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D851" s="95" t="s">
+        <v>1887</v>
       </c>
       <c r="E851" s="94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F851" s="94">
         <v>2</v>
       </c>
       <c r="G851" s="95" t="s">
-        <v>1884</v>
+        <v>1663</v>
       </c>
       <c r="H851" s="8"/>
       <c r="I851" s="8"/>
@@ -48836,20 +48888,20 @@
       <c r="B852" s="94">
         <v>342</v>
       </c>
-      <c r="C852" s="95" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D852" s="95" t="s">
-        <v>1891</v>
+      <c r="C852" s="94" t="s">
+        <v>865</v>
+      </c>
+      <c r="D852" s="94">
+        <v>1</v>
       </c>
       <c r="E852" s="94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F852" s="94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G852" s="95" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="H852" s="8"/>
       <c r="I852" s="8"/>
@@ -48861,25 +48913,25 @@
       <c r="B853" s="94">
         <v>342</v>
       </c>
-      <c r="C853" s="94" t="s">
-        <v>865</v>
-      </c>
-      <c r="D853" s="94">
-        <v>1</v>
+      <c r="C853" s="95" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D853" s="95" t="s">
+        <v>1888</v>
       </c>
       <c r="E853" s="94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F853" s="94">
         <v>3</v>
       </c>
       <c r="G853" s="95" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="H853" s="8"/>
       <c r="I853" s="8"/>
     </row>
-    <row r="854" spans="1:9" s="14" customFormat="1">
+    <row r="854" spans="1:9" s="92" customFormat="1">
       <c r="A854" s="8">
         <v>853</v>
       </c>
@@ -48887,24 +48939,24 @@
         <v>342</v>
       </c>
       <c r="C854" s="94" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D854" s="94" t="s">
-        <v>1903</v>
+        <v>865</v>
+      </c>
+      <c r="D854" s="94">
+        <v>1</v>
       </c>
       <c r="E854" s="94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F854" s="94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G854" s="95" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="H854" s="8"/>
       <c r="I854" s="8"/>
     </row>
-    <row r="855" spans="1:9" s="8" customFormat="1">
+    <row r="855" spans="1:9" s="14" customFormat="1">
       <c r="A855" s="8">
         <v>854</v>
       </c>
@@ -48912,42 +48964,44 @@
         <v>342</v>
       </c>
       <c r="C855" s="94" t="s">
-        <v>865</v>
-      </c>
-      <c r="D855" s="94">
-        <v>1</v>
+        <v>1032</v>
+      </c>
+      <c r="D855" s="94" t="s">
+        <v>1900</v>
       </c>
       <c r="E855" s="94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F855" s="94">
         <v>4</v>
       </c>
       <c r="G855" s="95" t="s">
-        <v>1895</v>
-      </c>
+        <v>1881</v>
+      </c>
+      <c r="H855" s="8"/>
+      <c r="I855" s="8"/>
     </row>
     <row r="856" spans="1:9" s="8" customFormat="1">
       <c r="A856" s="8">
         <v>855</v>
       </c>
-      <c r="B856" s="9">
-        <v>343</v>
-      </c>
-      <c r="C856" s="49" t="s">
-        <v>1896</v>
-      </c>
-      <c r="D856" s="9">
-        <v>1</v>
-      </c>
-      <c r="E856" s="9">
+      <c r="B856" s="94">
+        <v>342</v>
+      </c>
+      <c r="C856" s="94" t="s">
+        <v>865</v>
+      </c>
+      <c r="D856" s="94">
+        <v>1</v>
+      </c>
+      <c r="E856" s="94">
         <v>3</v>
       </c>
-      <c r="F856" s="9">
-        <v>1</v>
-      </c>
-      <c r="G856" s="10" t="s">
-        <v>1897</v>
+      <c r="F856" s="94">
+        <v>4</v>
+      </c>
+      <c r="G856" s="95" t="s">
+        <v>1892</v>
       </c>
     </row>
     <row r="857" spans="1:9" s="8" customFormat="1">
@@ -48957,46 +49011,44 @@
       <c r="B857" s="9">
         <v>343</v>
       </c>
-      <c r="C857" s="10" t="s">
-        <v>1880</v>
-      </c>
-      <c r="D857" s="10" t="s">
-        <v>1882</v>
-      </c>
-      <c r="E857" s="8">
-        <v>5</v>
-      </c>
-      <c r="F857" s="8">
+      <c r="C857" s="49" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D857" s="9">
+        <v>1</v>
+      </c>
+      <c r="E857" s="9">
+        <v>3</v>
+      </c>
+      <c r="F857" s="9">
         <v>1</v>
       </c>
       <c r="G857" s="10" t="s">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="858" spans="1:9" s="94" customFormat="1">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="858" spans="1:9" s="8" customFormat="1">
       <c r="A858" s="8">
         <v>857</v>
       </c>
-      <c r="B858" s="8">
+      <c r="B858" s="9">
         <v>343</v>
       </c>
       <c r="C858" s="10" t="s">
-        <v>1887</v>
-      </c>
-      <c r="D858" s="8">
-        <v>9</v>
+        <v>1877</v>
+      </c>
+      <c r="D858" s="10" t="s">
+        <v>1879</v>
       </c>
       <c r="E858" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F858" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G858" s="10" t="s">
-        <v>1898</v>
-      </c>
-      <c r="H858" s="8"/>
-      <c r="I858" s="8"/>
+        <v>1883</v>
+      </c>
     </row>
     <row r="859" spans="1:9" s="94" customFormat="1">
       <c r="A859" s="8">
@@ -49006,19 +49058,19 @@
         <v>343</v>
       </c>
       <c r="C859" s="10" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D859" s="10" t="s">
-        <v>1906</v>
+        <v>1884</v>
+      </c>
+      <c r="D859" s="8">
+        <v>9</v>
       </c>
       <c r="E859" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F859" s="8">
         <v>2</v>
       </c>
       <c r="G859" s="10" t="s">
-        <v>1888</v>
+        <v>1895</v>
       </c>
       <c r="H859" s="8"/>
       <c r="I859" s="8"/>
@@ -49034,16 +49086,16 @@
         <v>1146</v>
       </c>
       <c r="D860" s="10" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E860" s="8">
+        <v>5</v>
+      </c>
+      <c r="F860" s="8">
+        <v>2</v>
+      </c>
+      <c r="G860" s="10" t="s">
         <v>1885</v>
-      </c>
-      <c r="E860" s="8">
-        <v>2</v>
-      </c>
-      <c r="F860" s="8">
-        <v>3</v>
-      </c>
-      <c r="G860" s="10" t="s">
-        <v>1886</v>
       </c>
       <c r="H860" s="8"/>
       <c r="I860" s="8"/>
@@ -49059,16 +49111,16 @@
         <v>1146</v>
       </c>
       <c r="D861" s="10" t="s">
-        <v>1903</v>
+        <v>1882</v>
       </c>
       <c r="E861" s="8">
         <v>2</v>
       </c>
       <c r="F861" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G861" s="10" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
       <c r="H861" s="8"/>
       <c r="I861" s="8"/>
@@ -49078,22 +49130,22 @@
         <v>861</v>
       </c>
       <c r="B862" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C862" s="10" t="s">
-        <v>852</v>
+        <v>1146</v>
       </c>
       <c r="D862" s="10" t="s">
-        <v>1931</v>
+        <v>1900</v>
       </c>
       <c r="E862" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F862" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G862" s="10" t="s">
-        <v>999</v>
+        <v>1886</v>
       </c>
       <c r="H862" s="8"/>
       <c r="I862" s="8"/>
@@ -49109,16 +49161,16 @@
         <v>852</v>
       </c>
       <c r="D863" s="10" t="s">
-        <v>1000</v>
+        <v>1928</v>
       </c>
       <c r="E863" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F863" s="8">
         <v>1</v>
       </c>
       <c r="G863" s="10" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="H863" s="8"/>
       <c r="I863" s="8"/>
@@ -49131,10 +49183,10 @@
         <v>344</v>
       </c>
       <c r="C864" s="10" t="s">
-        <v>1032</v>
+        <v>852</v>
       </c>
       <c r="D864" s="10" t="s">
-        <v>1932</v>
+        <v>1000</v>
       </c>
       <c r="E864" s="8">
         <v>2</v>
@@ -49143,7 +49195,7 @@
         <v>1</v>
       </c>
       <c r="G864" s="10" t="s">
-        <v>1079</v>
+        <v>1001</v>
       </c>
       <c r="H864" s="8"/>
       <c r="I864" s="8"/>
@@ -49156,44 +49208,44 @@
         <v>344</v>
       </c>
       <c r="C865" s="10" t="s">
-        <v>899</v>
-      </c>
-      <c r="D865" s="8">
-        <v>600</v>
+        <v>1032</v>
+      </c>
+      <c r="D865" s="10" t="s">
+        <v>1929</v>
       </c>
       <c r="E865" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F865" s="8">
         <v>1</v>
       </c>
       <c r="G865" s="10" t="s">
-        <v>1002</v>
+        <v>1079</v>
       </c>
       <c r="H865" s="8"/>
       <c r="I865" s="8"/>
     </row>
-    <row r="866" spans="1:9">
+    <row r="866" spans="1:9" s="94" customFormat="1">
       <c r="A866" s="8">
         <v>865</v>
       </c>
       <c r="B866" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C866" s="10" t="s">
-        <v>852</v>
-      </c>
-      <c r="D866" s="10" t="s">
-        <v>1931</v>
+        <v>899</v>
+      </c>
+      <c r="D866" s="8">
+        <v>600</v>
       </c>
       <c r="E866" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F866" s="8">
         <v>1</v>
       </c>
       <c r="G866" s="10" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H866" s="8"/>
       <c r="I866" s="8"/>
@@ -49209,16 +49261,16 @@
         <v>852</v>
       </c>
       <c r="D867" s="10" t="s">
-        <v>1000</v>
+        <v>1928</v>
       </c>
       <c r="E867" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F867" s="8">
         <v>1</v>
       </c>
       <c r="G867" s="10" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H867" s="8"/>
       <c r="I867" s="8"/>
@@ -49231,19 +49283,19 @@
         <v>345</v>
       </c>
       <c r="C868" s="10" t="s">
-        <v>1032</v>
+        <v>852</v>
       </c>
       <c r="D868" s="10" t="s">
-        <v>1915</v>
+        <v>1000</v>
       </c>
       <c r="E868" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F868" s="8">
         <v>1</v>
       </c>
       <c r="G868" s="10" t="s">
-        <v>1068</v>
+        <v>1004</v>
       </c>
       <c r="H868" s="8"/>
       <c r="I868" s="8"/>
@@ -49256,44 +49308,44 @@
         <v>345</v>
       </c>
       <c r="C869" s="10" t="s">
-        <v>899</v>
-      </c>
-      <c r="D869" s="8">
-        <v>600</v>
+        <v>1032</v>
+      </c>
+      <c r="D869" s="10" t="s">
+        <v>1912</v>
       </c>
       <c r="E869" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F869" s="8">
         <v>1</v>
       </c>
       <c r="G869" s="10" t="s">
-        <v>1002</v>
+        <v>1068</v>
       </c>
       <c r="H869" s="8"/>
       <c r="I869" s="8"/>
     </row>
-    <row r="870" spans="1:9" s="14" customFormat="1">
+    <row r="870" spans="1:9">
       <c r="A870" s="8">
         <v>869</v>
       </c>
       <c r="B870" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C870" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D870" s="10" t="s">
-        <v>1904</v>
+        <v>899</v>
+      </c>
+      <c r="D870" s="8">
+        <v>600</v>
       </c>
       <c r="E870" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F870" s="8">
         <v>1</v>
       </c>
       <c r="G870" s="10" t="s">
-        <v>1910</v>
+        <v>1002</v>
       </c>
       <c r="H870" s="8"/>
       <c r="I870" s="8"/>
@@ -49305,25 +49357,25 @@
       <c r="B871" s="8">
         <v>346</v>
       </c>
-      <c r="C871" s="8" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D871" s="8" t="s">
-        <v>1905</v>
+      <c r="C871" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D871" s="10" t="s">
+        <v>1901</v>
       </c>
       <c r="E871" s="8">
         <v>2</v>
       </c>
       <c r="F871" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G871" s="10" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="H871" s="8"/>
       <c r="I871" s="8"/>
     </row>
-    <row r="872" spans="1:9" s="8" customFormat="1">
+    <row r="872" spans="1:9" s="14" customFormat="1">
       <c r="A872" s="8">
         <v>871</v>
       </c>
@@ -49333,18 +49385,20 @@
       <c r="C872" s="8" t="s">
         <v>1032</v>
       </c>
-      <c r="D872" s="10" t="s">
-        <v>1907</v>
+      <c r="D872" s="8" t="s">
+        <v>1902</v>
       </c>
       <c r="E872" s="8">
         <v>2</v>
       </c>
       <c r="F872" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G872" s="10" t="s">
-        <v>1912</v>
-      </c>
+        <v>1908</v>
+      </c>
+      <c r="H872" s="8"/>
+      <c r="I872" s="8"/>
     </row>
     <row r="873" spans="1:9" s="8" customFormat="1">
       <c r="A873" s="8">
@@ -49357,16 +49411,16 @@
         <v>1032</v>
       </c>
       <c r="D873" s="10" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="E873" s="8">
         <v>2</v>
       </c>
       <c r="F873" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G873" s="10" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="874" spans="1:9" s="8" customFormat="1">
@@ -49374,22 +49428,22 @@
         <v>873</v>
       </c>
       <c r="B874" s="8">
-        <v>347</v>
-      </c>
-      <c r="C874" s="10" t="s">
-        <v>1146</v>
+        <v>346</v>
+      </c>
+      <c r="C874" s="8" t="s">
+        <v>1032</v>
       </c>
       <c r="D874" s="10" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="E874" s="8">
         <v>2</v>
       </c>
       <c r="F874" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G874" s="10" t="s">
-        <v>1888</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="875" spans="1:9" s="8" customFormat="1">
@@ -49397,22 +49451,22 @@
         <v>874</v>
       </c>
       <c r="B875" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C875" s="10" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="D875" s="10" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="E875" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F875" s="8">
         <v>1</v>
       </c>
       <c r="G875" s="10" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="876" spans="1:9" s="8" customFormat="1">
@@ -49420,22 +49474,22 @@
         <v>875</v>
       </c>
       <c r="B876" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C876" s="10" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="D876" s="10" t="s">
-        <v>1600</v>
+        <v>1903</v>
       </c>
       <c r="E876" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F876" s="8">
         <v>1</v>
       </c>
       <c r="G876" s="10" t="s">
-        <v>1923</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="877" spans="1:9" s="8" customFormat="1">
@@ -49443,13 +49497,13 @@
         <v>876</v>
       </c>
       <c r="B877" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C877" s="10" t="s">
         <v>1146</v>
       </c>
       <c r="D877" s="10" t="s">
-        <v>1818</v>
+        <v>1599</v>
       </c>
       <c r="E877" s="8">
         <v>2</v>
@@ -49458,7 +49512,7 @@
         <v>1</v>
       </c>
       <c r="G877" s="10" t="s">
-        <v>1511</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="878" spans="1:9" s="8" customFormat="1">
@@ -49466,22 +49520,22 @@
         <v>877</v>
       </c>
       <c r="B878" s="8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C878" s="10" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="D878" s="10" t="s">
-        <v>1900</v>
+        <v>1815</v>
       </c>
       <c r="E878" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F878" s="8">
         <v>1</v>
       </c>
       <c r="G878" s="10" t="s">
-        <v>1910</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="879" spans="1:9" s="8" customFormat="1">
@@ -49489,25 +49543,25 @@
         <v>878</v>
       </c>
       <c r="B879" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C879" s="10" t="s">
         <v>1142</v>
       </c>
       <c r="D879" s="10" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
       <c r="E879" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F879" s="8">
         <v>1</v>
       </c>
       <c r="G879" s="10" t="s">
-        <v>1910</v>
-      </c>
-    </row>
-    <row r="880" spans="1:9">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="880" spans="1:9" s="8" customFormat="1">
       <c r="A880" s="8">
         <v>879</v>
       </c>
@@ -49515,22 +49569,20 @@
         <v>352</v>
       </c>
       <c r="C880" s="10" t="s">
-        <v>1938</v>
+        <v>1142</v>
       </c>
       <c r="D880" s="10" t="s">
-        <v>1600</v>
+        <v>1897</v>
       </c>
       <c r="E880" s="8">
         <v>2</v>
       </c>
       <c r="F880" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G880" s="10" t="s">
-        <v>1939</v>
-      </c>
-      <c r="H880" s="8"/>
-      <c r="I880" s="8"/>
+        <v>1907</v>
+      </c>
     </row>
     <row r="881" spans="1:9">
       <c r="A881" s="8">
@@ -49540,19 +49592,19 @@
         <v>352</v>
       </c>
       <c r="C881" s="10" t="s">
-        <v>1142</v>
+        <v>1935</v>
       </c>
       <c r="D881" s="10" t="s">
-        <v>1818</v>
+        <v>1599</v>
       </c>
       <c r="E881" s="8">
         <v>2</v>
       </c>
       <c r="F881" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G881" s="10" t="s">
-        <v>1940</v>
+        <v>1936</v>
       </c>
       <c r="H881" s="8"/>
       <c r="I881" s="8"/>
@@ -49562,22 +49614,22 @@
         <v>881</v>
       </c>
       <c r="B882" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C882" s="10" t="s">
-        <v>1947</v>
+        <v>1142</v>
       </c>
       <c r="D882" s="10" t="s">
-        <v>1948</v>
+        <v>1815</v>
       </c>
       <c r="E882" s="8">
         <v>2</v>
       </c>
       <c r="F882" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G882" s="10" t="s">
-        <v>1949</v>
+        <v>1937</v>
       </c>
       <c r="H882" s="8"/>
       <c r="I882" s="8"/>
@@ -49587,22 +49639,22 @@
         <v>882</v>
       </c>
       <c r="B883" s="8">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C883" s="10" t="s">
-        <v>1142</v>
+        <v>1944</v>
       </c>
       <c r="D883" s="10" t="s">
-        <v>1818</v>
+        <v>1945</v>
       </c>
       <c r="E883" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F883" s="8">
         <v>1</v>
       </c>
       <c r="G883" s="10" t="s">
-        <v>1940</v>
+        <v>1946</v>
       </c>
       <c r="H883" s="8"/>
       <c r="I883" s="8"/>
@@ -49615,10 +49667,10 @@
         <v>354</v>
       </c>
       <c r="C884" s="10" t="s">
-        <v>1032</v>
+        <v>1142</v>
       </c>
       <c r="D884" s="10" t="s">
-        <v>1915</v>
+        <v>1815</v>
       </c>
       <c r="E884" s="8">
         <v>5</v>
@@ -49627,7 +49679,7 @@
         <v>1</v>
       </c>
       <c r="G884" s="10" t="s">
-        <v>1068</v>
+        <v>1937</v>
       </c>
       <c r="H884" s="8"/>
       <c r="I884" s="8"/>
@@ -49637,22 +49689,22 @@
         <v>884</v>
       </c>
       <c r="B885" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C885" s="10" t="s">
-        <v>899</v>
-      </c>
-      <c r="D885" s="8">
-        <v>100</v>
+        <v>1032</v>
+      </c>
+      <c r="D885" s="10" t="s">
+        <v>1912</v>
       </c>
       <c r="E885" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F885" s="8">
         <v>1</v>
       </c>
       <c r="G885" s="10" t="s">
-        <v>1954</v>
+        <v>1068</v>
       </c>
       <c r="H885" s="8"/>
       <c r="I885" s="8"/>
@@ -49665,19 +49717,19 @@
         <v>355</v>
       </c>
       <c r="C886" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D886" s="10" t="s">
-        <v>1821</v>
+        <v>899</v>
+      </c>
+      <c r="D886" s="8">
+        <v>100</v>
       </c>
       <c r="E886" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F886" s="8">
         <v>1</v>
       </c>
       <c r="G886" s="10" t="s">
-        <v>1511</v>
+        <v>1951</v>
       </c>
       <c r="H886" s="8"/>
       <c r="I886" s="8"/>
@@ -49690,19 +49742,19 @@
         <v>355</v>
       </c>
       <c r="C887" s="10" t="s">
-        <v>899</v>
-      </c>
-      <c r="D887" s="8">
-        <v>100</v>
+        <v>1142</v>
+      </c>
+      <c r="D887" s="10" t="s">
+        <v>1818</v>
       </c>
       <c r="E887" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F887" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G887" s="10" t="s">
-        <v>1954</v>
+        <v>1511</v>
       </c>
       <c r="H887" s="8"/>
       <c r="I887" s="8"/>
@@ -49715,19 +49767,19 @@
         <v>355</v>
       </c>
       <c r="C888" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D888" s="10" t="s">
-        <v>1915</v>
+        <v>899</v>
+      </c>
+      <c r="D888" s="8">
+        <v>100</v>
       </c>
       <c r="E888" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F888" s="8">
         <v>2</v>
       </c>
       <c r="G888" s="10" t="s">
-        <v>1511</v>
+        <v>1951</v>
       </c>
       <c r="H888" s="8"/>
       <c r="I888" s="8"/>
@@ -49737,22 +49789,22 @@
         <v>888</v>
       </c>
       <c r="B889" s="8">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C889" s="10" t="s">
         <v>1142</v>
       </c>
       <c r="D889" s="10" t="s">
-        <v>1959</v>
+        <v>1912</v>
       </c>
       <c r="E889" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F889" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G889" s="10" t="s">
-        <v>1960</v>
+        <v>1511</v>
       </c>
       <c r="H889" s="8"/>
       <c r="I889" s="8"/>
@@ -49765,19 +49817,19 @@
         <v>356</v>
       </c>
       <c r="C890" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D890" s="10">
-        <v>2</v>
+        <v>1142</v>
+      </c>
+      <c r="D890" s="10" t="s">
+        <v>1956</v>
       </c>
       <c r="E890" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F890" s="8">
         <v>1</v>
       </c>
       <c r="G890" s="10" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
       <c r="H890" s="8"/>
       <c r="I890" s="8"/>
@@ -49787,22 +49839,22 @@
         <v>890</v>
       </c>
       <c r="B891" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C891" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D891" s="10" t="s">
-        <v>1959</v>
+        <v>1117</v>
+      </c>
+      <c r="D891" s="10">
+        <v>2</v>
       </c>
       <c r="E891" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F891" s="8">
         <v>1</v>
       </c>
       <c r="G891" s="10" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="H891" s="8"/>
       <c r="I891" s="8"/>
@@ -49815,24 +49867,24 @@
         <v>357</v>
       </c>
       <c r="C892" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D892" s="10">
-        <v>3</v>
+        <v>1142</v>
+      </c>
+      <c r="D892" s="10" t="s">
+        <v>1956</v>
       </c>
       <c r="E892" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F892" s="8">
         <v>1</v>
       </c>
       <c r="G892" s="10" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
       <c r="H892" s="8"/>
       <c r="I892" s="8"/>
     </row>
-    <row r="893" spans="1:9" s="8" customFormat="1">
+    <row r="893" spans="1:9">
       <c r="A893" s="8">
         <v>892</v>
       </c>
@@ -49843,42 +49895,42 @@
         <v>1117</v>
       </c>
       <c r="D893" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E893" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F893" s="8">
         <v>1</v>
       </c>
       <c r="G893" s="10" t="s">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="894" spans="1:9">
+        <v>1958</v>
+      </c>
+      <c r="H893" s="8"/>
+      <c r="I893" s="8"/>
+    </row>
+    <row r="894" spans="1:9" s="8" customFormat="1">
       <c r="A894" s="8">
         <v>893</v>
       </c>
       <c r="B894" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C894" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D894" s="10" t="s">
-        <v>1959</v>
+        <v>1117</v>
+      </c>
+      <c r="D894" s="10">
+        <v>5</v>
       </c>
       <c r="E894" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F894" s="8">
         <v>1</v>
       </c>
       <c r="G894" s="10" t="s">
-        <v>1960</v>
-      </c>
-      <c r="H894" s="8"/>
-      <c r="I894" s="8"/>
+        <v>1958</v>
+      </c>
     </row>
     <row r="895" spans="1:9">
       <c r="A895" s="8">
@@ -49888,19 +49940,19 @@
         <v>358</v>
       </c>
       <c r="C895" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D895" s="10">
-        <v>6</v>
+        <v>1142</v>
+      </c>
+      <c r="D895" s="10" t="s">
+        <v>1956</v>
       </c>
       <c r="E895" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F895" s="8">
         <v>1</v>
       </c>
       <c r="G895" s="10" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
       <c r="H895" s="8"/>
       <c r="I895" s="8"/>
@@ -49916,16 +49968,16 @@
         <v>1117</v>
       </c>
       <c r="D896" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E896" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F896" s="8">
         <v>1</v>
       </c>
       <c r="G896" s="10" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="H896" s="8"/>
       <c r="I896" s="8"/>
@@ -49935,22 +49987,22 @@
         <v>896</v>
       </c>
       <c r="B897" s="8">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C897" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D897" s="10" t="s">
-        <v>1959</v>
+        <v>1117</v>
+      </c>
+      <c r="D897" s="10">
+        <v>7</v>
       </c>
       <c r="E897" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F897" s="8">
         <v>1</v>
       </c>
       <c r="G897" s="10" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="H897" s="8"/>
       <c r="I897" s="8"/>
@@ -49963,19 +50015,19 @@
         <v>359</v>
       </c>
       <c r="C898" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D898" s="10">
-        <v>8</v>
+        <v>1142</v>
+      </c>
+      <c r="D898" s="10" t="s">
+        <v>1956</v>
       </c>
       <c r="E898" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F898" s="8">
         <v>1</v>
       </c>
       <c r="G898" s="10" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
       <c r="H898" s="8"/>
       <c r="I898" s="8"/>
@@ -49985,22 +50037,22 @@
         <v>898</v>
       </c>
       <c r="B899" s="8">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C899" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D899" s="10" t="s">
-        <v>1959</v>
+        <v>1117</v>
+      </c>
+      <c r="D899" s="10">
+        <v>8</v>
       </c>
       <c r="E899" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F899" s="8">
         <v>1</v>
       </c>
       <c r="G899" s="10" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="H899" s="8"/>
       <c r="I899" s="8"/>
@@ -50013,10 +50065,10 @@
         <v>360</v>
       </c>
       <c r="C900" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D900" s="10">
-        <v>2</v>
+        <v>1142</v>
+      </c>
+      <c r="D900" s="10" t="s">
+        <v>1956</v>
       </c>
       <c r="E900" s="8">
         <v>2</v>
@@ -50025,23 +50077,23 @@
         <v>1</v>
       </c>
       <c r="G900" s="10" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
       <c r="H900" s="8"/>
       <c r="I900" s="8"/>
     </row>
-    <row r="901" spans="1:9" s="8" customFormat="1">
+    <row r="901" spans="1:9">
       <c r="A901" s="8">
         <v>900</v>
       </c>
       <c r="B901" s="8">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C901" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D901" s="10" t="s">
-        <v>1959</v>
+        <v>1117</v>
+      </c>
+      <c r="D901" s="10">
+        <v>2</v>
       </c>
       <c r="E901" s="8">
         <v>2</v>
@@ -50050,8 +50102,10 @@
         <v>1</v>
       </c>
       <c r="G901" s="10" t="s">
-        <v>1960</v>
-      </c>
+        <v>1958</v>
+      </c>
+      <c r="H901" s="8"/>
+      <c r="I901" s="8"/>
     </row>
     <row r="902" spans="1:9" s="8" customFormat="1">
       <c r="A902" s="8">
@@ -50061,19 +50115,19 @@
         <v>361</v>
       </c>
       <c r="C902" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D902" s="10">
-        <v>3</v>
+        <v>1142</v>
+      </c>
+      <c r="D902" s="10" t="s">
+        <v>1956</v>
       </c>
       <c r="E902" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F902" s="8">
         <v>1</v>
       </c>
       <c r="G902" s="10" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="903" spans="1:9" s="8" customFormat="1">
@@ -50087,16 +50141,16 @@
         <v>1117</v>
       </c>
       <c r="D903" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E903" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F903" s="8">
         <v>1</v>
       </c>
       <c r="G903" s="10" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="904" spans="1:9" s="8" customFormat="1">
@@ -50104,22 +50158,22 @@
         <v>903</v>
       </c>
       <c r="B904" s="8">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C904" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D904" s="10" t="s">
-        <v>1959</v>
+        <v>1117</v>
+      </c>
+      <c r="D904" s="10">
+        <v>5</v>
       </c>
       <c r="E904" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F904" s="8">
         <v>1</v>
       </c>
       <c r="G904" s="10" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="905" spans="1:9" s="8" customFormat="1">
@@ -50130,19 +50184,19 @@
         <v>362</v>
       </c>
       <c r="C905" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D905" s="10">
-        <v>6</v>
+        <v>1142</v>
+      </c>
+      <c r="D905" s="10" t="s">
+        <v>1956</v>
       </c>
       <c r="E905" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F905" s="8">
         <v>1</v>
       </c>
       <c r="G905" s="10" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="906" spans="1:9" s="8" customFormat="1">
@@ -50156,16 +50210,16 @@
         <v>1117</v>
       </c>
       <c r="D906" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E906" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F906" s="8">
         <v>1</v>
       </c>
       <c r="G906" s="10" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="907" spans="1:9" s="8" customFormat="1">
@@ -50173,22 +50227,22 @@
         <v>906</v>
       </c>
       <c r="B907" s="8">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C907" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D907" s="10" t="s">
-        <v>1959</v>
+        <v>1117</v>
+      </c>
+      <c r="D907" s="10">
+        <v>7</v>
       </c>
       <c r="E907" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F907" s="8">
         <v>1</v>
       </c>
       <c r="G907" s="10" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="908" spans="1:9" s="8" customFormat="1">
@@ -50199,19 +50253,19 @@
         <v>363</v>
       </c>
       <c r="C908" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D908" s="10">
-        <v>8</v>
+        <v>1142</v>
+      </c>
+      <c r="D908" s="10" t="s">
+        <v>1956</v>
       </c>
       <c r="E908" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F908" s="8">
         <v>1</v>
       </c>
       <c r="G908" s="10" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="909" spans="1:9" s="8" customFormat="1">
@@ -50219,22 +50273,22 @@
         <v>908</v>
       </c>
       <c r="B909" s="8">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C909" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D909" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D909" s="10">
+        <v>8</v>
+      </c>
+      <c r="E909" s="8">
+        <v>3</v>
+      </c>
+      <c r="F909" s="8">
+        <v>1</v>
+      </c>
+      <c r="G909" s="10" t="s">
         <v>1958</v>
-      </c>
-      <c r="E909" s="8">
-        <v>2</v>
-      </c>
-      <c r="F909" s="8">
-        <v>1</v>
-      </c>
-      <c r="G909" s="10" t="s">
-        <v>2061</v>
       </c>
     </row>
     <row r="910" spans="1:9" s="8" customFormat="1">
@@ -50245,19 +50299,19 @@
         <v>364</v>
       </c>
       <c r="C910" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D910" s="10">
-        <v>2</v>
+        <v>1142</v>
+      </c>
+      <c r="D910" s="10" t="s">
+        <v>1955</v>
       </c>
       <c r="E910" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F910" s="8">
         <v>1</v>
       </c>
       <c r="G910" s="10" t="s">
-        <v>1961</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="911" spans="1:9" s="8" customFormat="1">
@@ -50268,19 +50322,19 @@
         <v>364</v>
       </c>
       <c r="C911" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D911" s="10" t="s">
-        <v>1972</v>
+        <v>1117</v>
+      </c>
+      <c r="D911" s="10">
+        <v>2</v>
       </c>
       <c r="E911" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F911" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G911" s="10" t="s">
-        <v>2004</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="912" spans="1:9" s="8" customFormat="1">
@@ -50291,19 +50345,19 @@
         <v>364</v>
       </c>
       <c r="C912" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D912" s="10">
-        <v>2</v>
+        <v>1142</v>
+      </c>
+      <c r="D912" s="10" t="s">
+        <v>1969</v>
       </c>
       <c r="E912" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F912" s="8">
         <v>2</v>
       </c>
       <c r="G912" s="10" t="s">
-        <v>1961</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="913" spans="1:7" s="8" customFormat="1">
@@ -50311,22 +50365,22 @@
         <v>912</v>
       </c>
       <c r="B913" s="8">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C913" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D913" s="10">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E913" s="8">
         <v>3</v>
       </c>
       <c r="F913" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G913" s="10" t="s">
-        <v>1977</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="914" spans="1:7" s="8" customFormat="1">
@@ -50334,13 +50388,13 @@
         <v>913</v>
       </c>
       <c r="B914" s="8">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C914" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D914" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E914" s="8">
         <v>3</v>
@@ -50349,7 +50403,7 @@
         <v>1</v>
       </c>
       <c r="G914" s="10" t="s">
-        <v>1978</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="915" spans="1:7" s="8" customFormat="1">
@@ -50357,22 +50411,22 @@
         <v>914</v>
       </c>
       <c r="B915" s="8">
-        <v>367</v>
-      </c>
-      <c r="C915" s="8" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D915" s="8" t="s">
-        <v>1657</v>
+        <v>366</v>
+      </c>
+      <c r="C915" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D915" s="10">
+        <v>12</v>
       </c>
       <c r="E915" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F915" s="8">
         <v>1</v>
       </c>
-      <c r="G915" s="8" t="s">
-        <v>1983</v>
+      <c r="G915" s="10" t="s">
+        <v>1975</v>
       </c>
     </row>
     <row r="916" spans="1:7" s="8" customFormat="1">
@@ -50380,22 +50434,22 @@
         <v>915</v>
       </c>
       <c r="B916" s="8">
-        <v>368</v>
-      </c>
-      <c r="C916" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D916" s="10" t="s">
-        <v>1900</v>
+        <v>367</v>
+      </c>
+      <c r="C916" s="8" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D916" s="8" t="s">
+        <v>1656</v>
       </c>
       <c r="E916" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F916" s="8">
         <v>1</v>
       </c>
-      <c r="G916" s="10" t="s">
-        <v>2005</v>
+      <c r="G916" s="8" t="s">
+        <v>1980</v>
       </c>
     </row>
     <row r="917" spans="1:7" s="8" customFormat="1">
@@ -50406,19 +50460,19 @@
         <v>368</v>
       </c>
       <c r="C917" s="10" t="s">
-        <v>1987</v>
+        <v>1142</v>
       </c>
       <c r="D917" s="10" t="s">
-        <v>1988</v>
+        <v>1897</v>
       </c>
       <c r="E917" s="8">
         <v>2</v>
       </c>
       <c r="F917" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G917" s="10" t="s">
-        <v>1989</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="918" spans="1:7" s="8" customFormat="1">
@@ -50426,22 +50480,22 @@
         <v>917</v>
       </c>
       <c r="B918" s="8">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C918" s="10" t="s">
-        <v>1142</v>
+        <v>1984</v>
       </c>
       <c r="D918" s="10" t="s">
-        <v>1971</v>
+        <v>1985</v>
       </c>
       <c r="E918" s="8">
         <v>2</v>
       </c>
       <c r="F918" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G918" s="10" t="s">
-        <v>2004</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="919" spans="1:7" s="8" customFormat="1">
@@ -50455,16 +50509,16 @@
         <v>1142</v>
       </c>
       <c r="D919" s="10" t="s">
-        <v>1997</v>
+        <v>1968</v>
       </c>
       <c r="E919" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F919" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G919" s="10" t="s">
-        <v>1986</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="920" spans="1:7" s="8" customFormat="1">
@@ -50472,22 +50526,22 @@
         <v>919</v>
       </c>
       <c r="B920" s="8">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C920" s="10" t="s">
         <v>1142</v>
       </c>
       <c r="D920" s="10" t="s">
-        <v>1958</v>
+        <v>1993</v>
       </c>
       <c r="E920" s="8">
         <v>5</v>
       </c>
       <c r="F920" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G920" s="10" t="s">
-        <v>1780</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="921" spans="1:7" s="8" customFormat="1">
@@ -50495,45 +50549,45 @@
         <v>920</v>
       </c>
       <c r="B921" s="8">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C921" s="10" t="s">
         <v>1142</v>
       </c>
       <c r="D921" s="10" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="E921" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F921" s="8">
         <v>1</v>
       </c>
       <c r="G921" s="10" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="922" spans="1:7" s="20" customFormat="1">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="922" spans="1:7" s="8" customFormat="1">
       <c r="A922" s="8">
         <v>921</v>
       </c>
-      <c r="B922" s="20">
-        <v>372</v>
-      </c>
-      <c r="C922" s="21" t="s">
+      <c r="B922" s="8">
+        <v>371</v>
+      </c>
+      <c r="C922" s="10" t="s">
         <v>1142</v>
       </c>
-      <c r="D922" s="21" t="s">
-        <v>1958</v>
-      </c>
-      <c r="E922" s="20">
-        <v>5</v>
-      </c>
-      <c r="F922" s="20">
-        <v>1</v>
-      </c>
-      <c r="G922" s="21" t="s">
-        <v>1780</v>
+      <c r="D922" s="10" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E922" s="8">
+        <v>2</v>
+      </c>
+      <c r="F922" s="8">
+        <v>1</v>
+      </c>
+      <c r="G922" s="10" t="s">
+        <v>1716</v>
       </c>
     </row>
     <row r="923" spans="1:7" s="20" customFormat="1">
@@ -50541,45 +50595,45 @@
         <v>922</v>
       </c>
       <c r="B923" s="20">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C923" s="21" t="s">
         <v>1142</v>
       </c>
       <c r="D923" s="21" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="E923" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F923" s="20">
         <v>1</v>
       </c>
       <c r="G923" s="21" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="924" spans="1:7" s="8" customFormat="1">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="924" spans="1:7" s="20" customFormat="1">
       <c r="A924" s="8">
         <v>923</v>
       </c>
-      <c r="B924" s="8">
-        <v>374</v>
-      </c>
-      <c r="C924" s="10" t="s">
-        <v>2011</v>
-      </c>
-      <c r="D924" s="10" t="s">
-        <v>1903</v>
-      </c>
-      <c r="E924" s="8">
-        <v>5</v>
-      </c>
-      <c r="F924" s="8">
-        <v>1</v>
-      </c>
-      <c r="G924" s="10" t="s">
-        <v>1960</v>
+      <c r="B924" s="20">
+        <v>373</v>
+      </c>
+      <c r="C924" s="21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D924" s="21" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E924" s="20">
+        <v>2</v>
+      </c>
+      <c r="F924" s="20">
+        <v>1</v>
+      </c>
+      <c r="G924" s="21" t="s">
+        <v>1716</v>
       </c>
     </row>
     <row r="925" spans="1:7" s="8" customFormat="1">
@@ -50587,22 +50641,22 @@
         <v>924</v>
       </c>
       <c r="B925" s="8">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C925" s="10" t="s">
-        <v>1987</v>
+        <v>2007</v>
       </c>
       <c r="D925" s="10" t="s">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="E925" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F925" s="8">
         <v>1</v>
       </c>
       <c r="G925" s="10" t="s">
-        <v>2021</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="926" spans="1:7" s="8" customFormat="1">
@@ -50613,19 +50667,19 @@
         <v>375</v>
       </c>
       <c r="C926" s="10" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="D926" s="10" t="s">
-        <v>2020</v>
+        <v>1599</v>
       </c>
       <c r="E926" s="8">
         <v>2</v>
       </c>
       <c r="F926" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G926" s="10" t="s">
-        <v>2022</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="927" spans="1:7" s="8" customFormat="1">
@@ -50633,22 +50687,22 @@
         <v>926</v>
       </c>
       <c r="B927" s="8">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C927" s="10" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="D927" s="10" t="s">
-        <v>1820</v>
+        <v>2016</v>
       </c>
       <c r="E927" s="8">
         <v>2</v>
       </c>
       <c r="F927" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G927" s="10" t="s">
-        <v>2029</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="928" spans="1:7" s="8" customFormat="1">
@@ -50656,13 +50710,13 @@
         <v>927</v>
       </c>
       <c r="B928" s="8">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C928" s="10" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="D928" s="10" t="s">
-        <v>1900</v>
+        <v>1817</v>
       </c>
       <c r="E928" s="8">
         <v>2</v>
@@ -50671,7 +50725,7 @@
         <v>1</v>
       </c>
       <c r="G928" s="10" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="929" spans="1:8" s="8" customFormat="1">
@@ -50679,13 +50733,13 @@
         <v>928</v>
       </c>
       <c r="B929" s="8">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C929" s="10" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="D929" s="10" t="s">
-        <v>1924</v>
+        <v>1897</v>
       </c>
       <c r="E929" s="8">
         <v>2</v>
@@ -50694,7 +50748,7 @@
         <v>1</v>
       </c>
       <c r="G929" s="10" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="930" spans="1:8" s="8" customFormat="1">
@@ -50702,13 +50756,13 @@
         <v>929</v>
       </c>
       <c r="B930" s="8">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C930" s="10" t="s">
-        <v>1143</v>
+        <v>1984</v>
       </c>
       <c r="D930" s="10" t="s">
-        <v>1958</v>
+        <v>1921</v>
       </c>
       <c r="E930" s="8">
         <v>2</v>
@@ -50717,7 +50771,7 @@
         <v>1</v>
       </c>
       <c r="G930" s="10" t="s">
-        <v>2005</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="931" spans="1:8" s="8" customFormat="1">
@@ -50728,10 +50782,10 @@
         <v>379</v>
       </c>
       <c r="C931" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D931" s="10">
-        <v>0</v>
+        <v>1143</v>
+      </c>
+      <c r="D931" s="10" t="s">
+        <v>1955</v>
       </c>
       <c r="E931" s="8">
         <v>2</v>
@@ -50740,34 +50794,33 @@
         <v>1</v>
       </c>
       <c r="G931" s="10" t="s">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="932" spans="1:8">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="932" spans="1:8" s="8" customFormat="1">
       <c r="A932" s="8">
         <v>931</v>
       </c>
       <c r="B932" s="8">
-        <v>380</v>
-      </c>
-      <c r="C932" s="8" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D932" s="8" t="s">
-        <v>1657</v>
+        <v>379</v>
+      </c>
+      <c r="C932" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D932" s="10">
+        <v>0</v>
       </c>
       <c r="E932" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F932" s="8">
         <v>1</v>
       </c>
-      <c r="G932" s="8" t="s">
-        <v>1983</v>
-      </c>
-      <c r="H932" s="8"/>
-    </row>
-    <row r="933" spans="1:8" ht="16.5">
+      <c r="G932" s="10" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="933" spans="1:8">
       <c r="A933" s="8">
         <v>932</v>
       </c>
@@ -50775,23 +50828,23 @@
         <v>380</v>
       </c>
       <c r="C933" s="8" t="s">
-        <v>2032</v>
-      </c>
-      <c r="D933" s="104" t="s">
-        <v>2033</v>
+        <v>1032</v>
+      </c>
+      <c r="D933" s="8" t="s">
+        <v>1656</v>
       </c>
       <c r="E933" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F933" s="8">
         <v>1</v>
       </c>
       <c r="G933" s="8" t="s">
-        <v>2034</v>
+        <v>1980</v>
       </c>
       <c r="H933" s="8"/>
     </row>
-    <row r="934" spans="1:8">
+    <row r="934" spans="1:8" ht="16.5">
       <c r="A934" s="8">
         <v>933</v>
       </c>
@@ -50799,19 +50852,19 @@
         <v>380</v>
       </c>
       <c r="C934" s="8" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D934" s="8" t="s">
-        <v>1905</v>
+        <v>2028</v>
+      </c>
+      <c r="D934" s="104" t="s">
+        <v>2029</v>
       </c>
       <c r="E934" s="8">
         <v>2</v>
       </c>
       <c r="F934" s="8">
-        <v>2</v>
-      </c>
-      <c r="G934" s="10" t="s">
-        <v>2035</v>
+        <v>1</v>
+      </c>
+      <c r="G934" s="8" t="s">
+        <v>2030</v>
       </c>
       <c r="H934" s="8"/>
     </row>
@@ -50823,10 +50876,10 @@
         <v>380</v>
       </c>
       <c r="C935" s="8" t="s">
-        <v>2036</v>
-      </c>
-      <c r="D935" s="10" t="s">
-        <v>2037</v>
+        <v>1032</v>
+      </c>
+      <c r="D935" s="8" t="s">
+        <v>1902</v>
       </c>
       <c r="E935" s="8">
         <v>2</v>
@@ -50834,46 +50887,47 @@
       <c r="F935" s="8">
         <v>2</v>
       </c>
-      <c r="G935" s="8" t="s">
-        <v>2038</v>
+      <c r="G935" s="10" t="s">
+        <v>2031</v>
       </c>
       <c r="H935" s="8"/>
     </row>
-    <row r="936" spans="1:8" s="8" customFormat="1">
+    <row r="936" spans="1:8">
       <c r="A936" s="8">
         <v>935</v>
       </c>
       <c r="B936" s="8">
-        <v>381</v>
-      </c>
-      <c r="C936" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D936" s="10">
-        <v>0</v>
+        <v>380</v>
+      </c>
+      <c r="C936" s="8" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D936" s="10" t="s">
+        <v>2033</v>
       </c>
       <c r="E936" s="8">
         <v>2</v>
       </c>
       <c r="F936" s="8">
-        <v>1</v>
-      </c>
-      <c r="G936" s="10" t="s">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="937" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="G936" s="8" t="s">
+        <v>2034</v>
+      </c>
+      <c r="H936" s="8"/>
+    </row>
+    <row r="937" spans="1:8" s="8" customFormat="1">
       <c r="A937" s="8">
         <v>936</v>
       </c>
       <c r="B937" s="8">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C937" s="10" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D937" s="10" t="s">
-        <v>1212</v>
+        <v>1117</v>
+      </c>
+      <c r="D937" s="10">
+        <v>0</v>
       </c>
       <c r="E937" s="8">
         <v>2</v>
@@ -50882,9 +50936,8 @@
         <v>1</v>
       </c>
       <c r="G937" s="10" t="s">
-        <v>1176</v>
-      </c>
-      <c r="H937" s="8"/>
+        <v>2026</v>
+      </c>
     </row>
     <row r="938" spans="1:8">
       <c r="A938" s="8">
@@ -50894,19 +50947,19 @@
         <v>382</v>
       </c>
       <c r="C938" s="10" t="s">
-        <v>852</v>
+        <v>1052</v>
       </c>
       <c r="D938" s="10" t="s">
-        <v>857</v>
+        <v>1212</v>
       </c>
       <c r="E938" s="8">
         <v>2</v>
       </c>
       <c r="F938" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G938" s="10" t="s">
-        <v>2047</v>
+        <v>1176</v>
       </c>
       <c r="H938" s="8"/>
     </row>
@@ -50921,16 +50974,16 @@
         <v>852</v>
       </c>
       <c r="D939" s="10" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E939" s="8">
         <v>2</v>
       </c>
       <c r="F939" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G939" s="10" t="s">
-        <v>2048</v>
+        <v>2043</v>
       </c>
       <c r="H939" s="8"/>
     </row>
@@ -50939,22 +50992,22 @@
         <v>939</v>
       </c>
       <c r="B940" s="8">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C940" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D940" s="8">
-        <v>1</v>
+        <v>852</v>
+      </c>
+      <c r="D940" s="10" t="s">
+        <v>861</v>
       </c>
       <c r="E940" s="8">
+        <v>2</v>
+      </c>
+      <c r="F940" s="8">
         <v>3</v>
       </c>
-      <c r="F940" s="8">
-        <v>1</v>
-      </c>
       <c r="G940" s="10" t="s">
-        <v>2049</v>
+        <v>2044</v>
       </c>
       <c r="H940" s="8"/>
     </row>
@@ -50969,16 +51022,16 @@
         <v>1117</v>
       </c>
       <c r="D941" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E941" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F941" s="8">
         <v>1</v>
       </c>
       <c r="G941" s="10" t="s">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="H941" s="8"/>
     </row>
@@ -50989,20 +51042,20 @@
       <c r="B942" s="8">
         <v>383</v>
       </c>
-      <c r="C942" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D942" s="8" t="s">
-        <v>853</v>
+      <c r="C942" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D942" s="8">
+        <v>7</v>
       </c>
       <c r="E942" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F942" s="8">
         <v>1</v>
       </c>
       <c r="G942" s="10" t="s">
-        <v>2051</v>
+        <v>2046</v>
       </c>
       <c r="H942" s="8"/>
     </row>
@@ -51011,22 +51064,22 @@
         <v>942</v>
       </c>
       <c r="B943" s="8">
-        <v>384</v>
-      </c>
-      <c r="C943" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D943" s="8">
-        <v>8</v>
+        <v>383</v>
+      </c>
+      <c r="C943" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D943" s="8" t="s">
+        <v>853</v>
       </c>
       <c r="E943" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F943" s="8">
         <v>1</v>
       </c>
       <c r="G943" s="10" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="H943" s="8"/>
     </row>
@@ -51041,16 +51094,16 @@
         <v>1117</v>
       </c>
       <c r="D944" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E944" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F944" s="8">
         <v>1</v>
       </c>
       <c r="G944" s="10" t="s">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="H944" s="8"/>
     </row>
@@ -51061,113 +51114,114 @@
       <c r="B945" s="8">
         <v>384</v>
       </c>
-      <c r="C945" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D945" s="8" t="s">
-        <v>853</v>
+      <c r="C945" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D945" s="8">
+        <v>12</v>
       </c>
       <c r="E945" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F945" s="8">
         <v>1</v>
       </c>
       <c r="G945" s="10" t="s">
-        <v>2051</v>
+        <v>2046</v>
       </c>
       <c r="H945" s="8"/>
     </row>
-    <row r="946" spans="1:8" s="8" customFormat="1">
+    <row r="946" spans="1:8">
       <c r="A946" s="8">
         <v>945</v>
       </c>
       <c r="B946" s="8">
-        <v>385</v>
-      </c>
-      <c r="C946" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D946" s="10">
-        <v>0</v>
+        <v>384</v>
+      </c>
+      <c r="C946" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D946" s="8" t="s">
+        <v>853</v>
       </c>
       <c r="E946" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F946" s="8">
         <v>1</v>
       </c>
       <c r="G946" s="10" t="s">
-        <v>2056</v>
-      </c>
+        <v>2047</v>
+      </c>
+      <c r="H946" s="8"/>
     </row>
     <row r="947" spans="1:8" s="8" customFormat="1">
       <c r="A947" s="8">
         <v>946</v>
       </c>
       <c r="B947" s="8">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C947" s="10" t="s">
-        <v>2057</v>
+        <v>1117</v>
       </c>
       <c r="D947" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E947" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F947" s="8">
         <v>1</v>
       </c>
       <c r="G947" s="10" t="s">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="948" spans="1:8">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="948" spans="1:8" s="8" customFormat="1">
       <c r="A948" s="8">
         <v>947</v>
       </c>
-      <c r="B948" s="9">
-        <v>387</v>
-      </c>
-      <c r="C948" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D948" s="8" t="s">
-        <v>853</v>
-      </c>
-      <c r="E948" s="9">
-        <v>5</v>
-      </c>
-      <c r="F948" s="9">
-        <v>1</v>
-      </c>
-      <c r="G948" s="9" t="s">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="949" spans="1:8" s="8" customFormat="1">
+      <c r="B948" s="8">
+        <v>386</v>
+      </c>
+      <c r="C948" s="10" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D948" s="10">
+        <v>1</v>
+      </c>
+      <c r="E948" s="8">
+        <v>3</v>
+      </c>
+      <c r="F948" s="8">
+        <v>1</v>
+      </c>
+      <c r="G948" s="10" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="949" spans="1:8">
       <c r="A949" s="8">
         <v>948</v>
       </c>
-      <c r="B949" s="8">
-        <v>388</v>
-      </c>
-      <c r="C949" s="10" t="s">
-        <v>2069</v>
-      </c>
-      <c r="D949" s="10" t="s">
-        <v>2078</v>
-      </c>
-      <c r="E949" s="8">
+      <c r="B949" s="9">
+        <v>387</v>
+      </c>
+      <c r="C949" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D949" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="E949" s="9">
         <v>5</v>
       </c>
-      <c r="F949" s="8">
-        <v>1</v>
-      </c>
-      <c r="G949" s="10" t="s">
-        <v>911</v>
+      <c r="F949" s="9">
+        <v>1</v>
+      </c>
+      <c r="G949" s="9" t="s">
+        <v>2060</v>
       </c>
     </row>
     <row r="950" spans="1:8" s="8" customFormat="1">
@@ -51178,19 +51232,19 @@
         <v>388</v>
       </c>
       <c r="C950" s="10" t="s">
-        <v>2069</v>
+        <v>2065</v>
       </c>
       <c r="D950" s="10" t="s">
-        <v>2078</v>
+        <v>2074</v>
       </c>
       <c r="E950" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F950" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G950" s="10" t="s">
-        <v>1176</v>
+        <v>911</v>
       </c>
     </row>
     <row r="951" spans="1:8" s="8" customFormat="1">
@@ -51198,19 +51252,19 @@
         <v>950</v>
       </c>
       <c r="B951" s="8">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C951" s="10" t="s">
-        <v>1052</v>
+        <v>2065</v>
       </c>
       <c r="D951" s="10" t="s">
-        <v>1212</v>
+        <v>2074</v>
       </c>
       <c r="E951" s="8">
         <v>2</v>
       </c>
       <c r="F951" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G951" s="10" t="s">
         <v>1176</v>
@@ -51224,19 +51278,19 @@
         <v>389</v>
       </c>
       <c r="C952" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D952" s="8">
-        <v>3</v>
+        <v>1052</v>
+      </c>
+      <c r="D952" s="10" t="s">
+        <v>1212</v>
       </c>
       <c r="E952" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F952" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G952" s="10" t="s">
-        <v>2076</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="953" spans="1:8" s="8" customFormat="1">
@@ -51244,22 +51298,22 @@
         <v>952</v>
       </c>
       <c r="B953" s="8">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C953" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D953" s="8">
+        <v>3</v>
+      </c>
+      <c r="E953" s="8">
         <v>4</v>
       </c>
-      <c r="E953" s="8">
-        <v>3</v>
-      </c>
       <c r="F953" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G953" s="10" t="s">
-        <v>2077</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="954" spans="1:8" s="8" customFormat="1">
@@ -51273,16 +51327,16 @@
         <v>1117</v>
       </c>
       <c r="D954" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E954" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F954" s="8">
         <v>1</v>
       </c>
       <c r="G954" s="10" t="s">
-        <v>2050</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="955" spans="1:8" s="8" customFormat="1">
@@ -51292,20 +51346,20 @@
       <c r="B955" s="8">
         <v>390</v>
       </c>
-      <c r="C955" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D955" s="8" t="s">
-        <v>853</v>
+      <c r="C955" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D955" s="8">
+        <v>7</v>
       </c>
       <c r="E955" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F955" s="8">
         <v>1</v>
       </c>
       <c r="G955" s="10" t="s">
-        <v>2051</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="956" spans="1:8" s="8" customFormat="1">
@@ -51313,22 +51367,22 @@
         <v>955</v>
       </c>
       <c r="B956" s="8">
-        <v>391</v>
-      </c>
-      <c r="C956" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D956" s="8">
-        <v>8</v>
+        <v>390</v>
+      </c>
+      <c r="C956" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D956" s="8" t="s">
+        <v>853</v>
       </c>
       <c r="E956" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F956" s="8">
         <v>1</v>
       </c>
       <c r="G956" s="10" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="957" spans="1:8" s="8" customFormat="1">
@@ -51339,19 +51393,19 @@
         <v>391</v>
       </c>
       <c r="C957" s="10" t="s">
-        <v>2119</v>
+        <v>1117</v>
       </c>
       <c r="D957" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E957" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F957" s="8">
         <v>1</v>
       </c>
       <c r="G957" s="10" t="s">
-        <v>2050</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="958" spans="1:8" s="8" customFormat="1">
@@ -51361,20 +51415,20 @@
       <c r="B958" s="8">
         <v>391</v>
       </c>
-      <c r="C958" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D958" s="8" t="s">
-        <v>853</v>
+      <c r="C958" s="10" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D958" s="8">
+        <v>12</v>
       </c>
       <c r="E958" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F958" s="8">
         <v>1</v>
       </c>
       <c r="G958" s="10" t="s">
-        <v>2051</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="959" spans="1:8" s="8" customFormat="1">
@@ -51382,7 +51436,7 @@
         <v>958</v>
       </c>
       <c r="B959" s="8">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C959" s="8" t="s">
         <v>852</v>
@@ -51396,8 +51450,8 @@
       <c r="F959" s="8">
         <v>1</v>
       </c>
-      <c r="G959" s="8" t="s">
-        <v>2051</v>
+      <c r="G959" s="10" t="s">
+        <v>2047</v>
       </c>
     </row>
     <row r="960" spans="1:8" s="8" customFormat="1">
@@ -51405,13 +51459,13 @@
         <v>959</v>
       </c>
       <c r="B960" s="8">
-        <v>393</v>
-      </c>
-      <c r="C960" s="10" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D960" s="10" t="s">
-        <v>1958</v>
+        <v>392</v>
+      </c>
+      <c r="C960" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D960" s="8" t="s">
+        <v>853</v>
       </c>
       <c r="E960" s="8">
         <v>5</v>
@@ -51419,8 +51473,8 @@
       <c r="F960" s="8">
         <v>1</v>
       </c>
-      <c r="G960" s="10" t="s">
-        <v>2089</v>
+      <c r="G960" s="8" t="s">
+        <v>2047</v>
       </c>
     </row>
     <row r="961" spans="1:9" s="8" customFormat="1">
@@ -51428,22 +51482,22 @@
         <v>960</v>
       </c>
       <c r="B961" s="8">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C961" s="10" t="s">
         <v>1143</v>
       </c>
       <c r="D961" s="10" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="E961" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F961" s="8">
         <v>1</v>
       </c>
       <c r="G961" s="10" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="962" spans="1:9" s="8" customFormat="1">
@@ -51451,13 +51505,13 @@
         <v>961</v>
       </c>
       <c r="B962" s="8">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C962" s="10" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D962" s="10" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="E962" s="8">
         <v>2</v>
@@ -51466,7 +51520,7 @@
         <v>1</v>
       </c>
       <c r="G962" s="10" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="963" spans="1:9" s="8" customFormat="1">
@@ -51474,13 +51528,13 @@
         <v>962</v>
       </c>
       <c r="B963" s="8">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C963" s="10" t="s">
         <v>1142</v>
       </c>
-      <c r="D963" s="64" t="s">
-        <v>1818</v>
+      <c r="D963" s="10" t="s">
+        <v>1955</v>
       </c>
       <c r="E963" s="8">
         <v>2</v>
@@ -51488,8 +51542,8 @@
       <c r="F963" s="8">
         <v>1</v>
       </c>
-      <c r="G963" s="8" t="s">
-        <v>2104</v>
+      <c r="G963" s="10" t="s">
+        <v>2086</v>
       </c>
     </row>
     <row r="964" spans="1:9" s="8" customFormat="1">
@@ -51503,16 +51557,16 @@
         <v>1142</v>
       </c>
       <c r="D964" s="64" t="s">
-        <v>1915</v>
+        <v>1815</v>
       </c>
       <c r="E964" s="8">
         <v>2</v>
       </c>
       <c r="F964" s="8">
-        <v>2</v>
-      </c>
-      <c r="G964" s="10" t="s">
-        <v>2105</v>
+        <v>1</v>
+      </c>
+      <c r="G964" s="8" t="s">
+        <v>2100</v>
       </c>
     </row>
     <row r="965" spans="1:9" s="8" customFormat="1">
@@ -51520,22 +51574,22 @@
         <v>964</v>
       </c>
       <c r="B965" s="8">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C965" s="10" t="s">
         <v>1142</v>
       </c>
       <c r="D965" s="64" t="s">
-        <v>1958</v>
+        <v>1912</v>
       </c>
       <c r="E965" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F965" s="8">
         <v>2</v>
       </c>
       <c r="G965" s="10" t="s">
-        <v>2116</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="966" spans="1:9" s="8" customFormat="1">
@@ -51545,20 +51599,20 @@
       <c r="B966" s="8">
         <v>397</v>
       </c>
-      <c r="C966" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D966" s="8" t="s">
-        <v>853</v>
+      <c r="C966" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D966" s="64" t="s">
+        <v>1955</v>
       </c>
       <c r="E966" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F966" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G966" s="10" t="s">
-        <v>1842</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="967" spans="1:9" s="8" customFormat="1">
@@ -51566,22 +51620,22 @@
         <v>966</v>
       </c>
       <c r="B967" s="8">
-        <v>398</v>
-      </c>
-      <c r="C967" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D967" s="64" t="s">
-        <v>1958</v>
+        <v>397</v>
+      </c>
+      <c r="C967" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D967" s="8" t="s">
+        <v>853</v>
       </c>
       <c r="E967" s="8">
         <v>2</v>
       </c>
       <c r="F967" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G967" s="10" t="s">
-        <v>2117</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="968" spans="1:9" s="8" customFormat="1">
@@ -51591,46 +51645,44 @@
       <c r="B968" s="8">
         <v>398</v>
       </c>
-      <c r="C968" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D968" s="8" t="s">
-        <v>853</v>
+      <c r="C968" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D968" s="64" t="s">
+        <v>1955</v>
       </c>
       <c r="E968" s="8">
         <v>2</v>
       </c>
       <c r="F968" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G968" s="10" t="s">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="969" spans="1:9">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="969" spans="1:9" s="8" customFormat="1">
       <c r="A969" s="8">
         <v>968</v>
       </c>
-      <c r="B969" s="20">
-        <v>399</v>
-      </c>
-      <c r="C969" s="21" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D969" s="21" t="s">
-        <v>1903</v>
-      </c>
-      <c r="E969" s="20">
-        <v>5</v>
-      </c>
-      <c r="F969" s="20">
-        <v>1</v>
-      </c>
-      <c r="G969" s="21" t="s">
-        <v>1881</v>
-      </c>
-      <c r="H969" s="8"/>
-      <c r="I969" s="8"/>
+      <c r="B969" s="8">
+        <v>398</v>
+      </c>
+      <c r="C969" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D969" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="E969" s="8">
+        <v>2</v>
+      </c>
+      <c r="F969" s="8">
+        <v>1</v>
+      </c>
+      <c r="G969" s="10" t="s">
+        <v>1839</v>
+      </c>
     </row>
     <row r="970" spans="1:9">
       <c r="A970" s="8">
@@ -51640,19 +51692,19 @@
         <v>399</v>
       </c>
       <c r="C970" s="21" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D970" s="21">
+        <v>1142</v>
+      </c>
+      <c r="D970" s="21" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E970" s="20">
         <v>5</v>
       </c>
-      <c r="E970" s="20">
-        <v>3</v>
-      </c>
       <c r="F970" s="20">
         <v>1</v>
       </c>
       <c r="G970" s="21" t="s">
-        <v>2120</v>
+        <v>1878</v>
       </c>
       <c r="H970" s="8"/>
       <c r="I970" s="8"/>
@@ -51662,29 +51714,25 @@
         <v>970</v>
       </c>
       <c r="B971" s="20">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C971" s="21" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D971" s="21" t="s">
-        <v>1903</v>
+        <v>1129</v>
+      </c>
+      <c r="D971" s="21">
+        <v>5</v>
       </c>
       <c r="E971" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F971" s="20">
         <v>1</v>
       </c>
       <c r="G971" s="21" t="s">
-        <v>1892</v>
-      </c>
-      <c r="H971" s="8" t="s">
-        <v>863</v>
-      </c>
-      <c r="I971" s="8" t="s">
-        <v>864</v>
-      </c>
+        <v>2116</v>
+      </c>
+      <c r="H971" s="8"/>
+      <c r="I971" s="8"/>
     </row>
     <row r="972" spans="1:9">
       <c r="A972" s="8">
@@ -51694,19 +51742,19 @@
         <v>400</v>
       </c>
       <c r="C972" s="21" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D972" s="21">
-        <v>5</v>
+        <v>1142</v>
+      </c>
+      <c r="D972" s="21" t="s">
+        <v>1900</v>
       </c>
       <c r="E972" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F972" s="20">
         <v>1</v>
       </c>
       <c r="G972" s="21" t="s">
-        <v>2120</v>
+        <v>1889</v>
       </c>
       <c r="H972" s="8" t="s">
         <v>863</v>
@@ -51715,27 +51763,33 @@
         <v>864</v>
       </c>
     </row>
-    <row r="973" spans="1:9" s="8" customFormat="1">
+    <row r="973" spans="1:9">
       <c r="A973" s="8">
         <v>972</v>
       </c>
       <c r="B973" s="20">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C973" s="21" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D973" s="20">
+        <v>1129</v>
+      </c>
+      <c r="D973" s="21">
+        <v>5</v>
+      </c>
+      <c r="E973" s="20">
         <v>3</v>
       </c>
-      <c r="E973" s="20">
-        <v>4</v>
-      </c>
       <c r="F973" s="20">
         <v>1</v>
       </c>
       <c r="G973" s="21" t="s">
-        <v>2076</v>
+        <v>2116</v>
+      </c>
+      <c r="H973" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="I973" s="8" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="974" spans="1:9" s="8" customFormat="1">
@@ -51743,45 +51797,45 @@
         <v>973</v>
       </c>
       <c r="B974" s="20">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C974" s="21" t="s">
         <v>1117</v>
       </c>
       <c r="D974" s="20">
+        <v>3</v>
+      </c>
+      <c r="E974" s="20">
         <v>4</v>
       </c>
-      <c r="E974" s="20">
-        <v>3</v>
-      </c>
       <c r="F974" s="20">
         <v>1</v>
       </c>
       <c r="G974" s="21" t="s">
-        <v>2127</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="975" spans="1:9" s="8" customFormat="1">
       <c r="A975" s="8">
         <v>974</v>
       </c>
-      <c r="B975" s="8">
-        <v>403</v>
-      </c>
-      <c r="C975" s="95" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D975" s="95" t="s">
-        <v>1818</v>
-      </c>
-      <c r="E975" s="8">
-        <v>2</v>
-      </c>
-      <c r="F975" s="8">
-        <v>1</v>
-      </c>
-      <c r="G975" s="8" t="s">
-        <v>2136</v>
+      <c r="B975" s="20">
+        <v>402</v>
+      </c>
+      <c r="C975" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D975" s="20">
+        <v>4</v>
+      </c>
+      <c r="E975" s="20">
+        <v>3</v>
+      </c>
+      <c r="F975" s="20">
+        <v>1</v>
+      </c>
+      <c r="G975" s="21" t="s">
+        <v>2123</v>
       </c>
     </row>
     <row r="976" spans="1:9" s="8" customFormat="1">
@@ -51792,10 +51846,10 @@
         <v>403</v>
       </c>
       <c r="C976" s="95" t="s">
-        <v>1142</v>
+        <v>1032</v>
       </c>
       <c r="D976" s="95" t="s">
-        <v>1600</v>
+        <v>1815</v>
       </c>
       <c r="E976" s="8">
         <v>2</v>
@@ -51803,8 +51857,8 @@
       <c r="F976" s="8">
         <v>1</v>
       </c>
-      <c r="G976" s="10" t="s">
-        <v>2137</v>
+      <c r="G976" s="8" t="s">
+        <v>2132</v>
       </c>
     </row>
     <row r="977" spans="1:7" s="8" customFormat="1">
@@ -51812,13 +51866,13 @@
         <v>976</v>
       </c>
       <c r="B977" s="8">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C977" s="95" t="s">
-        <v>1032</v>
+        <v>1142</v>
       </c>
       <c r="D977" s="95" t="s">
-        <v>1818</v>
+        <v>1599</v>
       </c>
       <c r="E977" s="8">
         <v>2</v>
@@ -51826,8 +51880,8 @@
       <c r="F977" s="8">
         <v>1</v>
       </c>
-      <c r="G977" s="8" t="s">
-        <v>2136</v>
+      <c r="G977" s="10" t="s">
+        <v>2133</v>
       </c>
     </row>
     <row r="978" spans="1:7" s="8" customFormat="1">
@@ -51838,42 +51892,42 @@
         <v>404</v>
       </c>
       <c r="C978" s="95" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D978" s="95" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E978" s="8">
+        <v>2</v>
+      </c>
+      <c r="F978" s="8">
+        <v>1</v>
+      </c>
+      <c r="G978" s="8" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="979" spans="1:7" s="8" customFormat="1">
+      <c r="A979" s="8">
+        <v>978</v>
+      </c>
+      <c r="B979" s="8">
+        <v>404</v>
+      </c>
+      <c r="C979" s="95" t="s">
         <v>1142</v>
       </c>
-      <c r="D978" s="95" t="s">
-        <v>2138</v>
-      </c>
-      <c r="E978" s="8">
-        <v>2</v>
-      </c>
-      <c r="F978" s="8">
-        <v>1</v>
-      </c>
-      <c r="G978" s="10" t="s">
-        <v>2137</v>
-      </c>
-    </row>
-    <row r="979" spans="1:7">
-      <c r="A979" s="9">
-        <v>978</v>
-      </c>
-      <c r="B979" s="9">
-        <v>405</v>
-      </c>
-      <c r="C979" s="10" t="s">
-        <v>1533</v>
-      </c>
-      <c r="D979" s="8">
-        <v>1615248000</v>
-      </c>
-      <c r="E979" s="9">
-        <v>3</v>
-      </c>
-      <c r="F979" s="9">
-        <v>1</v>
-      </c>
-      <c r="G979" s="49" t="s">
-        <v>2143</v>
+      <c r="D979" s="95" t="s">
+        <v>2134</v>
+      </c>
+      <c r="E979" s="8">
+        <v>2</v>
+      </c>
+      <c r="F979" s="8">
+        <v>1</v>
+      </c>
+      <c r="G979" s="10" t="s">
+        <v>2133</v>
       </c>
     </row>
     <row r="980" spans="1:7">
@@ -51881,22 +51935,22 @@
         <v>979</v>
       </c>
       <c r="B980" s="9">
-        <v>406</v>
-      </c>
-      <c r="C980" s="21" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D980" s="20">
+        <v>405</v>
+      </c>
+      <c r="C980" s="10" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D980" s="8">
+        <v>1615248000</v>
+      </c>
+      <c r="E980" s="9">
         <v>3</v>
       </c>
-      <c r="E980" s="20">
-        <v>4</v>
-      </c>
-      <c r="F980" s="20">
-        <v>1</v>
-      </c>
-      <c r="G980" s="21" t="s">
-        <v>2076</v>
+      <c r="F980" s="9">
+        <v>1</v>
+      </c>
+      <c r="G980" s="49" t="s">
+        <v>2139</v>
       </c>
     </row>
     <row r="981" spans="1:7">
@@ -51907,19 +51961,19 @@
         <v>406</v>
       </c>
       <c r="C981" s="21" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D981" s="21" t="s">
-        <v>1903</v>
+        <v>1117</v>
+      </c>
+      <c r="D981" s="20">
+        <v>3</v>
       </c>
       <c r="E981" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F981" s="20">
         <v>1</v>
       </c>
       <c r="G981" s="21" t="s">
-        <v>2156</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="982" spans="1:7">
@@ -51927,45 +51981,45 @@
         <v>981</v>
       </c>
       <c r="B982" s="9">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C982" s="21" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D982" s="20">
-        <v>4</v>
+        <v>1142</v>
+      </c>
+      <c r="D982" s="21" t="s">
+        <v>1900</v>
       </c>
       <c r="E982" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F982" s="20">
         <v>1</v>
       </c>
       <c r="G982" s="21" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="983" spans="1:7">
-      <c r="A983" s="9">
+      <c r="A983" s="8">
         <v>982</v>
       </c>
       <c r="B983" s="9">
         <v>407</v>
       </c>
       <c r="C983" s="21" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D983" s="21" t="s">
-        <v>1903</v>
+        <v>1117</v>
+      </c>
+      <c r="D983" s="20">
+        <v>4</v>
       </c>
       <c r="E983" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F983" s="20">
         <v>1</v>
       </c>
       <c r="G983" s="21" t="s">
-        <v>1877</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="984" spans="1:7">
@@ -51973,22 +52027,22 @@
         <v>983</v>
       </c>
       <c r="B984" s="9">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C984" s="21" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D984" s="20">
-        <v>3</v>
+        <v>1142</v>
+      </c>
+      <c r="D984" s="21" t="s">
+        <v>1900</v>
       </c>
       <c r="E984" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F984" s="20">
         <v>1</v>
       </c>
       <c r="G984" s="21" t="s">
-        <v>2076</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="985" spans="1:7">
@@ -51999,19 +52053,19 @@
         <v>408</v>
       </c>
       <c r="C985" s="21" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D985" s="21" t="s">
-        <v>1903</v>
+        <v>1117</v>
+      </c>
+      <c r="D985" s="20">
+        <v>3</v>
       </c>
       <c r="E985" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F985" s="20">
         <v>1</v>
       </c>
       <c r="G985" s="21" t="s">
-        <v>1879</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="986" spans="1:7">
@@ -52019,45 +52073,68 @@
         <v>985</v>
       </c>
       <c r="B986" s="9">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C986" s="21" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D986" s="20">
-        <v>4</v>
+        <v>1142</v>
+      </c>
+      <c r="D986" s="21" t="s">
+        <v>1900</v>
       </c>
       <c r="E986" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F986" s="20">
         <v>1</v>
       </c>
       <c r="G986" s="21" t="s">
-        <v>2155</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="987" spans="1:7">
-      <c r="A987" s="9">
+      <c r="A987" s="8">
         <v>986</v>
       </c>
       <c r="B987" s="9">
         <v>409</v>
       </c>
       <c r="C987" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D987" s="20">
+        <v>4</v>
+      </c>
+      <c r="E987" s="20">
+        <v>3</v>
+      </c>
+      <c r="F987" s="20">
+        <v>1</v>
+      </c>
+      <c r="G987" s="21" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="988" spans="1:7">
+      <c r="A988" s="8">
+        <v>987</v>
+      </c>
+      <c r="B988" s="9">
+        <v>409</v>
+      </c>
+      <c r="C988" s="21" t="s">
         <v>1142</v>
       </c>
-      <c r="D987" s="21" t="s">
-        <v>1903</v>
-      </c>
-      <c r="E987" s="20">
-        <v>2</v>
-      </c>
-      <c r="F987" s="20">
-        <v>1</v>
-      </c>
-      <c r="G987" s="21" t="s">
-        <v>1879</v>
+      <c r="D988" s="21" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E988" s="20">
+        <v>2</v>
+      </c>
+      <c r="F988" s="20">
+        <v>1</v>
+      </c>
+      <c r="G988" s="21" t="s">
+        <v>1876</v>
       </c>
     </row>
   </sheetData>
@@ -52070,10 +52147,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -52115,7 +52192,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>884</v>
@@ -52190,7 +52267,7 @@
         <v>884</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -52207,13 +52284,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>1796</v>
+        <v>2172</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -52230,22 +52307,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>2168</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>1595</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>1596</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -52253,13 +52330,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>1990</v>
+        <v>2170</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -52268,7 +52345,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -52276,13 +52353,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -52291,7 +52368,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -52299,13 +52376,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -52314,7 +52391,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -52322,13 +52399,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -52337,7 +52414,99 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1817</v>
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="79">
+        <v>11</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>2157</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="79">
+        <v>12</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="79">
+        <v>13</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>2171</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="79">
+        <v>14</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>2163</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>2161</v>
       </c>
     </row>
   </sheetData>
@@ -52430,7 +52599,7 @@
         <v>852</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="8" spans="1:11">

--- a/config_3.16/permission_server_config.xlsx
+++ b/config_3.16/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5043" uniqueCount="2173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5131" uniqueCount="2217">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -10000,6 +10000,149 @@
   <si>
     <t>"pceggs","xianwan","pdd","duoliang","zhuanke91","doudouqu","paopaozhuan","mtzd","juxiang","xiaozhuo","aibianxian","juju","qwxq","byam_xianwan",</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3d_102</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3d_102_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3d_102_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3d_102_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3d_102_4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3d_102_5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3d_102_6</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3d_102_7</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3d_102_8</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3d_102_9</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3d_102_10</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing3d_103</t>
+  </si>
+  <si>
+    <t>fishing3d_103_1</t>
+  </si>
+  <si>
+    <t>fishing3d_103_2</t>
+  </si>
+  <si>
+    <t>fishing3d_103_3</t>
+  </si>
+  <si>
+    <t>fishing3d_103_4</t>
+  </si>
+  <si>
+    <t>fishing3d_103_5</t>
+  </si>
+  <si>
+    <t>fishing3d_103_6</t>
+  </si>
+  <si>
+    <t>fishing3d_103_7</t>
+  </si>
+  <si>
+    <t>fishing3d_103_8</t>
+  </si>
+  <si>
+    <t>fishing3d_103_9</t>
+  </si>
+  <si>
+    <t>fishing3d_103_10</t>
+  </si>
+  <si>
+    <t>fishing3d_104</t>
+  </si>
+  <si>
+    <t>fishing3d_104_1</t>
+  </si>
+  <si>
+    <t>fishing3d_104_2</t>
+  </si>
+  <si>
+    <t>fishing3d_104_3</t>
+  </si>
+  <si>
+    <t>fishing3d_104_4</t>
+  </si>
+  <si>
+    <t>fishing3d_104_5</t>
+  </si>
+  <si>
+    <t>fishing3d_104_6</t>
+  </si>
+  <si>
+    <t>fishing3d_104_7</t>
+  </si>
+  <si>
+    <t>fishing3d_104_8</t>
+  </si>
+  <si>
+    <t>fishing3d_104_9</t>
+  </si>
+  <si>
+    <t>fishing3d_104_10</t>
+  </si>
+  <si>
+    <t>fishing3d_105</t>
+  </si>
+  <si>
+    <t>fishing3d_105_1</t>
+  </si>
+  <si>
+    <t>fishing3d_105_2</t>
+  </si>
+  <si>
+    <t>fishing3d_105_3</t>
+  </si>
+  <si>
+    <t>fishing3d_105_4</t>
+  </si>
+  <si>
+    <t>fishing3d_105_5</t>
+  </si>
+  <si>
+    <t>fishing3d_105_6</t>
+  </si>
+  <si>
+    <t>fishing3d_105_7</t>
+  </si>
+  <si>
+    <t>fishing3d_105_8</t>
+  </si>
+  <si>
+    <t>fishing3d_105_9</t>
+  </si>
+  <si>
+    <t>fishing3d_105_10</t>
   </si>
 </sst>
 </file>
@@ -10841,11 +10984,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q471"/>
+  <dimension ref="A1:Q519"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A383" sqref="A383:XFD383"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B500" sqref="B500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -15674,6 +15817,439 @@
         <v>22</v>
       </c>
     </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="27" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B473" s="27" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C473" s="3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="27" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B474" s="27" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C474" s="3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="27" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B475" s="27" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C475" s="3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="27" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B476" s="27" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C476" s="3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="27" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B477" s="27" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C477" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="27" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B478" s="27" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C478" s="3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="27" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B479" s="27" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C479" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="27" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B480" s="27" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C480" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" s="27" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B481" s="27" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C481" s="3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" s="27" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B482" s="27" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C482" s="3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" s="27" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B483" s="27" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C483" s="3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" s="27"/>
+      <c r="B484" s="27"/>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="27" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B485" s="27" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C485" s="3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" s="27" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B486" s="27" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C486" s="3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" s="27" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B487" s="27" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C487" s="3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" s="27" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B488" s="27" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C488" s="3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="27" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B489" s="27" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C489" s="3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" s="27" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B490" s="27" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C490" s="3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="27" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B491" s="27" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C491" s="3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" s="27" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B492" s="27" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C492" s="3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" s="27" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B493" s="27" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C493" s="3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" s="27" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B494" s="27" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C494" s="3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" s="27" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B495" s="27" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C495" s="3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="B496" s="27"/>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="27" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B497" s="27" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C497" s="50">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" s="27" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B498" s="27" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C498" s="50"/>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" s="27" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B499" s="27" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" s="27" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B500" s="27" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" s="27" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B501" s="27" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" s="27" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B502" s="27" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" s="27" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B503" s="27" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" s="27" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B504" s="27" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" s="27" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B505" s="27" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" s="27" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B506" s="27" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" s="27" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B507" s="27" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" s="27" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B509" s="27" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C509" s="50">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" s="27" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B510" s="27" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C510" s="50"/>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" s="27" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B511" s="27" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" s="27" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B512" s="27" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="27" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B513" s="27" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="27" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B514" s="27" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="27" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B515" s="27" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="27" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B516" s="27" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="27" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B517" s="27" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="27" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B518" s="27" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="27" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B519" s="27" t="s">
+        <v>1316</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15686,7 +16262,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O378"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="E353" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/config_3.16/permission_server_config.xlsx
+++ b/config_3.16/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5131" uniqueCount="2217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5134" uniqueCount="2218">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8601,10 +8601,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>cjj关闭累计赢金榜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>day_delay</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10143,6 +10139,14 @@
   </si>
   <si>
     <t>fishing3d_105_10</t>
+  </si>
+  <si>
+    <t>关闭累计赢金榜（cjj和捕鱼奥秘）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10986,7 +10990,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q519"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B500" sqref="B500"/>
     </sheetView>
@@ -12007,7 +12011,7 @@
         <v>111</v>
       </c>
       <c r="B59" s="49" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C59" s="9">
         <v>22</v>
@@ -12022,7 +12026,7 @@
         <v>112</v>
       </c>
       <c r="B60" s="49" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="C60" s="9">
         <v>22</v>
@@ -12037,7 +12041,7 @@
         <v>113</v>
       </c>
       <c r="B61" s="49" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="C61" s="9">
         <v>22</v>
@@ -12052,7 +12056,7 @@
         <v>114</v>
       </c>
       <c r="B62" s="49" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="C62" s="9">
         <v>24</v>
@@ -12066,7 +12070,7 @@
         <v>115</v>
       </c>
       <c r="B63" s="49" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="C63" s="9">
         <v>22</v>
@@ -12080,7 +12084,7 @@
         <v>116</v>
       </c>
       <c r="B64" s="49" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="C64" s="9">
         <v>22</v>
@@ -12095,7 +12099,7 @@
         <v>117</v>
       </c>
       <c r="B65" s="49" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="C65" s="53">
         <v>22</v>
@@ -12110,7 +12114,7 @@
         <v>118</v>
       </c>
       <c r="B66" s="49" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="C66" s="53">
         <v>23</v>
@@ -12124,7 +12128,7 @@
         <v>119</v>
       </c>
       <c r="B67" s="49" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="C67" s="9">
         <v>24</v>
@@ -12142,7 +12146,7 @@
         <v>120</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="C68" s="9">
         <v>25</v>
@@ -12193,7 +12197,7 @@
         <v>124</v>
       </c>
       <c r="B71" s="49" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -12229,7 +12233,7 @@
         <v>126</v>
       </c>
       <c r="B73" s="49" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="C73" s="53">
         <v>22</v>
@@ -12368,7 +12372,7 @@
         <v>135</v>
       </c>
       <c r="B82" s="49" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -14892,7 +14896,7 @@
         <v>1363</v>
       </c>
       <c r="B349" s="27" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="C349" s="3">
         <v>226</v>
@@ -14966,10 +14970,10 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="27" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B356" s="27" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="C356" s="3">
         <v>343</v>
@@ -15131,7 +15135,7 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="27" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B383" s="27" t="s">
         <v>1720</v>
@@ -15329,10 +15333,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="27" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B407" s="27" t="s">
         <v>1835</v>
-      </c>
-      <c r="B407" s="27" t="s">
-        <v>1836</v>
       </c>
       <c r="C407" s="3">
         <v>339</v>
@@ -15340,10 +15344,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="3" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B409" s="3" t="s">
         <v>1840</v>
-      </c>
-      <c r="B409" s="3" t="s">
-        <v>1841</v>
       </c>
       <c r="C409" s="3">
         <v>326</v>
@@ -15351,37 +15355,37 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="31" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B411" s="10" t="s">
         <v>1842</v>
-      </c>
-      <c r="B411" s="10" t="s">
-        <v>1843</v>
       </c>
       <c r="C411" s="9"/>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="18" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B412" s="10" t="s">
         <v>1844</v>
-      </c>
-      <c r="B412" s="10" t="s">
-        <v>1845</v>
       </c>
       <c r="C412" s="9"/>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="18" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B413" s="10" t="s">
         <v>1846</v>
-      </c>
-      <c r="B413" s="10" t="s">
-        <v>1847</v>
       </c>
       <c r="C413" s="9"/>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="18" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B414" s="10" t="s">
         <v>1848</v>
-      </c>
-      <c r="B414" s="10" t="s">
-        <v>1849</v>
       </c>
       <c r="C414" s="53">
         <v>22</v>
@@ -15389,10 +15393,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="18" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B415" s="10" t="s">
         <v>1850</v>
-      </c>
-      <c r="B415" s="10" t="s">
-        <v>1851</v>
       </c>
       <c r="C415" s="53">
         <v>22</v>
@@ -15400,10 +15404,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="18" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B416" s="10" t="s">
         <v>1852</v>
-      </c>
-      <c r="B416" s="10" t="s">
-        <v>1853</v>
       </c>
       <c r="C416" s="53">
         <v>22</v>
@@ -15411,10 +15415,10 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="18" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B417" s="10" t="s">
         <v>1854</v>
-      </c>
-      <c r="B417" s="10" t="s">
-        <v>1855</v>
       </c>
       <c r="C417" s="53">
         <v>23</v>
@@ -15422,10 +15426,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="18" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B418" s="10" t="s">
         <v>1856</v>
-      </c>
-      <c r="B418" s="10" t="s">
-        <v>1857</v>
       </c>
       <c r="C418" s="53">
         <v>23</v>
@@ -15433,10 +15437,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="18" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B419" s="10" t="s">
         <v>1858</v>
-      </c>
-      <c r="B419" s="10" t="s">
-        <v>1859</v>
       </c>
       <c r="C419" s="9">
         <v>24</v>
@@ -15444,10 +15448,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="18" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B420" s="10" t="s">
         <v>1860</v>
-      </c>
-      <c r="B420" s="10" t="s">
-        <v>1861</v>
       </c>
       <c r="C420" s="9">
         <v>25</v>
@@ -15455,10 +15459,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="18" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B421" s="10" t="s">
         <v>1862</v>
-      </c>
-      <c r="B421" s="10" t="s">
-        <v>1863</v>
       </c>
       <c r="C421" s="9">
         <v>26</v>
@@ -15466,10 +15470,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="18" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B422" s="10" t="s">
         <v>1864</v>
-      </c>
-      <c r="B422" s="10" t="s">
-        <v>1865</v>
       </c>
       <c r="C422" s="9">
         <v>26</v>
@@ -15477,10 +15481,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="18" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B423" s="10" t="s">
         <v>1866</v>
-      </c>
-      <c r="B423" s="10" t="s">
-        <v>1867</v>
       </c>
       <c r="C423" s="9">
         <v>26</v>
@@ -15488,10 +15492,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="27" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B425" s="27" t="s">
         <v>1871</v>
-      </c>
-      <c r="B425" s="27" t="s">
-        <v>1872</v>
       </c>
       <c r="C425" s="3">
         <v>342</v>
@@ -15499,10 +15503,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="27" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B427" s="27" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="C427" s="3">
         <v>344</v>
@@ -15510,10 +15514,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="27" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B428" s="27" t="s">
         <v>1926</v>
-      </c>
-      <c r="B428" s="27" t="s">
-        <v>1927</v>
       </c>
       <c r="C428" s="3">
         <v>345</v>
@@ -15521,10 +15525,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="27" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B430" s="27" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="C430" s="3">
         <v>346</v>
@@ -15532,10 +15536,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="27" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B432" s="27" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="C432" s="3">
         <v>347</v>
@@ -15543,10 +15547,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="27" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B433" s="27" t="s">
         <v>1915</v>
-      </c>
-      <c r="B433" s="27" t="s">
-        <v>1916</v>
       </c>
       <c r="C433" s="3">
         <v>348</v>
@@ -15554,10 +15558,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="27" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B435" s="27" t="s">
         <v>1931</v>
-      </c>
-      <c r="B435" s="27" t="s">
-        <v>1932</v>
       </c>
       <c r="C435" s="3">
         <v>351</v>
@@ -15565,10 +15569,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="27" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B436" s="27" t="s">
         <v>1933</v>
-      </c>
-      <c r="B436" s="27" t="s">
-        <v>1934</v>
       </c>
       <c r="C436" s="3">
         <v>352</v>
@@ -15576,10 +15580,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="27" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B438" s="27" t="s">
         <v>1942</v>
-      </c>
-      <c r="B438" s="27" t="s">
-        <v>1943</v>
       </c>
       <c r="C438" s="3">
         <v>353</v>
@@ -15587,10 +15591,10 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="3" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C440" s="3">
         <v>354</v>
@@ -15598,10 +15602,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="27" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B442" s="27" t="s">
         <v>1952</v>
-      </c>
-      <c r="B442" s="27" t="s">
-        <v>1953</v>
       </c>
       <c r="C442" s="3">
         <v>355</v>
@@ -15613,10 +15617,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="27" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B444" s="27" t="s">
         <v>1981</v>
-      </c>
-      <c r="B444" s="27" t="s">
-        <v>1982</v>
       </c>
       <c r="C444" s="3">
         <v>368</v>
@@ -15624,10 +15628,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="72" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B446" s="27" t="s">
         <v>1987</v>
-      </c>
-      <c r="B446" s="27" t="s">
-        <v>1988</v>
       </c>
       <c r="C446" s="3">
         <v>356</v>
@@ -15635,10 +15639,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="72" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B447" s="27" t="s">
         <v>1989</v>
-      </c>
-      <c r="B447" s="27" t="s">
-        <v>1990</v>
       </c>
       <c r="C447" s="3">
         <v>360</v>
@@ -15646,10 +15650,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="3" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C449" s="3">
         <v>369</v>
@@ -15657,10 +15661,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="27" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B451" s="27" t="s">
         <v>2005</v>
-      </c>
-      <c r="B451" s="27" t="s">
-        <v>2006</v>
       </c>
       <c r="C451" s="3">
         <v>374</v>
@@ -15668,10 +15672,10 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="27" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B453" s="27" t="s">
         <v>2011</v>
-      </c>
-      <c r="B453" s="27" t="s">
-        <v>2012</v>
       </c>
       <c r="C453" s="3">
         <v>375</v>
@@ -15679,10 +15683,10 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="27" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B454" s="27" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C454" s="3">
         <v>376</v>
@@ -15690,10 +15694,10 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="27" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B455" s="27" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C455" s="3">
         <v>377</v>
@@ -15701,10 +15705,10 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="27" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B456" s="27" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C456" s="3">
         <v>378</v>
@@ -15712,10 +15716,10 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="27" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B458" s="27" t="s">
         <v>2021</v>
-      </c>
-      <c r="B458" s="27" t="s">
-        <v>2022</v>
       </c>
       <c r="C458" s="3">
         <v>379</v>
@@ -15723,10 +15727,10 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="3" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B460" s="3" t="s">
         <v>2036</v>
-      </c>
-      <c r="B460" s="3" t="s">
-        <v>2037</v>
       </c>
       <c r="C460" s="3">
         <v>381</v>
@@ -15734,10 +15738,10 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="27" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B462" s="27" t="s">
         <v>2048</v>
-      </c>
-      <c r="B462" s="27" t="s">
-        <v>2049</v>
       </c>
       <c r="C462" s="3">
         <v>385</v>
@@ -15745,10 +15749,10 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="27" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B463" s="27" t="s">
         <v>2050</v>
-      </c>
-      <c r="B463" s="27" t="s">
-        <v>2051</v>
       </c>
       <c r="C463" s="3">
         <v>386</v>
@@ -15756,18 +15760,18 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="3" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="3" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B466" s="27" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="C466" s="3">
         <v>22</v>
@@ -15775,10 +15779,10 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="3" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B467" s="27" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="C467" s="3">
         <v>23</v>
@@ -15786,10 +15790,10 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="3" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B468" s="27" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="C468" s="3">
         <v>24</v>
@@ -15797,10 +15801,10 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="3" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B469" s="27" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="C469" s="3">
         <v>26</v>
@@ -15808,10 +15812,10 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="3" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B471" s="3" t="s">
         <v>2140</v>
-      </c>
-      <c r="B471" s="3" t="s">
-        <v>2141</v>
       </c>
       <c r="C471" s="3">
         <v>22</v>
@@ -15819,7 +15823,7 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="27" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="B473" s="27" t="s">
         <v>1273</v>
@@ -15830,7 +15834,7 @@
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="27" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="B474" s="27" t="s">
         <v>1274</v>
@@ -15841,7 +15845,7 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="27" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B475" s="27" t="s">
         <v>1275</v>
@@ -15852,7 +15856,7 @@
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="27" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B476" s="27" t="s">
         <v>1276</v>
@@ -15863,7 +15867,7 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="27" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="B477" s="27" t="s">
         <v>1277</v>
@@ -15874,7 +15878,7 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="27" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B478" s="27" t="s">
         <v>1278</v>
@@ -15885,7 +15889,7 @@
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="27" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B479" s="27" t="s">
         <v>1279</v>
@@ -15896,7 +15900,7 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="27" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B480" s="27" t="s">
         <v>1280</v>
@@ -15907,7 +15911,7 @@
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="27" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="B481" s="27" t="s">
         <v>1281</v>
@@ -15918,7 +15922,7 @@
     </row>
     <row r="482" spans="1:3">
       <c r="A482" s="27" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="B482" s="27" t="s">
         <v>1282</v>
@@ -15929,7 +15933,7 @@
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="27" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="B483" s="27" t="s">
         <v>1283</v>
@@ -15944,7 +15948,7 @@
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="27" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="B485" s="27" t="s">
         <v>1284</v>
@@ -15955,7 +15959,7 @@
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="27" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="B486" s="27" t="s">
         <v>1285</v>
@@ -15966,7 +15970,7 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="27" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="B487" s="27" t="s">
         <v>1286</v>
@@ -15977,7 +15981,7 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="27" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="B488" s="27" t="s">
         <v>1287</v>
@@ -15988,7 +15992,7 @@
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="27" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="B489" s="27" t="s">
         <v>1288</v>
@@ -15999,7 +16003,7 @@
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="27" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B490" s="27" t="s">
         <v>1289</v>
@@ -16010,7 +16014,7 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="27" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="B491" s="27" t="s">
         <v>1290</v>
@@ -16021,7 +16025,7 @@
     </row>
     <row r="492" spans="1:3">
       <c r="A492" s="27" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="B492" s="27" t="s">
         <v>1291</v>
@@ -16032,7 +16036,7 @@
     </row>
     <row r="493" spans="1:3">
       <c r="A493" s="27" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="B493" s="27" t="s">
         <v>1292</v>
@@ -16043,7 +16047,7 @@
     </row>
     <row r="494" spans="1:3">
       <c r="A494" s="27" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="B494" s="27" t="s">
         <v>1293</v>
@@ -16054,7 +16058,7 @@
     </row>
     <row r="495" spans="1:3">
       <c r="A495" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="B495" s="27" t="s">
         <v>1294</v>
@@ -16068,7 +16072,7 @@
     </row>
     <row r="497" spans="1:3">
       <c r="A497" s="27" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="B497" s="27" t="s">
         <v>1295</v>
@@ -16079,7 +16083,7 @@
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="27" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="B498" s="27" t="s">
         <v>1296</v>
@@ -16088,7 +16092,7 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="27" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="B499" s="27" t="s">
         <v>1297</v>
@@ -16096,7 +16100,7 @@
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="27" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="B500" s="27" t="s">
         <v>1298</v>
@@ -16104,7 +16108,7 @@
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="27" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="B501" s="27" t="s">
         <v>1299</v>
@@ -16112,7 +16116,7 @@
     </row>
     <row r="502" spans="1:3">
       <c r="A502" s="27" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="B502" s="27" t="s">
         <v>1300</v>
@@ -16120,7 +16124,7 @@
     </row>
     <row r="503" spans="1:3">
       <c r="A503" s="27" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="B503" s="27" t="s">
         <v>1301</v>
@@ -16128,7 +16132,7 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="27" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="B504" s="27" t="s">
         <v>1302</v>
@@ -16136,7 +16140,7 @@
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="27" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="B505" s="27" t="s">
         <v>1303</v>
@@ -16144,7 +16148,7 @@
     </row>
     <row r="506" spans="1:3">
       <c r="A506" s="27" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="B506" s="27" t="s">
         <v>1304</v>
@@ -16152,7 +16156,7 @@
     </row>
     <row r="507" spans="1:3">
       <c r="A507" s="27" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="B507" s="27" t="s">
         <v>1305</v>
@@ -16160,7 +16164,7 @@
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="27" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="B509" s="27" t="s">
         <v>1306</v>
@@ -16171,7 +16175,7 @@
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="27" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="B510" s="27" t="s">
         <v>1307</v>
@@ -16180,7 +16184,7 @@
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="27" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="B511" s="27" t="s">
         <v>1308</v>
@@ -16188,7 +16192,7 @@
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="27" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="B512" s="27" t="s">
         <v>1309</v>
@@ -16196,7 +16200,7 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="27" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="B513" s="27" t="s">
         <v>1310</v>
@@ -16204,7 +16208,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="27" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B514" s="27" t="s">
         <v>1311</v>
@@ -16212,7 +16216,7 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="27" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B515" s="27" t="s">
         <v>1312</v>
@@ -16220,7 +16224,7 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="27" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="B516" s="27" t="s">
         <v>1313</v>
@@ -16228,7 +16232,7 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="27" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B517" s="27" t="s">
         <v>1314</v>
@@ -16236,7 +16240,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="27" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B518" s="27" t="s">
         <v>1315</v>
@@ -16244,7 +16248,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="27" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="B519" s="27" t="s">
         <v>1316</v>
@@ -16263,10 +16267,10 @@
   <dimension ref="A1:O378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E353" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D320" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J371" sqref="J371"/>
+      <selection pane="bottomRight" activeCell="D334" sqref="D334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -16308,7 +16312,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>450</v>
@@ -22867,7 +22871,7 @@
         <v>0</v>
       </c>
       <c r="C192" s="40" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D192" s="40" t="s">
         <v>790</v>
@@ -26119,7 +26123,7 @@
         <v>1615248000</v>
       </c>
       <c r="L289" s="72" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="73" customFormat="1">
@@ -26153,7 +26157,7 @@
         <v>1615248000</v>
       </c>
       <c r="L290" s="71" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="73" customFormat="1">
@@ -26167,7 +26171,7 @@
         <v>1633</v>
       </c>
       <c r="D291" s="102" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="E291" s="71"/>
       <c r="F291" s="71"/>
@@ -26187,7 +26191,7 @@
         <v>1615248000</v>
       </c>
       <c r="L291" s="71" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="73" customFormat="1">
@@ -26201,7 +26205,7 @@
         <v>1827</v>
       </c>
       <c r="D292" s="101" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="E292" s="71"/>
       <c r="F292" s="71"/>
@@ -26221,7 +26225,7 @@
         <v>1615248000</v>
       </c>
       <c r="L292" s="71" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -26584,7 +26588,7 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="D304" s="30" t="s">
         <v>1660</v>
@@ -27133,7 +27137,7 @@
         <v>1714</v>
       </c>
       <c r="D321" s="101" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="E321" s="102"/>
       <c r="F321" s="102"/>
@@ -27243,7 +27247,7 @@
         <v>1</v>
       </c>
       <c r="J324" s="16" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="K324" s="26">
         <v>1598916600</v>
@@ -27435,7 +27439,7 @@
         <v>1</v>
       </c>
       <c r="J330" s="30" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="K330" s="26">
         <v>0</v>
@@ -27484,7 +27488,7 @@
         <v>0</v>
       </c>
       <c r="C332" s="87" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D332" s="87" t="s">
         <v>1807</v>
@@ -27550,10 +27554,10 @@
         <v>1</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>1832</v>
+        <v>2216</v>
       </c>
       <c r="E334" s="17"/>
       <c r="F334" s="17"/>
@@ -27584,10 +27588,10 @@
         <v>1</v>
       </c>
       <c r="C335" s="16" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D335" s="16" t="s">
         <v>1873</v>
-      </c>
-      <c r="D335" s="16" t="s">
-        <v>1874</v>
       </c>
       <c r="E335" s="17"/>
       <c r="F335" s="17"/>
@@ -27618,10 +27622,10 @@
         <v>1</v>
       </c>
       <c r="C336" s="16" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D336" s="16" t="s">
         <v>1875</v>
-      </c>
-      <c r="D336" s="16" t="s">
-        <v>1876</v>
       </c>
       <c r="E336" s="17"/>
       <c r="F336" s="17"/>
@@ -27635,7 +27639,7 @@
         <v>1</v>
       </c>
       <c r="J336" s="16" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="K336" s="17">
         <v>1606176000</v>
@@ -27652,10 +27656,10 @@
         <v>1</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="D337" s="30" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G337" s="17">
         <v>349</v>
@@ -27684,10 +27688,10 @@
         <v>1</v>
       </c>
       <c r="C338" s="30" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="D338" s="30" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="E338" s="17"/>
       <c r="F338" s="17"/>
@@ -27718,10 +27722,10 @@
         <v>1</v>
       </c>
       <c r="C339" s="72" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D339" s="30" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="G339" s="26">
         <v>357</v>
@@ -27750,10 +27754,10 @@
         <v>1</v>
       </c>
       <c r="C340" s="72" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="D340" s="30" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="G340" s="26">
         <v>358</v>
@@ -27782,10 +27786,10 @@
         <v>1</v>
       </c>
       <c r="C341" s="72" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D341" s="30" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="G341" s="26">
         <v>359</v>
@@ -27814,10 +27818,10 @@
         <v>1</v>
       </c>
       <c r="C342" s="72" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="D342" s="30" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="G342" s="26">
         <v>361</v>
@@ -27846,10 +27850,10 @@
         <v>1</v>
       </c>
       <c r="C343" s="72" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="D343" s="30" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="G343" s="26">
         <v>362</v>
@@ -27878,10 +27882,10 @@
         <v>1</v>
       </c>
       <c r="C344" s="72" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="D344" s="30" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="G344" s="26">
         <v>363</v>
@@ -27910,10 +27914,10 @@
         <v>1</v>
       </c>
       <c r="C345" s="72" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D345" s="30" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="G345" s="26">
         <v>364</v>
@@ -27925,7 +27929,7 @@
         <v>1</v>
       </c>
       <c r="J345" s="16" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="K345" s="17">
         <v>1598889600</v>
@@ -27942,10 +27946,10 @@
         <v>1</v>
       </c>
       <c r="C346" s="30" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D346" s="78" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="G346" s="26">
         <v>365</v>
@@ -27974,10 +27978,10 @@
         <v>1</v>
       </c>
       <c r="C347" s="30" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D347" s="78" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="G347" s="26">
         <v>366</v>
@@ -28006,10 +28010,10 @@
         <v>1</v>
       </c>
       <c r="C348" s="101" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D348" s="101" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="E348" s="17"/>
       <c r="F348" s="17"/>
@@ -28040,10 +28044,10 @@
         <v>0</v>
       </c>
       <c r="C349" s="16" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D349" s="16" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="E349" s="16"/>
       <c r="F349" s="16"/>
@@ -28057,13 +28061,13 @@
         <v>1</v>
       </c>
       <c r="J349" s="16" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="K349" s="16">
         <v>1610409600</v>
       </c>
       <c r="L349" s="16" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="350" spans="1:12" s="45" customFormat="1">
@@ -28074,10 +28078,10 @@
         <v>0</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D350" s="16" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="E350" s="16"/>
       <c r="F350" s="16"/>
@@ -28091,13 +28095,13 @@
         <v>1</v>
       </c>
       <c r="J350" s="16" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="K350" s="16">
         <v>1610409600</v>
       </c>
       <c r="L350" s="16" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="351" spans="1:12" s="45" customFormat="1">
@@ -28108,10 +28112,10 @@
         <v>1</v>
       </c>
       <c r="C351" s="66" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D351" s="66" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="E351" s="66"/>
       <c r="F351" s="66"/>
@@ -28125,13 +28129,13 @@
         <v>1</v>
       </c>
       <c r="J351" s="66" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="K351" s="66">
         <v>1610380800</v>
       </c>
       <c r="L351" s="66" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="352" spans="1:12" s="45" customFormat="1">
@@ -28142,10 +28146,10 @@
         <v>1</v>
       </c>
       <c r="C352" s="66" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D352" s="66" t="s">
         <v>2003</v>
-      </c>
-      <c r="D352" s="66" t="s">
-        <v>2004</v>
       </c>
       <c r="E352" s="66"/>
       <c r="F352" s="66"/>
@@ -28159,13 +28163,13 @@
         <v>1</v>
       </c>
       <c r="J352" s="66" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="K352" s="66">
         <v>1610380800</v>
       </c>
       <c r="L352" s="66" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="353" spans="1:12" s="45" customFormat="1">
@@ -28176,10 +28180,10 @@
         <v>1</v>
       </c>
       <c r="C353" s="106" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="D353" s="16" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="E353" s="16"/>
       <c r="F353" s="16"/>
@@ -28210,10 +28214,10 @@
         <v>0</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="D354" s="16" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="E354" s="16"/>
       <c r="F354" s="16"/>
@@ -28233,7 +28237,7 @@
         <v>1611014400</v>
       </c>
       <c r="L354" s="16" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="355" spans="1:12" s="45" customFormat="1">
@@ -28244,10 +28248,10 @@
         <v>0</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="D355" s="16" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="E355" s="16"/>
       <c r="F355" s="16"/>
@@ -28267,7 +28271,7 @@
         <v>1611014400</v>
       </c>
       <c r="L355" s="16" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="356" spans="1:12" s="45" customFormat="1">
@@ -28278,10 +28282,10 @@
         <v>0</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D356" s="16" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="E356" s="16"/>
       <c r="F356" s="16"/>
@@ -28301,7 +28305,7 @@
         <v>1611014400</v>
       </c>
       <c r="L356" s="16" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="357" spans="1:12" s="45" customFormat="1">
@@ -28312,10 +28316,10 @@
         <v>0</v>
       </c>
       <c r="C357" s="106" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D357" s="16" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="E357" s="16"/>
       <c r="F357" s="16"/>
@@ -28346,10 +28350,10 @@
         <v>0</v>
       </c>
       <c r="C358" s="16" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D358" s="16" t="s">
         <v>2062</v>
-      </c>
-      <c r="D358" s="16" t="s">
-        <v>2063</v>
       </c>
       <c r="E358" s="16"/>
       <c r="F358" s="16"/>
@@ -28369,7 +28373,7 @@
         <v>1611590400</v>
       </c>
       <c r="L358" s="16" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="359" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -28380,10 +28384,10 @@
         <v>0</v>
       </c>
       <c r="C359" s="108" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D359" s="16" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="E359" s="16"/>
       <c r="F359" s="16"/>
@@ -28403,7 +28407,7 @@
         <v>1611590400</v>
       </c>
       <c r="L359" s="16" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="360" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -28414,10 +28418,10 @@
         <v>0</v>
       </c>
       <c r="C360" s="108" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D360" s="16" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="E360" s="16"/>
       <c r="F360" s="16"/>
@@ -28437,7 +28441,7 @@
         <v>1611590400</v>
       </c>
       <c r="L360" s="16" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="361" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -28448,10 +28452,10 @@
         <v>0</v>
       </c>
       <c r="C361" s="108" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D361" s="16" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="E361" s="16"/>
       <c r="F361" s="16"/>
@@ -28471,7 +28475,7 @@
         <v>1611590400</v>
       </c>
       <c r="L361" s="16" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="362" spans="1:12" s="45" customFormat="1">
@@ -28482,10 +28486,10 @@
         <v>0</v>
       </c>
       <c r="C362" s="106" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="D362" s="16" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="E362" s="16"/>
       <c r="F362" s="16"/>
@@ -28516,10 +28520,10 @@
         <v>0</v>
       </c>
       <c r="C363" s="31" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="D363" s="16" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="E363" s="17"/>
       <c r="F363" s="17"/>
@@ -28539,7 +28543,7 @@
         <v>1612828800</v>
       </c>
       <c r="L363" s="16" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="364" spans="1:12" s="22" customFormat="1">
@@ -28550,10 +28554,10 @@
         <v>0</v>
       </c>
       <c r="C364" s="31" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="D364" s="16" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="E364" s="17"/>
       <c r="F364" s="17"/>
@@ -28573,7 +28577,7 @@
         <v>1612828800</v>
       </c>
       <c r="L364" s="16" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="365" spans="1:12" s="22" customFormat="1">
@@ -28584,10 +28588,10 @@
         <v>0</v>
       </c>
       <c r="C365" s="31" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D365" s="16" t="s">
         <v>2097</v>
-      </c>
-      <c r="D365" s="16" t="s">
-        <v>2098</v>
       </c>
       <c r="E365" s="17"/>
       <c r="F365" s="17"/>
@@ -28607,7 +28611,7 @@
         <v>1612828800</v>
       </c>
       <c r="L365" s="16" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="366" spans="1:12" s="22" customFormat="1">
@@ -28618,10 +28622,10 @@
         <v>1</v>
       </c>
       <c r="C366" s="66" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="D366" s="66" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="E366" s="65"/>
       <c r="F366" s="65"/>
@@ -28641,7 +28645,7 @@
         <v>1615852800</v>
       </c>
       <c r="L366" s="66" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="367" spans="1:12" s="22" customFormat="1">
@@ -28652,10 +28656,10 @@
         <v>1</v>
       </c>
       <c r="C367" s="66" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D367" s="66" t="s">
         <v>2118</v>
-      </c>
-      <c r="D367" s="66" t="s">
-        <v>2119</v>
       </c>
       <c r="E367" s="65"/>
       <c r="F367" s="65"/>
@@ -28675,7 +28679,7 @@
         <v>1615852800</v>
       </c>
       <c r="L367" s="66" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="368" spans="1:12" s="22" customFormat="1">
@@ -28686,10 +28690,10 @@
         <v>0</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="D368" s="16" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="E368" s="17"/>
       <c r="F368" s="17"/>
@@ -28709,7 +28713,7 @@
         <v>1615248000</v>
       </c>
       <c r="L368" s="16" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="369" spans="1:12" s="22" customFormat="1">
@@ -28720,10 +28724,10 @@
         <v>0</v>
       </c>
       <c r="C369" s="16" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D369" s="16" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="E369" s="17"/>
       <c r="F369" s="17"/>
@@ -28743,7 +28747,7 @@
         <v>1615248000</v>
       </c>
       <c r="L369" s="16" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="370" spans="1:12" s="22" customFormat="1">
@@ -28754,10 +28758,10 @@
         <v>1</v>
       </c>
       <c r="C370" s="16" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D370" s="16" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="E370" s="17"/>
       <c r="F370" s="17"/>
@@ -28788,10 +28792,10 @@
         <v>1</v>
       </c>
       <c r="C371" s="16" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D371" s="16" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="E371" s="17"/>
       <c r="F371" s="17"/>
@@ -28822,10 +28826,10 @@
         <v>1</v>
       </c>
       <c r="C372" s="58" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="D372" s="66" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="E372" s="65"/>
       <c r="F372" s="65"/>
@@ -28845,7 +28849,7 @@
         <v>1615824000</v>
       </c>
       <c r="L372" s="66" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="373" spans="1:12" s="67" customFormat="1">
@@ -28856,10 +28860,10 @@
         <v>1</v>
       </c>
       <c r="C373" s="58" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="D373" s="66" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="E373" s="65"/>
       <c r="F373" s="65"/>
@@ -28879,7 +28883,7 @@
         <v>1615824000</v>
       </c>
       <c r="L373" s="66" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -28890,10 +28894,10 @@
         <v>1</v>
       </c>
       <c r="C374" s="26" t="s">
+        <v>2135</v>
+      </c>
+      <c r="D374" s="26" t="s">
         <v>2136</v>
-      </c>
-      <c r="D374" s="26" t="s">
-        <v>2137</v>
       </c>
       <c r="G374" s="26">
         <v>405</v>
@@ -28905,7 +28909,7 @@
         <v>1</v>
       </c>
       <c r="J374" s="26" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="K374" s="26">
         <v>1615248000</v>
@@ -28919,10 +28923,10 @@
         <v>1</v>
       </c>
       <c r="C375" s="66" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="D375" s="66" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="E375" s="65"/>
       <c r="F375" s="65"/>
@@ -28942,7 +28946,7 @@
         <v>1615824000</v>
       </c>
       <c r="L375" s="66" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -28953,10 +28957,10 @@
         <v>1</v>
       </c>
       <c r="C376" s="66" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="D376" s="66" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="E376" s="65"/>
       <c r="F376" s="65"/>
@@ -28976,7 +28980,7 @@
         <v>1615824000</v>
       </c>
       <c r="L376" s="66" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -28987,10 +28991,10 @@
         <v>1</v>
       </c>
       <c r="C377" s="66" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="D377" s="66" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="E377" s="65"/>
       <c r="F377" s="65"/>
@@ -29010,7 +29014,7 @@
         <v>1615824000</v>
       </c>
       <c r="L377" s="66" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -29021,10 +29025,10 @@
         <v>1</v>
       </c>
       <c r="C378" s="66" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="D378" s="66" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="E378" s="65"/>
       <c r="F378" s="65"/>
@@ -29044,7 +29048,7 @@
         <v>1615824000</v>
       </c>
       <c r="L378" s="66" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
   </sheetData>
@@ -29058,13 +29062,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I988"/>
+  <dimension ref="A1:I989"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C858" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C831" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D833" sqref="D833"/>
+      <selection pane="bottomRight" activeCell="D846" sqref="D846"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -31261,7 +31265,7 @@
         <v>852</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="E94" s="8">
         <v>2</v>
@@ -32559,7 +32563,7 @@
         <v>1032</v>
       </c>
       <c r="D150" s="97" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="E150" s="96">
         <v>2</v>
@@ -32568,7 +32572,7 @@
         <v>4</v>
       </c>
       <c r="G150" s="97" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="H150" s="8"/>
       <c r="I150" s="8"/>
@@ -33251,7 +33255,7 @@
         <v>1032</v>
       </c>
       <c r="D180" s="80" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="E180" s="14">
         <v>2</v>
@@ -33683,7 +33687,7 @@
         <v>1032</v>
       </c>
       <c r="D198" s="91" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="E198" s="89">
         <v>2</v>
@@ -43188,7 +43192,7 @@
         <v>1142</v>
       </c>
       <c r="D600" s="15" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="E600" s="14">
         <v>2</v>
@@ -43338,7 +43342,7 @@
         <v>1142</v>
       </c>
       <c r="D606" s="15" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="E606" s="14">
         <v>2</v>
@@ -43488,7 +43492,7 @@
         <v>1142</v>
       </c>
       <c r="D612" s="15" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="E612" s="14">
         <v>2</v>
@@ -43638,7 +43642,7 @@
         <v>1142</v>
       </c>
       <c r="D618" s="15" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="E618" s="14">
         <v>2</v>
@@ -43788,7 +43792,7 @@
         <v>1142</v>
       </c>
       <c r="D624" s="15" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="E624" s="14">
         <v>2</v>
@@ -43938,7 +43942,7 @@
         <v>1142</v>
       </c>
       <c r="D630" s="15" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="E630" s="14">
         <v>2</v>
@@ -46544,7 +46548,7 @@
         <v>2</v>
       </c>
       <c r="G735" s="19" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="H735" s="8"/>
       <c r="I735" s="8"/>
@@ -46744,7 +46748,7 @@
         <v>2</v>
       </c>
       <c r="G743" s="19" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="H743" s="8"/>
       <c r="I743" s="8"/>
@@ -48285,7 +48289,7 @@
         <v>1032</v>
       </c>
       <c r="D805" s="9" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="E805" s="9">
         <v>5</v>
@@ -48360,7 +48364,7 @@
         <v>1032</v>
       </c>
       <c r="D808" s="10" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="E808" s="9">
         <v>5</v>
@@ -48710,7 +48714,7 @@
         <v>1032</v>
       </c>
       <c r="D822" s="9" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="E822" s="9">
         <v>2</v>
@@ -48810,7 +48814,7 @@
         <v>1032</v>
       </c>
       <c r="D826" s="10" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="E826" s="8">
         <v>2</v>
@@ -48819,7 +48823,7 @@
         <v>4</v>
       </c>
       <c r="G826" s="10" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="H826" s="8"/>
       <c r="I826" s="8"/>
@@ -48860,7 +48864,7 @@
         <v>1032</v>
       </c>
       <c r="D828" s="9" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="E828" s="9">
         <v>5</v>
@@ -48910,7 +48914,7 @@
         <v>1032</v>
       </c>
       <c r="D830" s="9" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="E830" s="9">
         <v>5</v>
@@ -49035,7 +49039,7 @@
         <v>1032</v>
       </c>
       <c r="D835" s="9" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="E835" s="9">
         <v>5</v>
@@ -49085,7 +49089,7 @@
         <v>1032</v>
       </c>
       <c r="D837" s="9" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="E837" s="9">
         <v>2</v>
@@ -49135,7 +49139,7 @@
         <v>1032</v>
       </c>
       <c r="D839" s="9" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="E839" s="9">
         <v>2</v>
@@ -49185,7 +49189,7 @@
         <v>1032</v>
       </c>
       <c r="D841" s="9" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="E841" s="9">
         <v>5</v>
@@ -49285,7 +49289,7 @@
         <v>1032</v>
       </c>
       <c r="D845" s="14" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="E845" s="14">
         <v>5</v>
@@ -49303,181 +49307,181 @@
       <c r="A846" s="8">
         <v>845</v>
       </c>
-      <c r="B846" s="8">
-        <v>339</v>
-      </c>
-      <c r="C846" s="10" t="s">
-        <v>1838</v>
-      </c>
-      <c r="D846" s="10" t="s">
-        <v>1837</v>
-      </c>
-      <c r="E846" s="8">
-        <v>2</v>
-      </c>
-      <c r="F846" s="8">
-        <v>1</v>
-      </c>
-      <c r="G846" s="10" t="s">
-        <v>1839</v>
-      </c>
-      <c r="H846" s="8" t="s">
-        <v>859</v>
-      </c>
-      <c r="I846" s="8" t="s">
-        <v>860</v>
-      </c>
+      <c r="B846" s="14">
+        <v>338</v>
+      </c>
+      <c r="C846" s="14" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D846" s="15" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E846" s="14">
+        <v>5</v>
+      </c>
+      <c r="F846" s="14">
+        <v>1</v>
+      </c>
+      <c r="G846" s="14" t="s">
+        <v>1830</v>
+      </c>
+      <c r="H846" s="8"/>
+      <c r="I846" s="8"/>
     </row>
     <row r="847" spans="1:9">
       <c r="A847" s="8">
         <v>846</v>
       </c>
       <c r="B847" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C847" s="10" t="s">
-        <v>1146</v>
+        <v>1837</v>
       </c>
       <c r="D847" s="10" t="s">
-        <v>1900</v>
+        <v>1836</v>
       </c>
       <c r="E847" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F847" s="8">
         <v>1</v>
       </c>
       <c r="G847" s="10" t="s">
-        <v>1878</v>
-      </c>
-      <c r="H847" s="8"/>
-      <c r="I847" s="8"/>
+        <v>1838</v>
+      </c>
+      <c r="H847" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="I847" s="8" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="848" spans="1:9">
       <c r="A848" s="8">
         <v>847</v>
       </c>
       <c r="B848" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C848" s="10" t="s">
         <v>1146</v>
       </c>
       <c r="D848" s="10" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="E848" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F848" s="8">
         <v>1</v>
       </c>
       <c r="G848" s="10" t="s">
-        <v>1889</v>
-      </c>
-      <c r="H848" s="8" t="s">
-        <v>863</v>
-      </c>
-      <c r="I848" s="8" t="s">
-        <v>864</v>
-      </c>
+        <v>1877</v>
+      </c>
+      <c r="H848" s="8"/>
+      <c r="I848" s="8"/>
     </row>
     <row r="849" spans="1:9">
       <c r="A849" s="8">
         <v>848</v>
       </c>
-      <c r="B849" s="94">
-        <v>342</v>
-      </c>
-      <c r="C849" s="95" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D849" s="95" t="s">
-        <v>1890</v>
-      </c>
-      <c r="E849" s="94">
-        <v>2</v>
-      </c>
-      <c r="F849" s="94">
-        <v>1</v>
-      </c>
-      <c r="G849" s="95" t="s">
-        <v>1891</v>
-      </c>
-      <c r="H849" s="8"/>
-      <c r="I849" s="8"/>
-    </row>
-    <row r="850" spans="1:9" s="84" customFormat="1">
+      <c r="B849" s="8">
+        <v>341</v>
+      </c>
+      <c r="C849" s="10" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D849" s="10" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E849" s="8">
+        <v>2</v>
+      </c>
+      <c r="F849" s="8">
+        <v>1</v>
+      </c>
+      <c r="G849" s="10" t="s">
+        <v>1888</v>
+      </c>
+      <c r="H849" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="I849" s="8" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="850" spans="1:9">
       <c r="A850" s="8">
         <v>849</v>
       </c>
       <c r="B850" s="94">
         <v>342</v>
       </c>
-      <c r="C850" s="94" t="s">
-        <v>865</v>
-      </c>
-      <c r="D850" s="94">
-        <v>1</v>
+      <c r="C850" s="95" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D850" s="95" t="s">
+        <v>1889</v>
       </c>
       <c r="E850" s="94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F850" s="94">
         <v>1</v>
       </c>
       <c r="G850" s="95" t="s">
-        <v>1881</v>
+        <v>1890</v>
       </c>
       <c r="H850" s="8"/>
       <c r="I850" s="8"/>
     </row>
-    <row r="851" spans="1:9">
+    <row r="851" spans="1:9" s="84" customFormat="1">
       <c r="A851" s="8">
         <v>850</v>
       </c>
       <c r="B851" s="94">
         <v>342</v>
       </c>
-      <c r="C851" s="95" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D851" s="95" t="s">
-        <v>1887</v>
+      <c r="C851" s="94" t="s">
+        <v>865</v>
+      </c>
+      <c r="D851" s="94">
+        <v>1</v>
       </c>
       <c r="E851" s="94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F851" s="94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G851" s="95" t="s">
-        <v>1663</v>
+        <v>1880</v>
       </c>
       <c r="H851" s="8"/>
       <c r="I851" s="8"/>
     </row>
-    <row r="852" spans="1:9" s="92" customFormat="1">
+    <row r="852" spans="1:9">
       <c r="A852" s="8">
         <v>851</v>
       </c>
       <c r="B852" s="94">
         <v>342</v>
       </c>
-      <c r="C852" s="94" t="s">
-        <v>865</v>
-      </c>
-      <c r="D852" s="94">
-        <v>1</v>
+      <c r="C852" s="95" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D852" s="95" t="s">
+        <v>1886</v>
       </c>
       <c r="E852" s="94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F852" s="94">
         <v>2</v>
       </c>
       <c r="G852" s="95" t="s">
-        <v>1881</v>
+        <v>1663</v>
       </c>
       <c r="H852" s="8"/>
       <c r="I852" s="8"/>
@@ -49489,17 +49493,17 @@
       <c r="B853" s="94">
         <v>342</v>
       </c>
-      <c r="C853" s="95" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D853" s="95" t="s">
-        <v>1888</v>
+      <c r="C853" s="94" t="s">
+        <v>865</v>
+      </c>
+      <c r="D853" s="94">
+        <v>1</v>
       </c>
       <c r="E853" s="94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F853" s="94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G853" s="95" t="s">
         <v>1880</v>
@@ -49514,25 +49518,25 @@
       <c r="B854" s="94">
         <v>342</v>
       </c>
-      <c r="C854" s="94" t="s">
-        <v>865</v>
-      </c>
-      <c r="D854" s="94">
-        <v>1</v>
+      <c r="C854" s="95" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D854" s="95" t="s">
+        <v>1887</v>
       </c>
       <c r="E854" s="94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F854" s="94">
         <v>3</v>
       </c>
       <c r="G854" s="95" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="H854" s="8"/>
       <c r="I854" s="8"/>
     </row>
-    <row r="855" spans="1:9" s="14" customFormat="1">
+    <row r="855" spans="1:9" s="92" customFormat="1">
       <c r="A855" s="8">
         <v>854</v>
       </c>
@@ -49540,24 +49544,24 @@
         <v>342</v>
       </c>
       <c r="C855" s="94" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D855" s="94" t="s">
-        <v>1900</v>
+        <v>865</v>
+      </c>
+      <c r="D855" s="94">
+        <v>1</v>
       </c>
       <c r="E855" s="94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F855" s="94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G855" s="95" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="H855" s="8"/>
       <c r="I855" s="8"/>
     </row>
-    <row r="856" spans="1:9" s="8" customFormat="1">
+    <row r="856" spans="1:9" s="14" customFormat="1">
       <c r="A856" s="8">
         <v>855</v>
       </c>
@@ -49565,42 +49569,44 @@
         <v>342</v>
       </c>
       <c r="C856" s="94" t="s">
-        <v>865</v>
-      </c>
-      <c r="D856" s="94">
-        <v>1</v>
+        <v>1032</v>
+      </c>
+      <c r="D856" s="94" t="s">
+        <v>1899</v>
       </c>
       <c r="E856" s="94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F856" s="94">
         <v>4</v>
       </c>
       <c r="G856" s="95" t="s">
-        <v>1892</v>
-      </c>
+        <v>1880</v>
+      </c>
+      <c r="H856" s="8"/>
+      <c r="I856" s="8"/>
     </row>
     <row r="857" spans="1:9" s="8" customFormat="1">
       <c r="A857" s="8">
         <v>856</v>
       </c>
-      <c r="B857" s="9">
-        <v>343</v>
-      </c>
-      <c r="C857" s="49" t="s">
-        <v>1893</v>
-      </c>
-      <c r="D857" s="9">
-        <v>1</v>
-      </c>
-      <c r="E857" s="9">
+      <c r="B857" s="94">
+        <v>342</v>
+      </c>
+      <c r="C857" s="94" t="s">
+        <v>865</v>
+      </c>
+      <c r="D857" s="94">
+        <v>1</v>
+      </c>
+      <c r="E857" s="94">
         <v>3</v>
       </c>
-      <c r="F857" s="9">
-        <v>1</v>
-      </c>
-      <c r="G857" s="10" t="s">
-        <v>1894</v>
+      <c r="F857" s="94">
+        <v>4</v>
+      </c>
+      <c r="G857" s="95" t="s">
+        <v>1891</v>
       </c>
     </row>
     <row r="858" spans="1:9" s="8" customFormat="1">
@@ -49610,46 +49616,44 @@
       <c r="B858" s="9">
         <v>343</v>
       </c>
-      <c r="C858" s="10" t="s">
-        <v>1877</v>
-      </c>
-      <c r="D858" s="10" t="s">
-        <v>1879</v>
-      </c>
-      <c r="E858" s="8">
-        <v>5</v>
-      </c>
-      <c r="F858" s="8">
+      <c r="C858" s="49" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D858" s="9">
+        <v>1</v>
+      </c>
+      <c r="E858" s="9">
+        <v>3</v>
+      </c>
+      <c r="F858" s="9">
         <v>1</v>
       </c>
       <c r="G858" s="10" t="s">
-        <v>1883</v>
-      </c>
-    </row>
-    <row r="859" spans="1:9" s="94" customFormat="1">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="859" spans="1:9" s="8" customFormat="1">
       <c r="A859" s="8">
         <v>858</v>
       </c>
-      <c r="B859" s="8">
+      <c r="B859" s="9">
         <v>343</v>
       </c>
       <c r="C859" s="10" t="s">
-        <v>1884</v>
-      </c>
-      <c r="D859" s="8">
-        <v>9</v>
+        <v>1876</v>
+      </c>
+      <c r="D859" s="10" t="s">
+        <v>1878</v>
       </c>
       <c r="E859" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F859" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G859" s="10" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H859" s="8"/>
-      <c r="I859" s="8"/>
+        <v>1882</v>
+      </c>
     </row>
     <row r="860" spans="1:9" s="94" customFormat="1">
       <c r="A860" s="8">
@@ -49659,19 +49663,19 @@
         <v>343</v>
       </c>
       <c r="C860" s="10" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D860" s="10" t="s">
-        <v>1903</v>
+        <v>1883</v>
+      </c>
+      <c r="D860" s="8">
+        <v>9</v>
       </c>
       <c r="E860" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F860" s="8">
         <v>2</v>
       </c>
       <c r="G860" s="10" t="s">
-        <v>1885</v>
+        <v>1894</v>
       </c>
       <c r="H860" s="8"/>
       <c r="I860" s="8"/>
@@ -49687,16 +49691,16 @@
         <v>1146</v>
       </c>
       <c r="D861" s="10" t="s">
-        <v>1882</v>
+        <v>1902</v>
       </c>
       <c r="E861" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F861" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G861" s="10" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="H861" s="8"/>
       <c r="I861" s="8"/>
@@ -49712,16 +49716,16 @@
         <v>1146</v>
       </c>
       <c r="D862" s="10" t="s">
-        <v>1900</v>
+        <v>1881</v>
       </c>
       <c r="E862" s="8">
         <v>2</v>
       </c>
       <c r="F862" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G862" s="10" t="s">
-        <v>1886</v>
+        <v>1882</v>
       </c>
       <c r="H862" s="8"/>
       <c r="I862" s="8"/>
@@ -49731,22 +49735,22 @@
         <v>862</v>
       </c>
       <c r="B863" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C863" s="10" t="s">
-        <v>852</v>
+        <v>1146</v>
       </c>
       <c r="D863" s="10" t="s">
-        <v>1928</v>
+        <v>1899</v>
       </c>
       <c r="E863" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F863" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G863" s="10" t="s">
-        <v>999</v>
+        <v>1885</v>
       </c>
       <c r="H863" s="8"/>
       <c r="I863" s="8"/>
@@ -49762,16 +49766,16 @@
         <v>852</v>
       </c>
       <c r="D864" s="10" t="s">
-        <v>1000</v>
+        <v>1927</v>
       </c>
       <c r="E864" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F864" s="8">
         <v>1</v>
       </c>
       <c r="G864" s="10" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="H864" s="8"/>
       <c r="I864" s="8"/>
@@ -49784,10 +49788,10 @@
         <v>344</v>
       </c>
       <c r="C865" s="10" t="s">
-        <v>1032</v>
+        <v>852</v>
       </c>
       <c r="D865" s="10" t="s">
-        <v>1929</v>
+        <v>1000</v>
       </c>
       <c r="E865" s="8">
         <v>2</v>
@@ -49796,7 +49800,7 @@
         <v>1</v>
       </c>
       <c r="G865" s="10" t="s">
-        <v>1079</v>
+        <v>1001</v>
       </c>
       <c r="H865" s="8"/>
       <c r="I865" s="8"/>
@@ -49809,44 +49813,44 @@
         <v>344</v>
       </c>
       <c r="C866" s="10" t="s">
-        <v>899</v>
-      </c>
-      <c r="D866" s="8">
-        <v>600</v>
+        <v>1032</v>
+      </c>
+      <c r="D866" s="10" t="s">
+        <v>1928</v>
       </c>
       <c r="E866" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F866" s="8">
         <v>1</v>
       </c>
       <c r="G866" s="10" t="s">
-        <v>1002</v>
+        <v>1079</v>
       </c>
       <c r="H866" s="8"/>
       <c r="I866" s="8"/>
     </row>
-    <row r="867" spans="1:9">
+    <row r="867" spans="1:9" s="94" customFormat="1">
       <c r="A867" s="8">
         <v>866</v>
       </c>
       <c r="B867" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C867" s="10" t="s">
-        <v>852</v>
-      </c>
-      <c r="D867" s="10" t="s">
-        <v>1928</v>
+        <v>899</v>
+      </c>
+      <c r="D867" s="8">
+        <v>600</v>
       </c>
       <c r="E867" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F867" s="8">
         <v>1</v>
       </c>
       <c r="G867" s="10" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H867" s="8"/>
       <c r="I867" s="8"/>
@@ -49862,16 +49866,16 @@
         <v>852</v>
       </c>
       <c r="D868" s="10" t="s">
-        <v>1000</v>
+        <v>1927</v>
       </c>
       <c r="E868" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F868" s="8">
         <v>1</v>
       </c>
       <c r="G868" s="10" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H868" s="8"/>
       <c r="I868" s="8"/>
@@ -49884,19 +49888,19 @@
         <v>345</v>
       </c>
       <c r="C869" s="10" t="s">
-        <v>1032</v>
+        <v>852</v>
       </c>
       <c r="D869" s="10" t="s">
-        <v>1912</v>
+        <v>1000</v>
       </c>
       <c r="E869" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F869" s="8">
         <v>1</v>
       </c>
       <c r="G869" s="10" t="s">
-        <v>1068</v>
+        <v>1004</v>
       </c>
       <c r="H869" s="8"/>
       <c r="I869" s="8"/>
@@ -49909,44 +49913,44 @@
         <v>345</v>
       </c>
       <c r="C870" s="10" t="s">
-        <v>899</v>
-      </c>
-      <c r="D870" s="8">
-        <v>600</v>
+        <v>1032</v>
+      </c>
+      <c r="D870" s="10" t="s">
+        <v>1911</v>
       </c>
       <c r="E870" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F870" s="8">
         <v>1</v>
       </c>
       <c r="G870" s="10" t="s">
-        <v>1002</v>
+        <v>1068</v>
       </c>
       <c r="H870" s="8"/>
       <c r="I870" s="8"/>
     </row>
-    <row r="871" spans="1:9" s="14" customFormat="1">
+    <row r="871" spans="1:9">
       <c r="A871" s="8">
         <v>870</v>
       </c>
       <c r="B871" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C871" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D871" s="10" t="s">
-        <v>1901</v>
+        <v>899</v>
+      </c>
+      <c r="D871" s="8">
+        <v>600</v>
       </c>
       <c r="E871" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F871" s="8">
         <v>1</v>
       </c>
       <c r="G871" s="10" t="s">
-        <v>1907</v>
+        <v>1002</v>
       </c>
       <c r="H871" s="8"/>
       <c r="I871" s="8"/>
@@ -49958,25 +49962,25 @@
       <c r="B872" s="8">
         <v>346</v>
       </c>
-      <c r="C872" s="8" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D872" s="8" t="s">
-        <v>1902</v>
+      <c r="C872" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D872" s="10" t="s">
+        <v>1900</v>
       </c>
       <c r="E872" s="8">
         <v>2</v>
       </c>
       <c r="F872" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G872" s="10" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="H872" s="8"/>
       <c r="I872" s="8"/>
     </row>
-    <row r="873" spans="1:9" s="8" customFormat="1">
+    <row r="873" spans="1:9" s="14" customFormat="1">
       <c r="A873" s="8">
         <v>872</v>
       </c>
@@ -49986,18 +49990,20 @@
       <c r="C873" s="8" t="s">
         <v>1032</v>
       </c>
-      <c r="D873" s="10" t="s">
-        <v>1904</v>
+      <c r="D873" s="8" t="s">
+        <v>1901</v>
       </c>
       <c r="E873" s="8">
         <v>2</v>
       </c>
       <c r="F873" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G873" s="10" t="s">
-        <v>1909</v>
-      </c>
+        <v>1907</v>
+      </c>
+      <c r="H873" s="8"/>
+      <c r="I873" s="8"/>
     </row>
     <row r="874" spans="1:9" s="8" customFormat="1">
       <c r="A874" s="8">
@@ -50010,16 +50016,16 @@
         <v>1032</v>
       </c>
       <c r="D874" s="10" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="E874" s="8">
         <v>2</v>
       </c>
       <c r="F874" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G874" s="10" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="875" spans="1:9" s="8" customFormat="1">
@@ -50027,22 +50033,22 @@
         <v>874</v>
       </c>
       <c r="B875" s="8">
-        <v>347</v>
-      </c>
-      <c r="C875" s="10" t="s">
-        <v>1146</v>
+        <v>346</v>
+      </c>
+      <c r="C875" s="8" t="s">
+        <v>1032</v>
       </c>
       <c r="D875" s="10" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="E875" s="8">
         <v>2</v>
       </c>
       <c r="F875" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G875" s="10" t="s">
-        <v>1885</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="876" spans="1:9" s="8" customFormat="1">
@@ -50050,22 +50056,22 @@
         <v>875</v>
       </c>
       <c r="B876" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C876" s="10" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="D876" s="10" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="E876" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F876" s="8">
         <v>1</v>
       </c>
       <c r="G876" s="10" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="877" spans="1:9" s="8" customFormat="1">
@@ -50073,22 +50079,22 @@
         <v>876</v>
       </c>
       <c r="B877" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C877" s="10" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="D877" s="10" t="s">
-        <v>1599</v>
+        <v>1902</v>
       </c>
       <c r="E877" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F877" s="8">
         <v>1</v>
       </c>
       <c r="G877" s="10" t="s">
-        <v>1920</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="878" spans="1:9" s="8" customFormat="1">
@@ -50096,13 +50102,13 @@
         <v>877</v>
       </c>
       <c r="B878" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C878" s="10" t="s">
         <v>1146</v>
       </c>
       <c r="D878" s="10" t="s">
-        <v>1815</v>
+        <v>1599</v>
       </c>
       <c r="E878" s="8">
         <v>2</v>
@@ -50111,7 +50117,7 @@
         <v>1</v>
       </c>
       <c r="G878" s="10" t="s">
-        <v>1511</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="879" spans="1:9" s="8" customFormat="1">
@@ -50119,22 +50125,22 @@
         <v>878</v>
       </c>
       <c r="B879" s="8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C879" s="10" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="D879" s="10" t="s">
-        <v>1897</v>
+        <v>1815</v>
       </c>
       <c r="E879" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F879" s="8">
         <v>1</v>
       </c>
       <c r="G879" s="10" t="s">
-        <v>1907</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="880" spans="1:9" s="8" customFormat="1">
@@ -50142,25 +50148,25 @@
         <v>879</v>
       </c>
       <c r="B880" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C880" s="10" t="s">
         <v>1142</v>
       </c>
       <c r="D880" s="10" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="E880" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F880" s="8">
         <v>1</v>
       </c>
       <c r="G880" s="10" t="s">
-        <v>1907</v>
-      </c>
-    </row>
-    <row r="881" spans="1:9">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="881" spans="1:9" s="8" customFormat="1">
       <c r="A881" s="8">
         <v>880</v>
       </c>
@@ -50168,22 +50174,20 @@
         <v>352</v>
       </c>
       <c r="C881" s="10" t="s">
-        <v>1935</v>
+        <v>1142</v>
       </c>
       <c r="D881" s="10" t="s">
-        <v>1599</v>
+        <v>1896</v>
       </c>
       <c r="E881" s="8">
         <v>2</v>
       </c>
       <c r="F881" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G881" s="10" t="s">
-        <v>1936</v>
-      </c>
-      <c r="H881" s="8"/>
-      <c r="I881" s="8"/>
+        <v>1906</v>
+      </c>
     </row>
     <row r="882" spans="1:9">
       <c r="A882" s="8">
@@ -50193,19 +50197,19 @@
         <v>352</v>
       </c>
       <c r="C882" s="10" t="s">
-        <v>1142</v>
+        <v>1934</v>
       </c>
       <c r="D882" s="10" t="s">
-        <v>1815</v>
+        <v>1599</v>
       </c>
       <c r="E882" s="8">
         <v>2</v>
       </c>
       <c r="F882" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G882" s="10" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="H882" s="8"/>
       <c r="I882" s="8"/>
@@ -50215,22 +50219,22 @@
         <v>882</v>
       </c>
       <c r="B883" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C883" s="10" t="s">
-        <v>1944</v>
+        <v>1142</v>
       </c>
       <c r="D883" s="10" t="s">
-        <v>1945</v>
+        <v>1815</v>
       </c>
       <c r="E883" s="8">
         <v>2</v>
       </c>
       <c r="F883" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G883" s="10" t="s">
-        <v>1946</v>
+        <v>1936</v>
       </c>
       <c r="H883" s="8"/>
       <c r="I883" s="8"/>
@@ -50240,22 +50244,22 @@
         <v>883</v>
       </c>
       <c r="B884" s="8">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C884" s="10" t="s">
-        <v>1142</v>
+        <v>1943</v>
       </c>
       <c r="D884" s="10" t="s">
-        <v>1815</v>
+        <v>1944</v>
       </c>
       <c r="E884" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F884" s="8">
         <v>1</v>
       </c>
       <c r="G884" s="10" t="s">
-        <v>1937</v>
+        <v>1945</v>
       </c>
       <c r="H884" s="8"/>
       <c r="I884" s="8"/>
@@ -50268,10 +50272,10 @@
         <v>354</v>
       </c>
       <c r="C885" s="10" t="s">
-        <v>1032</v>
+        <v>1142</v>
       </c>
       <c r="D885" s="10" t="s">
-        <v>1912</v>
+        <v>1815</v>
       </c>
       <c r="E885" s="8">
         <v>5</v>
@@ -50280,7 +50284,7 @@
         <v>1</v>
       </c>
       <c r="G885" s="10" t="s">
-        <v>1068</v>
+        <v>1936</v>
       </c>
       <c r="H885" s="8"/>
       <c r="I885" s="8"/>
@@ -50290,22 +50294,22 @@
         <v>885</v>
       </c>
       <c r="B886" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C886" s="10" t="s">
-        <v>899</v>
-      </c>
-      <c r="D886" s="8">
-        <v>100</v>
+        <v>1032</v>
+      </c>
+      <c r="D886" s="10" t="s">
+        <v>1911</v>
       </c>
       <c r="E886" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F886" s="8">
         <v>1</v>
       </c>
       <c r="G886" s="10" t="s">
-        <v>1951</v>
+        <v>1068</v>
       </c>
       <c r="H886" s="8"/>
       <c r="I886" s="8"/>
@@ -50318,19 +50322,19 @@
         <v>355</v>
       </c>
       <c r="C887" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D887" s="10" t="s">
-        <v>1818</v>
+        <v>899</v>
+      </c>
+      <c r="D887" s="8">
+        <v>100</v>
       </c>
       <c r="E887" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F887" s="8">
         <v>1</v>
       </c>
       <c r="G887" s="10" t="s">
-        <v>1511</v>
+        <v>1950</v>
       </c>
       <c r="H887" s="8"/>
       <c r="I887" s="8"/>
@@ -50343,19 +50347,19 @@
         <v>355</v>
       </c>
       <c r="C888" s="10" t="s">
-        <v>899</v>
-      </c>
-      <c r="D888" s="8">
-        <v>100</v>
+        <v>1142</v>
+      </c>
+      <c r="D888" s="10" t="s">
+        <v>1818</v>
       </c>
       <c r="E888" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F888" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G888" s="10" t="s">
-        <v>1951</v>
+        <v>1511</v>
       </c>
       <c r="H888" s="8"/>
       <c r="I888" s="8"/>
@@ -50368,19 +50372,19 @@
         <v>355</v>
       </c>
       <c r="C889" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D889" s="10" t="s">
-        <v>1912</v>
+        <v>899</v>
+      </c>
+      <c r="D889" s="8">
+        <v>100</v>
       </c>
       <c r="E889" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F889" s="8">
         <v>2</v>
       </c>
       <c r="G889" s="10" t="s">
-        <v>1511</v>
+        <v>1950</v>
       </c>
       <c r="H889" s="8"/>
       <c r="I889" s="8"/>
@@ -50390,22 +50394,22 @@
         <v>889</v>
       </c>
       <c r="B890" s="8">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C890" s="10" t="s">
         <v>1142</v>
       </c>
       <c r="D890" s="10" t="s">
-        <v>1956</v>
+        <v>1911</v>
       </c>
       <c r="E890" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F890" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G890" s="10" t="s">
-        <v>1957</v>
+        <v>1511</v>
       </c>
       <c r="H890" s="8"/>
       <c r="I890" s="8"/>
@@ -50418,19 +50422,19 @@
         <v>356</v>
       </c>
       <c r="C891" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D891" s="10">
-        <v>2</v>
+        <v>1142</v>
+      </c>
+      <c r="D891" s="10" t="s">
+        <v>1955</v>
       </c>
       <c r="E891" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F891" s="8">
         <v>1</v>
       </c>
       <c r="G891" s="10" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="H891" s="8"/>
       <c r="I891" s="8"/>
@@ -50440,16 +50444,16 @@
         <v>891</v>
       </c>
       <c r="B892" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C892" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D892" s="10" t="s">
-        <v>1956</v>
+        <v>1117</v>
+      </c>
+      <c r="D892" s="10">
+        <v>2</v>
       </c>
       <c r="E892" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F892" s="8">
         <v>1</v>
@@ -50468,24 +50472,24 @@
         <v>357</v>
       </c>
       <c r="C893" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D893" s="10">
-        <v>3</v>
+        <v>1142</v>
+      </c>
+      <c r="D893" s="10" t="s">
+        <v>1955</v>
       </c>
       <c r="E893" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F893" s="8">
         <v>1</v>
       </c>
       <c r="G893" s="10" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="H893" s="8"/>
       <c r="I893" s="8"/>
     </row>
-    <row r="894" spans="1:9" s="8" customFormat="1">
+    <row r="894" spans="1:9">
       <c r="A894" s="8">
         <v>893</v>
       </c>
@@ -50496,33 +50500,35 @@
         <v>1117</v>
       </c>
       <c r="D894" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E894" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F894" s="8">
         <v>1</v>
       </c>
       <c r="G894" s="10" t="s">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="895" spans="1:9">
+        <v>1957</v>
+      </c>
+      <c r="H894" s="8"/>
+      <c r="I894" s="8"/>
+    </row>
+    <row r="895" spans="1:9" s="8" customFormat="1">
       <c r="A895" s="8">
         <v>894</v>
       </c>
       <c r="B895" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C895" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D895" s="10" t="s">
-        <v>1956</v>
+        <v>1117</v>
+      </c>
+      <c r="D895" s="10">
+        <v>5</v>
       </c>
       <c r="E895" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F895" s="8">
         <v>1</v>
@@ -50530,8 +50536,6 @@
       <c r="G895" s="10" t="s">
         <v>1957</v>
       </c>
-      <c r="H895" s="8"/>
-      <c r="I895" s="8"/>
     </row>
     <row r="896" spans="1:9">
       <c r="A896" s="8">
@@ -50541,19 +50545,19 @@
         <v>358</v>
       </c>
       <c r="C896" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D896" s="10">
-        <v>6</v>
+        <v>1142</v>
+      </c>
+      <c r="D896" s="10" t="s">
+        <v>1955</v>
       </c>
       <c r="E896" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F896" s="8">
         <v>1</v>
       </c>
       <c r="G896" s="10" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="H896" s="8"/>
       <c r="I896" s="8"/>
@@ -50569,16 +50573,16 @@
         <v>1117</v>
       </c>
       <c r="D897" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E897" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F897" s="8">
         <v>1</v>
       </c>
       <c r="G897" s="10" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="H897" s="8"/>
       <c r="I897" s="8"/>
@@ -50588,16 +50592,16 @@
         <v>897</v>
       </c>
       <c r="B898" s="8">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C898" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D898" s="10" t="s">
-        <v>1956</v>
+        <v>1117</v>
+      </c>
+      <c r="D898" s="10">
+        <v>7</v>
       </c>
       <c r="E898" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F898" s="8">
         <v>1</v>
@@ -50616,19 +50620,19 @@
         <v>359</v>
       </c>
       <c r="C899" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D899" s="10">
-        <v>8</v>
+        <v>1142</v>
+      </c>
+      <c r="D899" s="10" t="s">
+        <v>1955</v>
       </c>
       <c r="E899" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F899" s="8">
         <v>1</v>
       </c>
       <c r="G899" s="10" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="H899" s="8"/>
       <c r="I899" s="8"/>
@@ -50638,16 +50642,16 @@
         <v>899</v>
       </c>
       <c r="B900" s="8">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C900" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D900" s="10" t="s">
-        <v>1956</v>
+        <v>1117</v>
+      </c>
+      <c r="D900" s="10">
+        <v>8</v>
       </c>
       <c r="E900" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F900" s="8">
         <v>1</v>
@@ -50666,10 +50670,10 @@
         <v>360</v>
       </c>
       <c r="C901" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D901" s="10">
-        <v>2</v>
+        <v>1142</v>
+      </c>
+      <c r="D901" s="10" t="s">
+        <v>1955</v>
       </c>
       <c r="E901" s="8">
         <v>2</v>
@@ -50678,23 +50682,23 @@
         <v>1</v>
       </c>
       <c r="G901" s="10" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="H901" s="8"/>
       <c r="I901" s="8"/>
     </row>
-    <row r="902" spans="1:9" s="8" customFormat="1">
+    <row r="902" spans="1:9">
       <c r="A902" s="8">
         <v>901</v>
       </c>
       <c r="B902" s="8">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C902" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D902" s="10" t="s">
-        <v>1956</v>
+        <v>1117</v>
+      </c>
+      <c r="D902" s="10">
+        <v>2</v>
       </c>
       <c r="E902" s="8">
         <v>2</v>
@@ -50705,6 +50709,8 @@
       <c r="G902" s="10" t="s">
         <v>1957</v>
       </c>
+      <c r="H902" s="8"/>
+      <c r="I902" s="8"/>
     </row>
     <row r="903" spans="1:9" s="8" customFormat="1">
       <c r="A903" s="8">
@@ -50714,19 +50720,19 @@
         <v>361</v>
       </c>
       <c r="C903" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D903" s="10">
-        <v>3</v>
+        <v>1142</v>
+      </c>
+      <c r="D903" s="10" t="s">
+        <v>1955</v>
       </c>
       <c r="E903" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F903" s="8">
         <v>1</v>
       </c>
       <c r="G903" s="10" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="904" spans="1:9" s="8" customFormat="1">
@@ -50740,16 +50746,16 @@
         <v>1117</v>
       </c>
       <c r="D904" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E904" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F904" s="8">
         <v>1</v>
       </c>
       <c r="G904" s="10" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="905" spans="1:9" s="8" customFormat="1">
@@ -50757,16 +50763,16 @@
         <v>904</v>
       </c>
       <c r="B905" s="8">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C905" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D905" s="10" t="s">
-        <v>1956</v>
+        <v>1117</v>
+      </c>
+      <c r="D905" s="10">
+        <v>5</v>
       </c>
       <c r="E905" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F905" s="8">
         <v>1</v>
@@ -50783,19 +50789,19 @@
         <v>362</v>
       </c>
       <c r="C906" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D906" s="10">
-        <v>6</v>
+        <v>1142</v>
+      </c>
+      <c r="D906" s="10" t="s">
+        <v>1955</v>
       </c>
       <c r="E906" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F906" s="8">
         <v>1</v>
       </c>
       <c r="G906" s="10" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="907" spans="1:9" s="8" customFormat="1">
@@ -50809,16 +50815,16 @@
         <v>1117</v>
       </c>
       <c r="D907" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E907" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F907" s="8">
         <v>1</v>
       </c>
       <c r="G907" s="10" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="908" spans="1:9" s="8" customFormat="1">
@@ -50826,16 +50832,16 @@
         <v>907</v>
       </c>
       <c r="B908" s="8">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C908" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D908" s="10" t="s">
-        <v>1956</v>
+        <v>1117</v>
+      </c>
+      <c r="D908" s="10">
+        <v>7</v>
       </c>
       <c r="E908" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F908" s="8">
         <v>1</v>
@@ -50852,19 +50858,19 @@
         <v>363</v>
       </c>
       <c r="C909" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D909" s="10">
-        <v>8</v>
+        <v>1142</v>
+      </c>
+      <c r="D909" s="10" t="s">
+        <v>1955</v>
       </c>
       <c r="E909" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F909" s="8">
         <v>1</v>
       </c>
       <c r="G909" s="10" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="910" spans="1:9" s="8" customFormat="1">
@@ -50872,22 +50878,22 @@
         <v>909</v>
       </c>
       <c r="B910" s="8">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C910" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D910" s="10" t="s">
-        <v>1955</v>
+        <v>1117</v>
+      </c>
+      <c r="D910" s="10">
+        <v>8</v>
       </c>
       <c r="E910" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F910" s="8">
         <v>1</v>
       </c>
       <c r="G910" s="10" t="s">
-        <v>2057</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="911" spans="1:9" s="8" customFormat="1">
@@ -50898,19 +50904,19 @@
         <v>364</v>
       </c>
       <c r="C911" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D911" s="10">
-        <v>2</v>
+        <v>1142</v>
+      </c>
+      <c r="D911" s="10" t="s">
+        <v>1954</v>
       </c>
       <c r="E911" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F911" s="8">
         <v>1</v>
       </c>
       <c r="G911" s="10" t="s">
-        <v>1958</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="912" spans="1:9" s="8" customFormat="1">
@@ -50921,19 +50927,19 @@
         <v>364</v>
       </c>
       <c r="C912" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D912" s="10" t="s">
-        <v>1969</v>
+        <v>1117</v>
+      </c>
+      <c r="D912" s="10">
+        <v>2</v>
       </c>
       <c r="E912" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F912" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G912" s="10" t="s">
-        <v>2000</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="913" spans="1:7" s="8" customFormat="1">
@@ -50944,19 +50950,19 @@
         <v>364</v>
       </c>
       <c r="C913" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D913" s="10">
-        <v>2</v>
+        <v>1142</v>
+      </c>
+      <c r="D913" s="10" t="s">
+        <v>1968</v>
       </c>
       <c r="E913" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F913" s="8">
         <v>2</v>
       </c>
       <c r="G913" s="10" t="s">
-        <v>1958</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="914" spans="1:7" s="8" customFormat="1">
@@ -50964,22 +50970,22 @@
         <v>913</v>
       </c>
       <c r="B914" s="8">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C914" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D914" s="10">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E914" s="8">
         <v>3</v>
       </c>
       <c r="F914" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G914" s="10" t="s">
-        <v>1974</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="915" spans="1:7" s="8" customFormat="1">
@@ -50987,13 +50993,13 @@
         <v>914</v>
       </c>
       <c r="B915" s="8">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C915" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D915" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E915" s="8">
         <v>3</v>
@@ -51002,7 +51008,7 @@
         <v>1</v>
       </c>
       <c r="G915" s="10" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="916" spans="1:7" s="8" customFormat="1">
@@ -51010,22 +51016,22 @@
         <v>915</v>
       </c>
       <c r="B916" s="8">
-        <v>367</v>
-      </c>
-      <c r="C916" s="8" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D916" s="8" t="s">
-        <v>1656</v>
+        <v>366</v>
+      </c>
+      <c r="C916" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D916" s="10">
+        <v>12</v>
       </c>
       <c r="E916" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F916" s="8">
         <v>1</v>
       </c>
-      <c r="G916" s="8" t="s">
-        <v>1980</v>
+      <c r="G916" s="10" t="s">
+        <v>1974</v>
       </c>
     </row>
     <row r="917" spans="1:7" s="8" customFormat="1">
@@ -51033,22 +51039,22 @@
         <v>916</v>
       </c>
       <c r="B917" s="8">
-        <v>368</v>
-      </c>
-      <c r="C917" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D917" s="10" t="s">
-        <v>1897</v>
+        <v>367</v>
+      </c>
+      <c r="C917" s="8" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D917" s="8" t="s">
+        <v>1656</v>
       </c>
       <c r="E917" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F917" s="8">
         <v>1</v>
       </c>
-      <c r="G917" s="10" t="s">
-        <v>2001</v>
+      <c r="G917" s="8" t="s">
+        <v>1979</v>
       </c>
     </row>
     <row r="918" spans="1:7" s="8" customFormat="1">
@@ -51059,19 +51065,19 @@
         <v>368</v>
       </c>
       <c r="C918" s="10" t="s">
-        <v>1984</v>
+        <v>1142</v>
       </c>
       <c r="D918" s="10" t="s">
-        <v>1985</v>
+        <v>1896</v>
       </c>
       <c r="E918" s="8">
         <v>2</v>
       </c>
       <c r="F918" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G918" s="10" t="s">
-        <v>1986</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="919" spans="1:7" s="8" customFormat="1">
@@ -51079,22 +51085,22 @@
         <v>918</v>
       </c>
       <c r="B919" s="8">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C919" s="10" t="s">
-        <v>1142</v>
+        <v>1983</v>
       </c>
       <c r="D919" s="10" t="s">
-        <v>1968</v>
+        <v>1984</v>
       </c>
       <c r="E919" s="8">
         <v>2</v>
       </c>
       <c r="F919" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G919" s="10" t="s">
-        <v>2000</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="920" spans="1:7" s="8" customFormat="1">
@@ -51108,16 +51114,16 @@
         <v>1142</v>
       </c>
       <c r="D920" s="10" t="s">
-        <v>1993</v>
+        <v>1967</v>
       </c>
       <c r="E920" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F920" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G920" s="10" t="s">
-        <v>1983</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="921" spans="1:7" s="8" customFormat="1">
@@ -51125,22 +51131,22 @@
         <v>920</v>
       </c>
       <c r="B921" s="8">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C921" s="10" t="s">
         <v>1142</v>
       </c>
       <c r="D921" s="10" t="s">
-        <v>1955</v>
+        <v>1992</v>
       </c>
       <c r="E921" s="8">
         <v>5</v>
       </c>
       <c r="F921" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G921" s="10" t="s">
-        <v>1778</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="922" spans="1:7" s="8" customFormat="1">
@@ -51148,45 +51154,45 @@
         <v>921</v>
       </c>
       <c r="B922" s="8">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C922" s="10" t="s">
         <v>1142</v>
       </c>
       <c r="D922" s="10" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E922" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F922" s="8">
         <v>1</v>
       </c>
       <c r="G922" s="10" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="923" spans="1:7" s="20" customFormat="1">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="923" spans="1:7" s="8" customFormat="1">
       <c r="A923" s="8">
         <v>922</v>
       </c>
-      <c r="B923" s="20">
-        <v>372</v>
-      </c>
-      <c r="C923" s="21" t="s">
+      <c r="B923" s="8">
+        <v>371</v>
+      </c>
+      <c r="C923" s="10" t="s">
         <v>1142</v>
       </c>
-      <c r="D923" s="21" t="s">
-        <v>1955</v>
-      </c>
-      <c r="E923" s="20">
-        <v>5</v>
-      </c>
-      <c r="F923" s="20">
-        <v>1</v>
-      </c>
-      <c r="G923" s="21" t="s">
-        <v>1778</v>
+      <c r="D923" s="10" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E923" s="8">
+        <v>2</v>
+      </c>
+      <c r="F923" s="8">
+        <v>1</v>
+      </c>
+      <c r="G923" s="10" t="s">
+        <v>1716</v>
       </c>
     </row>
     <row r="924" spans="1:7" s="20" customFormat="1">
@@ -51194,45 +51200,45 @@
         <v>923</v>
       </c>
       <c r="B924" s="20">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C924" s="21" t="s">
         <v>1142</v>
       </c>
       <c r="D924" s="21" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E924" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F924" s="20">
         <v>1</v>
       </c>
       <c r="G924" s="21" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="925" spans="1:7" s="8" customFormat="1">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="925" spans="1:7" s="20" customFormat="1">
       <c r="A925" s="8">
         <v>924</v>
       </c>
-      <c r="B925" s="8">
-        <v>374</v>
-      </c>
-      <c r="C925" s="10" t="s">
-        <v>2007</v>
-      </c>
-      <c r="D925" s="10" t="s">
-        <v>1900</v>
-      </c>
-      <c r="E925" s="8">
-        <v>5</v>
-      </c>
-      <c r="F925" s="8">
-        <v>1</v>
-      </c>
-      <c r="G925" s="10" t="s">
-        <v>1957</v>
+      <c r="B925" s="20">
+        <v>373</v>
+      </c>
+      <c r="C925" s="21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D925" s="21" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E925" s="20">
+        <v>2</v>
+      </c>
+      <c r="F925" s="20">
+        <v>1</v>
+      </c>
+      <c r="G925" s="21" t="s">
+        <v>1716</v>
       </c>
     </row>
     <row r="926" spans="1:7" s="8" customFormat="1">
@@ -51240,22 +51246,22 @@
         <v>925</v>
       </c>
       <c r="B926" s="8">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C926" s="10" t="s">
-        <v>1984</v>
+        <v>2006</v>
       </c>
       <c r="D926" s="10" t="s">
-        <v>1599</v>
+        <v>1899</v>
       </c>
       <c r="E926" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F926" s="8">
         <v>1</v>
       </c>
       <c r="G926" s="10" t="s">
-        <v>2017</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="927" spans="1:7" s="8" customFormat="1">
@@ -51266,19 +51272,19 @@
         <v>375</v>
       </c>
       <c r="C927" s="10" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D927" s="10" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E927" s="8">
+        <v>2</v>
+      </c>
+      <c r="F927" s="8">
+        <v>1</v>
+      </c>
+      <c r="G927" s="10" t="s">
         <v>2016</v>
-      </c>
-      <c r="E927" s="8">
-        <v>2</v>
-      </c>
-      <c r="F927" s="8">
-        <v>2</v>
-      </c>
-      <c r="G927" s="10" t="s">
-        <v>2018</v>
       </c>
     </row>
     <row r="928" spans="1:7" s="8" customFormat="1">
@@ -51286,22 +51292,22 @@
         <v>927</v>
       </c>
       <c r="B928" s="8">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C928" s="10" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D928" s="10" t="s">
-        <v>1817</v>
+        <v>2015</v>
       </c>
       <c r="E928" s="8">
         <v>2</v>
       </c>
       <c r="F928" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G928" s="10" t="s">
-        <v>2025</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="929" spans="1:8" s="8" customFormat="1">
@@ -51309,13 +51315,13 @@
         <v>928</v>
       </c>
       <c r="B929" s="8">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C929" s="10" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D929" s="10" t="s">
-        <v>1897</v>
+        <v>1817</v>
       </c>
       <c r="E929" s="8">
         <v>2</v>
@@ -51332,13 +51338,13 @@
         <v>929</v>
       </c>
       <c r="B930" s="8">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C930" s="10" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D930" s="10" t="s">
-        <v>1921</v>
+        <v>1896</v>
       </c>
       <c r="E930" s="8">
         <v>2</v>
@@ -51355,13 +51361,13 @@
         <v>930</v>
       </c>
       <c r="B931" s="8">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C931" s="10" t="s">
-        <v>1143</v>
+        <v>1983</v>
       </c>
       <c r="D931" s="10" t="s">
-        <v>1955</v>
+        <v>1920</v>
       </c>
       <c r="E931" s="8">
         <v>2</v>
@@ -51370,7 +51376,7 @@
         <v>1</v>
       </c>
       <c r="G931" s="10" t="s">
-        <v>2001</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="932" spans="1:8" s="8" customFormat="1">
@@ -51381,10 +51387,10 @@
         <v>379</v>
       </c>
       <c r="C932" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D932" s="10">
-        <v>0</v>
+        <v>1143</v>
+      </c>
+      <c r="D932" s="10" t="s">
+        <v>1954</v>
       </c>
       <c r="E932" s="8">
         <v>2</v>
@@ -51393,34 +51399,33 @@
         <v>1</v>
       </c>
       <c r="G932" s="10" t="s">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="933" spans="1:8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="933" spans="1:8" s="8" customFormat="1">
       <c r="A933" s="8">
         <v>932</v>
       </c>
       <c r="B933" s="8">
-        <v>380</v>
-      </c>
-      <c r="C933" s="8" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D933" s="8" t="s">
-        <v>1656</v>
+        <v>379</v>
+      </c>
+      <c r="C933" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D933" s="10">
+        <v>0</v>
       </c>
       <c r="E933" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F933" s="8">
         <v>1</v>
       </c>
-      <c r="G933" s="8" t="s">
-        <v>1980</v>
-      </c>
-      <c r="H933" s="8"/>
-    </row>
-    <row r="934" spans="1:8" ht="16.5">
+      <c r="G933" s="10" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="934" spans="1:8">
       <c r="A934" s="8">
         <v>933</v>
       </c>
@@ -51428,23 +51433,23 @@
         <v>380</v>
       </c>
       <c r="C934" s="8" t="s">
-        <v>2028</v>
-      </c>
-      <c r="D934" s="104" t="s">
-        <v>2029</v>
+        <v>1032</v>
+      </c>
+      <c r="D934" s="8" t="s">
+        <v>1656</v>
       </c>
       <c r="E934" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F934" s="8">
         <v>1</v>
       </c>
       <c r="G934" s="8" t="s">
-        <v>2030</v>
+        <v>1979</v>
       </c>
       <c r="H934" s="8"/>
     </row>
-    <row r="935" spans="1:8">
+    <row r="935" spans="1:8" ht="16.5">
       <c r="A935" s="8">
         <v>934</v>
       </c>
@@ -51452,19 +51457,19 @@
         <v>380</v>
       </c>
       <c r="C935" s="8" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D935" s="8" t="s">
-        <v>1902</v>
+        <v>2027</v>
+      </c>
+      <c r="D935" s="104" t="s">
+        <v>2028</v>
       </c>
       <c r="E935" s="8">
         <v>2</v>
       </c>
       <c r="F935" s="8">
-        <v>2</v>
-      </c>
-      <c r="G935" s="10" t="s">
-        <v>2031</v>
+        <v>1</v>
+      </c>
+      <c r="G935" s="8" t="s">
+        <v>2029</v>
       </c>
       <c r="H935" s="8"/>
     </row>
@@ -51476,10 +51481,10 @@
         <v>380</v>
       </c>
       <c r="C936" s="8" t="s">
-        <v>2032</v>
-      </c>
-      <c r="D936" s="10" t="s">
-        <v>2033</v>
+        <v>1032</v>
+      </c>
+      <c r="D936" s="8" t="s">
+        <v>1901</v>
       </c>
       <c r="E936" s="8">
         <v>2</v>
@@ -51487,46 +51492,47 @@
       <c r="F936" s="8">
         <v>2</v>
       </c>
-      <c r="G936" s="8" t="s">
-        <v>2034</v>
+      <c r="G936" s="10" t="s">
+        <v>2030</v>
       </c>
       <c r="H936" s="8"/>
     </row>
-    <row r="937" spans="1:8" s="8" customFormat="1">
+    <row r="937" spans="1:8">
       <c r="A937" s="8">
         <v>936</v>
       </c>
       <c r="B937" s="8">
-        <v>381</v>
-      </c>
-      <c r="C937" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D937" s="10">
-        <v>0</v>
+        <v>380</v>
+      </c>
+      <c r="C937" s="8" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D937" s="10" t="s">
+        <v>2032</v>
       </c>
       <c r="E937" s="8">
         <v>2</v>
       </c>
       <c r="F937" s="8">
-        <v>1</v>
-      </c>
-      <c r="G937" s="10" t="s">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="938" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="G937" s="8" t="s">
+        <v>2033</v>
+      </c>
+      <c r="H937" s="8"/>
+    </row>
+    <row r="938" spans="1:8" s="8" customFormat="1">
       <c r="A938" s="8">
         <v>937</v>
       </c>
       <c r="B938" s="8">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C938" s="10" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D938" s="10" t="s">
-        <v>1212</v>
+        <v>1117</v>
+      </c>
+      <c r="D938" s="10">
+        <v>0</v>
       </c>
       <c r="E938" s="8">
         <v>2</v>
@@ -51535,9 +51541,8 @@
         <v>1</v>
       </c>
       <c r="G938" s="10" t="s">
-        <v>1176</v>
-      </c>
-      <c r="H938" s="8"/>
+        <v>2025</v>
+      </c>
     </row>
     <row r="939" spans="1:8">
       <c r="A939" s="8">
@@ -51547,19 +51552,19 @@
         <v>382</v>
       </c>
       <c r="C939" s="10" t="s">
-        <v>852</v>
+        <v>1052</v>
       </c>
       <c r="D939" s="10" t="s">
-        <v>857</v>
+        <v>1212</v>
       </c>
       <c r="E939" s="8">
         <v>2</v>
       </c>
       <c r="F939" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G939" s="10" t="s">
-        <v>2043</v>
+        <v>1176</v>
       </c>
       <c r="H939" s="8"/>
     </row>
@@ -51574,16 +51579,16 @@
         <v>852</v>
       </c>
       <c r="D940" s="10" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E940" s="8">
         <v>2</v>
       </c>
       <c r="F940" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G940" s="10" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="H940" s="8"/>
     </row>
@@ -51592,22 +51597,22 @@
         <v>940</v>
       </c>
       <c r="B941" s="8">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C941" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D941" s="8">
-        <v>1</v>
+        <v>852</v>
+      </c>
+      <c r="D941" s="10" t="s">
+        <v>861</v>
       </c>
       <c r="E941" s="8">
+        <v>2</v>
+      </c>
+      <c r="F941" s="8">
         <v>3</v>
       </c>
-      <c r="F941" s="8">
-        <v>1</v>
-      </c>
       <c r="G941" s="10" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="H941" s="8"/>
     </row>
@@ -51622,16 +51627,16 @@
         <v>1117</v>
       </c>
       <c r="D942" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E942" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F942" s="8">
         <v>1</v>
       </c>
       <c r="G942" s="10" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="H942" s="8"/>
     </row>
@@ -51642,20 +51647,20 @@
       <c r="B943" s="8">
         <v>383</v>
       </c>
-      <c r="C943" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D943" s="8" t="s">
-        <v>853</v>
+      <c r="C943" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D943" s="8">
+        <v>7</v>
       </c>
       <c r="E943" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F943" s="8">
         <v>1</v>
       </c>
       <c r="G943" s="10" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="H943" s="8"/>
     </row>
@@ -51664,22 +51669,22 @@
         <v>943</v>
       </c>
       <c r="B944" s="8">
-        <v>384</v>
-      </c>
-      <c r="C944" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D944" s="8">
-        <v>8</v>
+        <v>383</v>
+      </c>
+      <c r="C944" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D944" s="8" t="s">
+        <v>853</v>
       </c>
       <c r="E944" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F944" s="8">
         <v>1</v>
       </c>
       <c r="G944" s="10" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="H944" s="8"/>
     </row>
@@ -51694,16 +51699,16 @@
         <v>1117</v>
       </c>
       <c r="D945" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E945" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F945" s="8">
         <v>1</v>
       </c>
       <c r="G945" s="10" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="H945" s="8"/>
     </row>
@@ -51714,113 +51719,114 @@
       <c r="B946" s="8">
         <v>384</v>
       </c>
-      <c r="C946" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D946" s="8" t="s">
-        <v>853</v>
+      <c r="C946" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D946" s="8">
+        <v>12</v>
       </c>
       <c r="E946" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F946" s="8">
         <v>1</v>
       </c>
       <c r="G946" s="10" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="H946" s="8"/>
     </row>
-    <row r="947" spans="1:8" s="8" customFormat="1">
+    <row r="947" spans="1:8">
       <c r="A947" s="8">
         <v>946</v>
       </c>
       <c r="B947" s="8">
-        <v>385</v>
-      </c>
-      <c r="C947" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D947" s="10">
-        <v>0</v>
+        <v>384</v>
+      </c>
+      <c r="C947" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D947" s="8" t="s">
+        <v>853</v>
       </c>
       <c r="E947" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F947" s="8">
         <v>1</v>
       </c>
       <c r="G947" s="10" t="s">
-        <v>2052</v>
-      </c>
+        <v>2046</v>
+      </c>
+      <c r="H947" s="8"/>
     </row>
     <row r="948" spans="1:8" s="8" customFormat="1">
       <c r="A948" s="8">
         <v>947</v>
       </c>
       <c r="B948" s="8">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C948" s="10" t="s">
-        <v>2053</v>
+        <v>1117</v>
       </c>
       <c r="D948" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E948" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F948" s="8">
         <v>1</v>
       </c>
       <c r="G948" s="10" t="s">
-        <v>2054</v>
-      </c>
-    </row>
-    <row r="949" spans="1:8">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="949" spans="1:8" s="8" customFormat="1">
       <c r="A949" s="8">
         <v>948</v>
       </c>
-      <c r="B949" s="9">
-        <v>387</v>
-      </c>
-      <c r="C949" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D949" s="8" t="s">
-        <v>853</v>
-      </c>
-      <c r="E949" s="9">
-        <v>5</v>
-      </c>
-      <c r="F949" s="9">
-        <v>1</v>
-      </c>
-      <c r="G949" s="9" t="s">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="950" spans="1:8" s="8" customFormat="1">
+      <c r="B949" s="8">
+        <v>386</v>
+      </c>
+      <c r="C949" s="10" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D949" s="10">
+        <v>1</v>
+      </c>
+      <c r="E949" s="8">
+        <v>3</v>
+      </c>
+      <c r="F949" s="8">
+        <v>1</v>
+      </c>
+      <c r="G949" s="10" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="950" spans="1:8">
       <c r="A950" s="8">
         <v>949</v>
       </c>
-      <c r="B950" s="8">
-        <v>388</v>
-      </c>
-      <c r="C950" s="10" t="s">
-        <v>2065</v>
-      </c>
-      <c r="D950" s="10" t="s">
-        <v>2074</v>
-      </c>
-      <c r="E950" s="8">
+      <c r="B950" s="9">
+        <v>387</v>
+      </c>
+      <c r="C950" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D950" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="E950" s="9">
         <v>5</v>
       </c>
-      <c r="F950" s="8">
-        <v>1</v>
-      </c>
-      <c r="G950" s="10" t="s">
-        <v>911</v>
+      <c r="F950" s="9">
+        <v>1</v>
+      </c>
+      <c r="G950" s="9" t="s">
+        <v>2059</v>
       </c>
     </row>
     <row r="951" spans="1:8" s="8" customFormat="1">
@@ -51831,19 +51837,19 @@
         <v>388</v>
       </c>
       <c r="C951" s="10" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D951" s="10" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="E951" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F951" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G951" s="10" t="s">
-        <v>1176</v>
+        <v>911</v>
       </c>
     </row>
     <row r="952" spans="1:8" s="8" customFormat="1">
@@ -51851,19 +51857,19 @@
         <v>951</v>
       </c>
       <c r="B952" s="8">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C952" s="10" t="s">
-        <v>1052</v>
+        <v>2064</v>
       </c>
       <c r="D952" s="10" t="s">
-        <v>1212</v>
+        <v>2073</v>
       </c>
       <c r="E952" s="8">
         <v>2</v>
       </c>
       <c r="F952" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G952" s="10" t="s">
         <v>1176</v>
@@ -51877,19 +51883,19 @@
         <v>389</v>
       </c>
       <c r="C953" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D953" s="8">
-        <v>3</v>
+        <v>1052</v>
+      </c>
+      <c r="D953" s="10" t="s">
+        <v>1212</v>
       </c>
       <c r="E953" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F953" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G953" s="10" t="s">
-        <v>2072</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="954" spans="1:8" s="8" customFormat="1">
@@ -51897,22 +51903,22 @@
         <v>953</v>
       </c>
       <c r="B954" s="8">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C954" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D954" s="8">
+        <v>3</v>
+      </c>
+      <c r="E954" s="8">
         <v>4</v>
       </c>
-      <c r="E954" s="8">
-        <v>3</v>
-      </c>
       <c r="F954" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G954" s="10" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="955" spans="1:8" s="8" customFormat="1">
@@ -51926,16 +51932,16 @@
         <v>1117</v>
       </c>
       <c r="D955" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E955" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F955" s="8">
         <v>1</v>
       </c>
       <c r="G955" s="10" t="s">
-        <v>2046</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="956" spans="1:8" s="8" customFormat="1">
@@ -51945,20 +51951,20 @@
       <c r="B956" s="8">
         <v>390</v>
       </c>
-      <c r="C956" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D956" s="8" t="s">
-        <v>853</v>
+      <c r="C956" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D956" s="8">
+        <v>7</v>
       </c>
       <c r="E956" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F956" s="8">
         <v>1</v>
       </c>
       <c r="G956" s="10" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="957" spans="1:8" s="8" customFormat="1">
@@ -51966,22 +51972,22 @@
         <v>956</v>
       </c>
       <c r="B957" s="8">
-        <v>391</v>
-      </c>
-      <c r="C957" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D957" s="8">
-        <v>8</v>
+        <v>390</v>
+      </c>
+      <c r="C957" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D957" s="8" t="s">
+        <v>853</v>
       </c>
       <c r="E957" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F957" s="8">
         <v>1</v>
       </c>
       <c r="G957" s="10" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="958" spans="1:8" s="8" customFormat="1">
@@ -51992,19 +51998,19 @@
         <v>391</v>
       </c>
       <c r="C958" s="10" t="s">
-        <v>2115</v>
+        <v>1117</v>
       </c>
       <c r="D958" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E958" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F958" s="8">
         <v>1</v>
       </c>
       <c r="G958" s="10" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="959" spans="1:8" s="8" customFormat="1">
@@ -52014,20 +52020,20 @@
       <c r="B959" s="8">
         <v>391</v>
       </c>
-      <c r="C959" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D959" s="8" t="s">
-        <v>853</v>
+      <c r="C959" s="10" t="s">
+        <v>2114</v>
+      </c>
+      <c r="D959" s="8">
+        <v>12</v>
       </c>
       <c r="E959" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F959" s="8">
         <v>1</v>
       </c>
       <c r="G959" s="10" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="960" spans="1:8" s="8" customFormat="1">
@@ -52035,7 +52041,7 @@
         <v>959</v>
       </c>
       <c r="B960" s="8">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C960" s="8" t="s">
         <v>852</v>
@@ -52049,8 +52055,8 @@
       <c r="F960" s="8">
         <v>1</v>
       </c>
-      <c r="G960" s="8" t="s">
-        <v>2047</v>
+      <c r="G960" s="10" t="s">
+        <v>2046</v>
       </c>
     </row>
     <row r="961" spans="1:9" s="8" customFormat="1">
@@ -52058,13 +52064,13 @@
         <v>960</v>
       </c>
       <c r="B961" s="8">
-        <v>393</v>
-      </c>
-      <c r="C961" s="10" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D961" s="10" t="s">
-        <v>1955</v>
+        <v>392</v>
+      </c>
+      <c r="C961" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D961" s="8" t="s">
+        <v>853</v>
       </c>
       <c r="E961" s="8">
         <v>5</v>
@@ -52072,8 +52078,8 @@
       <c r="F961" s="8">
         <v>1</v>
       </c>
-      <c r="G961" s="10" t="s">
-        <v>2085</v>
+      <c r="G961" s="8" t="s">
+        <v>2046</v>
       </c>
     </row>
     <row r="962" spans="1:9" s="8" customFormat="1">
@@ -52081,22 +52087,22 @@
         <v>961</v>
       </c>
       <c r="B962" s="8">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C962" s="10" t="s">
         <v>1143</v>
       </c>
       <c r="D962" s="10" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E962" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F962" s="8">
         <v>1</v>
       </c>
       <c r="G962" s="10" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="963" spans="1:9" s="8" customFormat="1">
@@ -52104,13 +52110,13 @@
         <v>962</v>
       </c>
       <c r="B963" s="8">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C963" s="10" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D963" s="10" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E963" s="8">
         <v>2</v>
@@ -52119,7 +52125,7 @@
         <v>1</v>
       </c>
       <c r="G963" s="10" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="964" spans="1:9" s="8" customFormat="1">
@@ -52127,13 +52133,13 @@
         <v>963</v>
       </c>
       <c r="B964" s="8">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C964" s="10" t="s">
         <v>1142</v>
       </c>
-      <c r="D964" s="64" t="s">
-        <v>1815</v>
+      <c r="D964" s="10" t="s">
+        <v>1954</v>
       </c>
       <c r="E964" s="8">
         <v>2</v>
@@ -52141,8 +52147,8 @@
       <c r="F964" s="8">
         <v>1</v>
       </c>
-      <c r="G964" s="8" t="s">
-        <v>2100</v>
+      <c r="G964" s="10" t="s">
+        <v>2085</v>
       </c>
     </row>
     <row r="965" spans="1:9" s="8" customFormat="1">
@@ -52156,16 +52162,16 @@
         <v>1142</v>
       </c>
       <c r="D965" s="64" t="s">
-        <v>1912</v>
+        <v>1815</v>
       </c>
       <c r="E965" s="8">
         <v>2</v>
       </c>
       <c r="F965" s="8">
-        <v>2</v>
-      </c>
-      <c r="G965" s="10" t="s">
-        <v>2101</v>
+        <v>1</v>
+      </c>
+      <c r="G965" s="8" t="s">
+        <v>2099</v>
       </c>
     </row>
     <row r="966" spans="1:9" s="8" customFormat="1">
@@ -52173,22 +52179,22 @@
         <v>965</v>
       </c>
       <c r="B966" s="8">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C966" s="10" t="s">
         <v>1142</v>
       </c>
       <c r="D966" s="64" t="s">
-        <v>1955</v>
+        <v>1911</v>
       </c>
       <c r="E966" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F966" s="8">
         <v>2</v>
       </c>
       <c r="G966" s="10" t="s">
-        <v>2112</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="967" spans="1:9" s="8" customFormat="1">
@@ -52198,20 +52204,20 @@
       <c r="B967" s="8">
         <v>397</v>
       </c>
-      <c r="C967" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D967" s="8" t="s">
-        <v>853</v>
+      <c r="C967" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D967" s="64" t="s">
+        <v>1954</v>
       </c>
       <c r="E967" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F967" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G967" s="10" t="s">
-        <v>1839</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="968" spans="1:9" s="8" customFormat="1">
@@ -52219,22 +52225,22 @@
         <v>967</v>
       </c>
       <c r="B968" s="8">
-        <v>398</v>
-      </c>
-      <c r="C968" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D968" s="64" t="s">
-        <v>1955</v>
+        <v>397</v>
+      </c>
+      <c r="C968" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D968" s="8" t="s">
+        <v>853</v>
       </c>
       <c r="E968" s="8">
         <v>2</v>
       </c>
       <c r="F968" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G968" s="10" t="s">
-        <v>2113</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="969" spans="1:9" s="8" customFormat="1">
@@ -52244,46 +52250,44 @@
       <c r="B969" s="8">
         <v>398</v>
       </c>
-      <c r="C969" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D969" s="8" t="s">
-        <v>853</v>
+      <c r="C969" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D969" s="64" t="s">
+        <v>1954</v>
       </c>
       <c r="E969" s="8">
         <v>2</v>
       </c>
       <c r="F969" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G969" s="10" t="s">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="970" spans="1:9">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="970" spans="1:9" s="8" customFormat="1">
       <c r="A970" s="8">
         <v>969</v>
       </c>
-      <c r="B970" s="20">
-        <v>399</v>
-      </c>
-      <c r="C970" s="21" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D970" s="21" t="s">
-        <v>1900</v>
-      </c>
-      <c r="E970" s="20">
-        <v>5</v>
-      </c>
-      <c r="F970" s="20">
-        <v>1</v>
-      </c>
-      <c r="G970" s="21" t="s">
-        <v>1878</v>
-      </c>
-      <c r="H970" s="8"/>
-      <c r="I970" s="8"/>
+      <c r="B970" s="8">
+        <v>398</v>
+      </c>
+      <c r="C970" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D970" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="E970" s="8">
+        <v>2</v>
+      </c>
+      <c r="F970" s="8">
+        <v>1</v>
+      </c>
+      <c r="G970" s="10" t="s">
+        <v>1838</v>
+      </c>
     </row>
     <row r="971" spans="1:9">
       <c r="A971" s="8">
@@ -52293,19 +52297,19 @@
         <v>399</v>
       </c>
       <c r="C971" s="21" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D971" s="21">
+        <v>1142</v>
+      </c>
+      <c r="D971" s="21" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E971" s="20">
         <v>5</v>
       </c>
-      <c r="E971" s="20">
-        <v>3</v>
-      </c>
       <c r="F971" s="20">
         <v>1</v>
       </c>
       <c r="G971" s="21" t="s">
-        <v>2116</v>
+        <v>1877</v>
       </c>
       <c r="H971" s="8"/>
       <c r="I971" s="8"/>
@@ -52315,29 +52319,25 @@
         <v>971</v>
       </c>
       <c r="B972" s="20">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C972" s="21" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D972" s="21" t="s">
-        <v>1900</v>
+        <v>1129</v>
+      </c>
+      <c r="D972" s="21">
+        <v>5</v>
       </c>
       <c r="E972" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F972" s="20">
         <v>1</v>
       </c>
       <c r="G972" s="21" t="s">
-        <v>1889</v>
-      </c>
-      <c r="H972" s="8" t="s">
-        <v>863</v>
-      </c>
-      <c r="I972" s="8" t="s">
-        <v>864</v>
-      </c>
+        <v>2115</v>
+      </c>
+      <c r="H972" s="8"/>
+      <c r="I972" s="8"/>
     </row>
     <row r="973" spans="1:9">
       <c r="A973" s="8">
@@ -52347,19 +52347,19 @@
         <v>400</v>
       </c>
       <c r="C973" s="21" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D973" s="21">
-        <v>5</v>
+        <v>1142</v>
+      </c>
+      <c r="D973" s="21" t="s">
+        <v>1899</v>
       </c>
       <c r="E973" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F973" s="20">
         <v>1</v>
       </c>
       <c r="G973" s="21" t="s">
-        <v>2116</v>
+        <v>1888</v>
       </c>
       <c r="H973" s="8" t="s">
         <v>863</v>
@@ -52368,27 +52368,33 @@
         <v>864</v>
       </c>
     </row>
-    <row r="974" spans="1:9" s="8" customFormat="1">
+    <row r="974" spans="1:9">
       <c r="A974" s="8">
         <v>973</v>
       </c>
       <c r="B974" s="20">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C974" s="21" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D974" s="20">
+        <v>1129</v>
+      </c>
+      <c r="D974" s="21">
+        <v>5</v>
+      </c>
+      <c r="E974" s="20">
         <v>3</v>
       </c>
-      <c r="E974" s="20">
-        <v>4</v>
-      </c>
       <c r="F974" s="20">
         <v>1</v>
       </c>
       <c r="G974" s="21" t="s">
-        <v>2072</v>
+        <v>2115</v>
+      </c>
+      <c r="H974" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="I974" s="8" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="975" spans="1:9" s="8" customFormat="1">
@@ -52396,45 +52402,45 @@
         <v>974</v>
       </c>
       <c r="B975" s="20">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C975" s="21" t="s">
         <v>1117</v>
       </c>
       <c r="D975" s="20">
+        <v>3</v>
+      </c>
+      <c r="E975" s="20">
         <v>4</v>
       </c>
-      <c r="E975" s="20">
-        <v>3</v>
-      </c>
       <c r="F975" s="20">
         <v>1</v>
       </c>
       <c r="G975" s="21" t="s">
-        <v>2123</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="976" spans="1:9" s="8" customFormat="1">
       <c r="A976" s="8">
         <v>975</v>
       </c>
-      <c r="B976" s="8">
-        <v>403</v>
-      </c>
-      <c r="C976" s="95" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D976" s="95" t="s">
-        <v>1815</v>
-      </c>
-      <c r="E976" s="8">
-        <v>2</v>
-      </c>
-      <c r="F976" s="8">
-        <v>1</v>
-      </c>
-      <c r="G976" s="8" t="s">
-        <v>2132</v>
+      <c r="B976" s="20">
+        <v>402</v>
+      </c>
+      <c r="C976" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D976" s="20">
+        <v>4</v>
+      </c>
+      <c r="E976" s="20">
+        <v>3</v>
+      </c>
+      <c r="F976" s="20">
+        <v>1</v>
+      </c>
+      <c r="G976" s="21" t="s">
+        <v>2122</v>
       </c>
     </row>
     <row r="977" spans="1:7" s="8" customFormat="1">
@@ -52445,10 +52451,10 @@
         <v>403</v>
       </c>
       <c r="C977" s="95" t="s">
-        <v>1142</v>
+        <v>1032</v>
       </c>
       <c r="D977" s="95" t="s">
-        <v>1599</v>
+        <v>1815</v>
       </c>
       <c r="E977" s="8">
         <v>2</v>
@@ -52456,8 +52462,8 @@
       <c r="F977" s="8">
         <v>1</v>
       </c>
-      <c r="G977" s="10" t="s">
-        <v>2133</v>
+      <c r="G977" s="8" t="s">
+        <v>2131</v>
       </c>
     </row>
     <row r="978" spans="1:7" s="8" customFormat="1">
@@ -52465,13 +52471,13 @@
         <v>977</v>
       </c>
       <c r="B978" s="8">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C978" s="95" t="s">
-        <v>1032</v>
+        <v>1142</v>
       </c>
       <c r="D978" s="95" t="s">
-        <v>1815</v>
+        <v>1599</v>
       </c>
       <c r="E978" s="8">
         <v>2</v>
@@ -52479,7 +52485,7 @@
       <c r="F978" s="8">
         <v>1</v>
       </c>
-      <c r="G978" s="8" t="s">
+      <c r="G978" s="10" t="s">
         <v>2132</v>
       </c>
     </row>
@@ -52491,10 +52497,10 @@
         <v>404</v>
       </c>
       <c r="C979" s="95" t="s">
-        <v>1142</v>
+        <v>1032</v>
       </c>
       <c r="D979" s="95" t="s">
-        <v>2134</v>
+        <v>1815</v>
       </c>
       <c r="E979" s="8">
         <v>2</v>
@@ -52502,31 +52508,31 @@
       <c r="F979" s="8">
         <v>1</v>
       </c>
-      <c r="G979" s="10" t="s">
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="980" spans="1:7">
+      <c r="G979" s="8" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="980" spans="1:7" s="8" customFormat="1">
       <c r="A980" s="8">
         <v>979</v>
       </c>
-      <c r="B980" s="9">
-        <v>405</v>
-      </c>
-      <c r="C980" s="10" t="s">
-        <v>1533</v>
-      </c>
-      <c r="D980" s="8">
-        <v>1615248000</v>
-      </c>
-      <c r="E980" s="9">
-        <v>3</v>
-      </c>
-      <c r="F980" s="9">
-        <v>1</v>
-      </c>
-      <c r="G980" s="49" t="s">
-        <v>2139</v>
+      <c r="B980" s="8">
+        <v>404</v>
+      </c>
+      <c r="C980" s="95" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D980" s="95" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E980" s="8">
+        <v>2</v>
+      </c>
+      <c r="F980" s="8">
+        <v>1</v>
+      </c>
+      <c r="G980" s="10" t="s">
+        <v>2132</v>
       </c>
     </row>
     <row r="981" spans="1:7">
@@ -52534,22 +52540,22 @@
         <v>980</v>
       </c>
       <c r="B981" s="9">
-        <v>406</v>
-      </c>
-      <c r="C981" s="21" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D981" s="20">
+        <v>405</v>
+      </c>
+      <c r="C981" s="10" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D981" s="8">
+        <v>1615248000</v>
+      </c>
+      <c r="E981" s="9">
         <v>3</v>
       </c>
-      <c r="E981" s="20">
-        <v>4</v>
-      </c>
-      <c r="F981" s="20">
-        <v>1</v>
-      </c>
-      <c r="G981" s="21" t="s">
-        <v>2072</v>
+      <c r="F981" s="9">
+        <v>1</v>
+      </c>
+      <c r="G981" s="49" t="s">
+        <v>2138</v>
       </c>
     </row>
     <row r="982" spans="1:7">
@@ -52560,19 +52566,19 @@
         <v>406</v>
       </c>
       <c r="C982" s="21" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D982" s="21" t="s">
-        <v>1900</v>
+        <v>1117</v>
+      </c>
+      <c r="D982" s="20">
+        <v>3</v>
       </c>
       <c r="E982" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F982" s="20">
         <v>1</v>
       </c>
       <c r="G982" s="21" t="s">
-        <v>2152</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="983" spans="1:7">
@@ -52580,16 +52586,16 @@
         <v>982</v>
       </c>
       <c r="B983" s="9">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C983" s="21" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D983" s="20">
-        <v>4</v>
+        <v>1142</v>
+      </c>
+      <c r="D983" s="21" t="s">
+        <v>1899</v>
       </c>
       <c r="E983" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F983" s="20">
         <v>1</v>
@@ -52606,19 +52612,19 @@
         <v>407</v>
       </c>
       <c r="C984" s="21" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D984" s="21" t="s">
-        <v>1900</v>
+        <v>1117</v>
+      </c>
+      <c r="D984" s="20">
+        <v>4</v>
       </c>
       <c r="E984" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F984" s="20">
         <v>1</v>
       </c>
       <c r="G984" s="21" t="s">
-        <v>1874</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="985" spans="1:7">
@@ -52626,22 +52632,22 @@
         <v>984</v>
       </c>
       <c r="B985" s="9">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C985" s="21" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D985" s="20">
-        <v>3</v>
+        <v>1142</v>
+      </c>
+      <c r="D985" s="21" t="s">
+        <v>1899</v>
       </c>
       <c r="E985" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F985" s="20">
         <v>1</v>
       </c>
       <c r="G985" s="21" t="s">
-        <v>2072</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="986" spans="1:7">
@@ -52652,19 +52658,19 @@
         <v>408</v>
       </c>
       <c r="C986" s="21" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D986" s="21" t="s">
-        <v>1900</v>
+        <v>1117</v>
+      </c>
+      <c r="D986" s="20">
+        <v>3</v>
       </c>
       <c r="E986" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F986" s="20">
         <v>1</v>
       </c>
       <c r="G986" s="21" t="s">
-        <v>1876</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="987" spans="1:7">
@@ -52672,22 +52678,22 @@
         <v>986</v>
       </c>
       <c r="B987" s="9">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C987" s="21" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D987" s="20">
-        <v>4</v>
+        <v>1142</v>
+      </c>
+      <c r="D987" s="21" t="s">
+        <v>1899</v>
       </c>
       <c r="E987" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F987" s="20">
         <v>1</v>
       </c>
       <c r="G987" s="21" t="s">
-        <v>2151</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="988" spans="1:7">
@@ -52698,19 +52704,42 @@
         <v>409</v>
       </c>
       <c r="C988" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D988" s="20">
+        <v>4</v>
+      </c>
+      <c r="E988" s="20">
+        <v>3</v>
+      </c>
+      <c r="F988" s="20">
+        <v>1</v>
+      </c>
+      <c r="G988" s="21" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="989" spans="1:7">
+      <c r="A989" s="8">
+        <v>988</v>
+      </c>
+      <c r="B989" s="9">
+        <v>409</v>
+      </c>
+      <c r="C989" s="21" t="s">
         <v>1142</v>
       </c>
-      <c r="D988" s="21" t="s">
-        <v>1900</v>
-      </c>
-      <c r="E988" s="20">
-        <v>2</v>
-      </c>
-      <c r="F988" s="20">
-        <v>1</v>
-      </c>
-      <c r="G988" s="21" t="s">
-        <v>1876</v>
+      <c r="D989" s="21" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E989" s="20">
+        <v>2</v>
+      </c>
+      <c r="F989" s="20">
+        <v>1</v>
+      </c>
+      <c r="G989" s="21" t="s">
+        <v>1875</v>
       </c>
     </row>
   </sheetData>
@@ -52726,7 +52755,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -52860,13 +52889,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -52889,7 +52918,7 @@
         <v>1723</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -52912,7 +52941,7 @@
         <v>884</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -52929,13 +52958,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -52952,13 +52981,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -52975,13 +53004,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -52998,22 +53027,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>2157</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>2158</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -53021,13 +53050,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -53036,7 +53065,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -53044,13 +53073,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -53059,7 +53088,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -53067,13 +53096,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -53082,7 +53111,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.16/permission_server_config.xlsx
+++ b/config_3.16/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -9888,10 +9888,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>day_delay</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>时间为3.9号8点以后登录的新玩家</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9947,6 +9943,10 @@
   </si>
   <si>
     <t>actp_rank_xxlzb_006_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>now</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -15613,10 +15613,10 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="3" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B471" s="3" t="s">
         <v>2145</v>
-      </c>
-      <c r="B471" s="3" t="s">
-        <v>2146</v>
       </c>
       <c r="C471" s="3">
         <v>22</v>
@@ -15634,11 +15634,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O378"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G356" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G350" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G372" sqref="G372"/>
+      <selection pane="bottomRight" activeCell="J373" sqref="J373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -27297,7 +27297,7 @@
         <v>1</v>
       </c>
       <c r="J345" s="16" t="s">
-        <v>1201</v>
+        <v>2159</v>
       </c>
       <c r="K345" s="17">
         <v>1598889600</v>
@@ -28013,7 +28013,7 @@
         <v>1615852800</v>
       </c>
       <c r="L366" s="66" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="367" spans="1:12" s="22" customFormat="1">
@@ -28047,7 +28047,7 @@
         <v>1615852800</v>
       </c>
       <c r="L367" s="66" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="368" spans="1:12" s="22" customFormat="1">
@@ -28194,7 +28194,7 @@
         <v>1</v>
       </c>
       <c r="C372" s="58" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="D372" s="66" t="s">
         <v>2132</v>
@@ -28211,13 +28211,13 @@
         <v>1</v>
       </c>
       <c r="J372" s="66" t="s">
-        <v>455</v>
+        <v>733</v>
       </c>
       <c r="K372" s="20">
         <v>1615824000</v>
       </c>
       <c r="L372" s="66" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="373" spans="1:12" s="67" customFormat="1">
@@ -28228,7 +28228,7 @@
         <v>1</v>
       </c>
       <c r="C373" s="58" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="D373" s="66" t="s">
         <v>2086</v>
@@ -28245,13 +28245,13 @@
         <v>1</v>
       </c>
       <c r="J373" s="66" t="s">
-        <v>2142</v>
+        <v>733</v>
       </c>
       <c r="K373" s="20">
         <v>1615824000</v>
       </c>
       <c r="L373" s="66" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -28277,7 +28277,7 @@
         <v>1</v>
       </c>
       <c r="J374" s="26" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="K374" s="26">
         <v>1615248000</v>
@@ -28291,10 +28291,10 @@
         <v>1</v>
       </c>
       <c r="C375" s="66" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="D375" s="66" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="E375" s="65"/>
       <c r="F375" s="65"/>
@@ -28314,7 +28314,7 @@
         <v>1615824000</v>
       </c>
       <c r="L375" s="66" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -28325,10 +28325,10 @@
         <v>1</v>
       </c>
       <c r="C376" s="66" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D376" s="66" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="E376" s="65"/>
       <c r="F376" s="65"/>
@@ -28348,7 +28348,7 @@
         <v>1615824000</v>
       </c>
       <c r="L376" s="66" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -28359,10 +28359,10 @@
         <v>1</v>
       </c>
       <c r="C377" s="66" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="D377" s="66" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="E377" s="65"/>
       <c r="F377" s="65"/>
@@ -28382,7 +28382,7 @@
         <v>1615824000</v>
       </c>
       <c r="L377" s="66" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -28393,10 +28393,10 @@
         <v>1</v>
       </c>
       <c r="C378" s="66" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="D378" s="66" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="E378" s="65"/>
       <c r="F378" s="65"/>
@@ -28416,7 +28416,7 @@
         <v>1615824000</v>
       </c>
       <c r="L378" s="66" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
   </sheetData>
@@ -28432,7 +28432,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C942" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -51873,7 +51873,7 @@
         <v>1</v>
       </c>
       <c r="G979" s="49" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="980" spans="1:7">
@@ -51919,7 +51919,7 @@
         <v>1</v>
       </c>
       <c r="G981" s="21" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="982" spans="1:7">
@@ -51942,7 +51942,7 @@
         <v>1</v>
       </c>
       <c r="G982" s="21" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="983" spans="1:7">
@@ -52034,7 +52034,7 @@
         <v>1</v>
       </c>
       <c r="G986" s="21" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="987" spans="1:7">

--- a/config_3.16/permission_server_config.xlsx
+++ b/config_3.16/permission_server_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4988" uniqueCount="2150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5004" uniqueCount="2154">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9913,6 +9913,22 @@
   </si>
   <si>
     <t>小游戏托管限制</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_gehk_v3_normal</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_gehk_v4v12_normal</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_gehk_v3_cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_gehk_v4v12_cjj</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -15598,13 +15614,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O374"/>
+  <dimension ref="A1:O378"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D350" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D356" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C380" sqref="C380"/>
+      <selection pane="bottomRight" activeCell="C382" sqref="C382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -27952,33 +27968,33 @@
       <c r="A366" s="16">
         <v>365</v>
       </c>
-      <c r="B366" s="65">
-        <v>1</v>
-      </c>
-      <c r="C366" s="66" t="s">
+      <c r="B366" s="17">
+        <v>0</v>
+      </c>
+      <c r="C366" s="16" t="s">
         <v>2121</v>
       </c>
-      <c r="D366" s="66" t="s">
+      <c r="D366" s="16" t="s">
         <v>2136</v>
       </c>
-      <c r="E366" s="65"/>
-      <c r="F366" s="65"/>
-      <c r="G366" s="65">
+      <c r="E366" s="17"/>
+      <c r="F366" s="17"/>
+      <c r="G366" s="17">
         <v>399</v>
       </c>
-      <c r="H366" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I366" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J366" s="65" t="s">
+      <c r="H366" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I366" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J366" s="17" t="s">
         <v>455</v>
       </c>
-      <c r="K366" s="65">
+      <c r="K366" s="17">
         <v>1615248000</v>
       </c>
-      <c r="L366" s="66" t="s">
+      <c r="L366" s="16" t="s">
         <v>2118</v>
       </c>
     </row>
@@ -27986,166 +28002,166 @@
       <c r="A367" s="16">
         <v>366</v>
       </c>
-      <c r="B367" s="65">
-        <v>1</v>
-      </c>
-      <c r="C367" s="66" t="s">
+      <c r="B367" s="17">
+        <v>0</v>
+      </c>
+      <c r="C367" s="16" t="s">
         <v>2122</v>
       </c>
-      <c r="D367" s="66" t="s">
+      <c r="D367" s="16" t="s">
         <v>2123</v>
       </c>
-      <c r="E367" s="65"/>
-      <c r="F367" s="65"/>
-      <c r="G367" s="65">
+      <c r="E367" s="17"/>
+      <c r="F367" s="17"/>
+      <c r="G367" s="17">
         <v>400</v>
       </c>
-      <c r="H367" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I367" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J367" s="66" t="s">
+      <c r="H367" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I367" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J367" s="16" t="s">
         <v>1134</v>
       </c>
-      <c r="K367" s="65">
+      <c r="K367" s="17">
         <v>1615248000</v>
       </c>
-      <c r="L367" s="66" t="s">
+      <c r="L367" s="16" t="s">
         <v>2125</v>
       </c>
     </row>
-    <row r="368" spans="1:12">
+    <row r="368" spans="1:12" s="22" customFormat="1">
       <c r="A368" s="16">
         <v>367</v>
       </c>
-      <c r="B368" s="65">
-        <v>1</v>
-      </c>
-      <c r="C368" s="66" t="s">
+      <c r="B368" s="17">
+        <v>0</v>
+      </c>
+      <c r="C368" s="16" t="s">
         <v>2138</v>
       </c>
-      <c r="D368" s="66" t="s">
+      <c r="D368" s="16" t="s">
         <v>2126</v>
       </c>
-      <c r="E368" s="65"/>
-      <c r="F368" s="65"/>
-      <c r="G368" s="65">
+      <c r="E368" s="17"/>
+      <c r="F368" s="17"/>
+      <c r="G368" s="17">
         <v>401</v>
       </c>
-      <c r="H368" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I368" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J368" s="66" t="s">
+      <c r="H368" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I368" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J368" s="16" t="s">
         <v>1116</v>
       </c>
-      <c r="K368" s="65">
+      <c r="K368" s="17">
         <v>1615248000</v>
       </c>
-      <c r="L368" s="66" t="s">
+      <c r="L368" s="16" t="s">
         <v>2118</v>
       </c>
     </row>
-    <row r="369" spans="1:12">
+    <row r="369" spans="1:12" s="22" customFormat="1">
       <c r="A369" s="16">
         <v>368</v>
       </c>
-      <c r="B369" s="65">
-        <v>1</v>
-      </c>
-      <c r="C369" s="66" t="s">
+      <c r="B369" s="17">
+        <v>0</v>
+      </c>
+      <c r="C369" s="16" t="s">
         <v>2137</v>
       </c>
-      <c r="D369" s="66" t="s">
+      <c r="D369" s="16" t="s">
         <v>2127</v>
       </c>
-      <c r="E369" s="65"/>
-      <c r="F369" s="65"/>
-      <c r="G369" s="65">
+      <c r="E369" s="17"/>
+      <c r="F369" s="17"/>
+      <c r="G369" s="17">
         <v>402</v>
       </c>
-      <c r="H369" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I369" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J369" s="66" t="s">
+      <c r="H369" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I369" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J369" s="16" t="s">
         <v>1116</v>
       </c>
-      <c r="K369" s="65">
+      <c r="K369" s="17">
         <v>1615248000</v>
       </c>
-      <c r="L369" s="66" t="s">
+      <c r="L369" s="16" t="s">
         <v>2118</v>
       </c>
     </row>
-    <row r="370" spans="1:12">
+    <row r="370" spans="1:12" s="22" customFormat="1">
       <c r="A370" s="16">
-        <v>369</v>
-      </c>
-      <c r="B370" s="65">
-        <v>1</v>
-      </c>
-      <c r="C370" s="66" t="s">
+        <v>368</v>
+      </c>
+      <c r="B370" s="17">
+        <v>1</v>
+      </c>
+      <c r="C370" s="16" t="s">
         <v>2129</v>
       </c>
       <c r="D370" s="16" t="s">
         <v>2131</v>
       </c>
-      <c r="E370" s="65"/>
-      <c r="F370" s="65"/>
+      <c r="E370" s="17"/>
+      <c r="F370" s="17"/>
       <c r="G370" s="16">
         <v>370</v>
       </c>
-      <c r="H370" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I370" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J370" s="66" t="s">
+      <c r="H370" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I370" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J370" s="16" t="s">
         <v>1116</v>
       </c>
-      <c r="K370" s="65">
+      <c r="K370" s="17">
         <v>1615248000</v>
       </c>
       <c r="L370" s="16" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="371" spans="1:12">
+    <row r="371" spans="1:12" s="22" customFormat="1">
       <c r="A371" s="16">
-        <v>370</v>
-      </c>
-      <c r="B371" s="65">
-        <v>1</v>
-      </c>
-      <c r="C371" s="66" t="s">
+        <v>368</v>
+      </c>
+      <c r="B371" s="17">
+        <v>1</v>
+      </c>
+      <c r="C371" s="16" t="s">
         <v>2130</v>
       </c>
       <c r="D371" s="16" t="s">
         <v>2132</v>
       </c>
-      <c r="E371" s="65"/>
-      <c r="F371" s="65"/>
+      <c r="E371" s="17"/>
+      <c r="F371" s="17"/>
       <c r="G371" s="16">
         <v>371</v>
       </c>
-      <c r="H371" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I371" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J371" s="66" t="s">
+      <c r="H371" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I371" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J371" s="16" t="s">
         <v>1116</v>
       </c>
-      <c r="K371" s="65">
+      <c r="K371" s="17">
         <v>1615248000</v>
       </c>
       <c r="L371" s="16" t="s">
@@ -28154,75 +28170,75 @@
     </row>
     <row r="372" spans="1:12" s="22" customFormat="1">
       <c r="A372" s="16">
-        <v>371</v>
-      </c>
-      <c r="B372" s="65">
-        <v>1</v>
-      </c>
-      <c r="C372" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="B372" s="17">
+        <v>0</v>
+      </c>
+      <c r="C372" s="31" t="s">
         <v>2134</v>
       </c>
-      <c r="D372" s="66" t="s">
+      <c r="D372" s="16" t="s">
         <v>2133</v>
       </c>
-      <c r="E372" s="65"/>
-      <c r="F372" s="65"/>
-      <c r="G372" s="65">
+      <c r="E372" s="17"/>
+      <c r="F372" s="17"/>
+      <c r="G372" s="17">
         <v>393</v>
       </c>
-      <c r="H372" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="I372" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="J372" s="66" t="s">
+      <c r="H372" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I372" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J372" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="K372" s="65">
+      <c r="K372" s="17">
         <v>1615248000</v>
       </c>
-      <c r="L372" s="66" t="s">
+      <c r="L372" s="16" t="s">
         <v>2118</v>
       </c>
     </row>
     <row r="373" spans="1:12" s="22" customFormat="1">
       <c r="A373" s="16">
-        <v>372</v>
-      </c>
-      <c r="B373" s="65">
-        <v>1</v>
-      </c>
-      <c r="C373" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="B373" s="17">
+        <v>0</v>
+      </c>
+      <c r="C373" s="31" t="s">
         <v>2135</v>
       </c>
-      <c r="D373" s="66" t="s">
+      <c r="D373" s="16" t="s">
         <v>2086</v>
       </c>
-      <c r="E373" s="65"/>
-      <c r="F373" s="65"/>
-      <c r="G373" s="65">
+      <c r="E373" s="17"/>
+      <c r="F373" s="17"/>
+      <c r="G373" s="17">
         <v>394</v>
       </c>
-      <c r="H373" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="I373" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="J373" s="66" t="s">
+      <c r="H373" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I373" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J373" s="16" t="s">
         <v>2145</v>
       </c>
-      <c r="K373" s="65">
+      <c r="K373" s="17">
         <v>1615248000</v>
       </c>
-      <c r="L373" s="66" t="s">
+      <c r="L373" s="16" t="s">
         <v>2118</v>
       </c>
     </row>
     <row r="374" spans="1:12">
-      <c r="A374" s="26">
-        <v>373</v>
+      <c r="A374" s="16">
+        <v>368</v>
       </c>
       <c r="B374" s="26">
         <v>1</v>
@@ -28247,6 +28263,142 @@
       </c>
       <c r="K374" s="26">
         <v>1615248000</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" s="67" customFormat="1">
+      <c r="A375" s="16">
+        <v>368</v>
+      </c>
+      <c r="B375" s="65">
+        <v>1</v>
+      </c>
+      <c r="C375" s="66" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D375" s="66" t="s">
+        <v>2126</v>
+      </c>
+      <c r="E375" s="65"/>
+      <c r="F375" s="65"/>
+      <c r="G375" s="65">
+        <v>401</v>
+      </c>
+      <c r="H375" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I375" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J375" s="66" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K375" s="65">
+        <v>1615248000</v>
+      </c>
+      <c r="L375" s="66" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" s="67" customFormat="1">
+      <c r="A376" s="16">
+        <v>368</v>
+      </c>
+      <c r="B376" s="65">
+        <v>1</v>
+      </c>
+      <c r="C376" s="66" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D376" s="66" t="s">
+        <v>2127</v>
+      </c>
+      <c r="E376" s="65"/>
+      <c r="F376" s="65"/>
+      <c r="G376" s="65">
+        <v>402</v>
+      </c>
+      <c r="H376" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I376" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J376" s="66" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K376" s="65">
+        <v>1615248000</v>
+      </c>
+      <c r="L376" s="66" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" s="67" customFormat="1">
+      <c r="A377" s="16">
+        <v>368</v>
+      </c>
+      <c r="B377" s="65">
+        <v>1</v>
+      </c>
+      <c r="C377" s="66" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D377" s="66" t="s">
+        <v>2126</v>
+      </c>
+      <c r="E377" s="65"/>
+      <c r="F377" s="65"/>
+      <c r="G377" s="65">
+        <v>401</v>
+      </c>
+      <c r="H377" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I377" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J377" s="66" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K377" s="65">
+        <v>1615248000</v>
+      </c>
+      <c r="L377" s="66" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" s="67" customFormat="1">
+      <c r="A378" s="16">
+        <v>368</v>
+      </c>
+      <c r="B378" s="65">
+        <v>1</v>
+      </c>
+      <c r="C378" s="66" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D378" s="66" t="s">
+        <v>2127</v>
+      </c>
+      <c r="E378" s="65"/>
+      <c r="F378" s="65"/>
+      <c r="G378" s="65">
+        <v>402</v>
+      </c>
+      <c r="H378" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I378" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J378" s="66" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K378" s="65">
+        <v>1615248000</v>
+      </c>
+      <c r="L378" s="66" t="s">
+        <v>2118</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.16/permission_server_config.xlsx
+++ b/config_3.16/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -15686,11 +15686,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O378"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D278" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E353" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C301" sqref="C301"/>
+      <selection pane="bottomRight" activeCell="J371" sqref="J371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -28058,8 +28058,8 @@
       <c r="I366" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="J366" s="65" t="s">
-        <v>455</v>
+      <c r="J366" s="66" t="s">
+        <v>733</v>
       </c>
       <c r="K366" s="65">
         <v>1615852800</v>
@@ -28093,7 +28093,7 @@
         <v>1</v>
       </c>
       <c r="J367" s="66" t="s">
-        <v>1134</v>
+        <v>733</v>
       </c>
       <c r="K367" s="65">
         <v>1615852800</v>
@@ -28263,7 +28263,7 @@
         <v>1</v>
       </c>
       <c r="J372" s="66" t="s">
-        <v>733</v>
+        <v>1116</v>
       </c>
       <c r="K372" s="20">
         <v>1615824000</v>
@@ -28297,7 +28297,7 @@
         <v>1</v>
       </c>
       <c r="J373" s="66" t="s">
-        <v>733</v>
+        <v>1116</v>
       </c>
       <c r="K373" s="20">
         <v>1615824000</v>
@@ -28484,11 +28484,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C804" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C858" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F826" sqref="F826"/>
+      <selection pane="bottomRight" activeCell="D833" sqref="D833"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
